--- a/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,34 +656,34 @@
         <v>1.001306194609692</v>
       </c>
       <c r="D3">
+        <v>1.001306194609692</v>
+      </c>
+      <c r="E3">
+        <v>0.9996511179017757</v>
+      </c>
+      <c r="F3">
+        <v>1.000573318986792</v>
+      </c>
+      <c r="G3">
+        <v>1.000474199952385</v>
+      </c>
+      <c r="H3">
+        <v>0.998945526131739</v>
+      </c>
+      <c r="I3">
         <v>0.9984156893229064</v>
       </c>
-      <c r="E3">
+      <c r="J3">
+        <v>0.9995931410576885</v>
+      </c>
+      <c r="K3">
         <v>1.000255461004309</v>
       </c>
-      <c r="F3">
+      <c r="L3">
+        <v>0.9984156893229064</v>
+      </c>
+      <c r="M3">
         <v>1.001306194609692</v>
-      </c>
-      <c r="G3">
-        <v>0.9996511179017757</v>
-      </c>
-      <c r="H3">
-        <v>1.000573318986792</v>
-      </c>
-      <c r="I3">
-        <v>1.001306194609692</v>
-      </c>
-      <c r="J3">
-        <v>0.9984156893229064</v>
-      </c>
-      <c r="K3">
-        <v>0.9995931410576885</v>
-      </c>
-      <c r="L3">
-        <v>1.000474199952385</v>
-      </c>
-      <c r="M3">
-        <v>0.998945526131739</v>
       </c>
       <c r="N3">
         <v>1.001306194609692</v>
@@ -761,10 +713,10 @@
         <v>1.000186931489675</v>
       </c>
       <c r="W3">
-        <v>0.9999018311209109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.999901831120911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,34 +727,34 @@
         <v>1.002515091269889</v>
       </c>
       <c r="D4">
+        <v>1.002515091269889</v>
+      </c>
+      <c r="E4">
+        <v>0.9993260057481815</v>
+      </c>
+      <c r="F4">
+        <v>1.001108673769537</v>
+      </c>
+      <c r="G4">
+        <v>1.000913556789542</v>
+      </c>
+      <c r="H4">
+        <v>0.9979628436269711</v>
+      </c>
+      <c r="I4">
         <v>0.9969378497957793</v>
       </c>
-      <c r="E4">
+      <c r="J4">
+        <v>0.9992170527972349</v>
+      </c>
+      <c r="K4">
         <v>1.000499105385128</v>
       </c>
-      <c r="F4">
+      <c r="L4">
+        <v>0.9969378497957793</v>
+      </c>
+      <c r="M4">
         <v>1.002515091269889</v>
-      </c>
-      <c r="G4">
-        <v>0.9993260057481813</v>
-      </c>
-      <c r="H4">
-        <v>1.001108673769537</v>
-      </c>
-      <c r="I4">
-        <v>1.002515091269889</v>
-      </c>
-      <c r="J4">
-        <v>0.9969378497957793</v>
-      </c>
-      <c r="K4">
-        <v>0.9992170527972349</v>
-      </c>
-      <c r="L4">
-        <v>1.000913556789542</v>
-      </c>
-      <c r="M4">
-        <v>0.9979628436269712</v>
       </c>
       <c r="N4">
         <v>1.002515091269889</v>
@@ -814,7 +766,7 @@
         <v>0.9987184775904538</v>
       </c>
       <c r="Q4">
-        <v>0.9999125555666548</v>
+        <v>0.999912555566655</v>
       </c>
       <c r="R4">
         <v>0.9999840154835988</v>
@@ -835,7 +787,7 @@
         <v>0.9998100223977829</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.004801201277693</v>
       </c>
       <c r="D5">
+        <v>1.004801201277693</v>
+      </c>
+      <c r="E5">
+        <v>0.9987069850532233</v>
+      </c>
+      <c r="F5">
+        <v>1.00213004935556</v>
+      </c>
+      <c r="G5">
+        <v>1.001745324661547</v>
+      </c>
+      <c r="H5">
+        <v>0.996091706630255</v>
+      </c>
+      <c r="I5">
         <v>0.9941212666531927</v>
       </c>
-      <c r="E5">
+      <c r="J5">
+        <v>0.9985067162692344</v>
+      </c>
+      <c r="K5">
         <v>1.000973534115416</v>
       </c>
-      <c r="F5">
+      <c r="L5">
+        <v>0.9941212666531927</v>
+      </c>
+      <c r="M5">
         <v>1.004801201277693</v>
-      </c>
-      <c r="G5">
-        <v>0.9987069850532233</v>
-      </c>
-      <c r="H5">
-        <v>1.00213004935556</v>
-      </c>
-      <c r="I5">
-        <v>1.004801201277693</v>
-      </c>
-      <c r="J5">
-        <v>0.9941212666531927</v>
-      </c>
-      <c r="K5">
-        <v>0.9985067162692344</v>
-      </c>
-      <c r="L5">
-        <v>1.001745324661547</v>
-      </c>
-      <c r="M5">
-        <v>0.996091706630255</v>
       </c>
       <c r="N5">
         <v>1.004801201277693</v>
@@ -906,7 +858,7 @@
         <v>0.9996345980020152</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,34 +869,34 @@
         <v>1.007029672713364</v>
       </c>
       <c r="D6">
+        <v>1.007029672713364</v>
+      </c>
+      <c r="E6">
+        <v>0.9981026462303424</v>
+      </c>
+      <c r="F6">
+        <v>1.003127631122956</v>
+      </c>
+      <c r="G6">
+        <v>1.002556315221487</v>
+      </c>
+      <c r="H6">
+        <v>0.9942649651181188</v>
+      </c>
+      <c r="I6">
         <v>0.9913709374918126</v>
       </c>
-      <c r="E6">
+      <c r="J6">
+        <v>0.9978144734825449</v>
+      </c>
+      <c r="K6">
         <v>1.001438965951098</v>
       </c>
-      <c r="F6">
+      <c r="L6">
+        <v>0.9913709374918126</v>
+      </c>
+      <c r="M6">
         <v>1.007029672713364</v>
-      </c>
-      <c r="G6">
-        <v>0.9981026462303424</v>
-      </c>
-      <c r="H6">
-        <v>1.003127631122956</v>
-      </c>
-      <c r="I6">
-        <v>1.007029672713364</v>
-      </c>
-      <c r="J6">
-        <v>0.9913709374918126</v>
-      </c>
-      <c r="K6">
-        <v>0.9978144734825449</v>
-      </c>
-      <c r="L6">
-        <v>1.002556315221487</v>
-      </c>
-      <c r="M6">
-        <v>0.9942649651181188</v>
       </c>
       <c r="N6">
         <v>1.007029672713364</v>
@@ -956,7 +908,7 @@
         <v>0.9964049517214555</v>
       </c>
       <c r="Q6">
-        <v>0.9997708060907203</v>
+        <v>0.9997708060907204</v>
       </c>
       <c r="R6">
         <v>0.9999465253854249</v>
@@ -965,10 +917,10 @@
         <v>0.9969708498910844</v>
       </c>
       <c r="T6">
-        <v>0.9999465253854248</v>
+        <v>0.9999465253854249</v>
       </c>
       <c r="U6">
-        <v>0.9994855555966542</v>
+        <v>0.9994855555966543</v>
       </c>
       <c r="V6">
         <v>1.000994379019996</v>
@@ -977,7 +929,7 @@
         <v>0.9994632009164655</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -988,34 +940,34 @@
         <v>1.000071513871152</v>
       </c>
       <c r="D7">
-        <v>0.9998625734772618</v>
+        <v>1.000071513871152</v>
       </c>
       <c r="E7">
+        <v>0.9999711498986594</v>
+      </c>
+      <c r="F7">
+        <v>1.000052196457989</v>
+      </c>
+      <c r="G7">
+        <v>1.000028075341102</v>
+      </c>
+      <c r="H7">
+        <v>0.9999126033045127</v>
+      </c>
+      <c r="I7">
+        <v>0.9998625734772616</v>
+      </c>
+      <c r="J7">
+        <v>0.9999797513184749</v>
+      </c>
+      <c r="K7">
         <v>1.000045666543799</v>
       </c>
-      <c r="F7">
+      <c r="L7">
+        <v>0.9998625734772616</v>
+      </c>
+      <c r="M7">
         <v>1.000071513871152</v>
-      </c>
-      <c r="G7">
-        <v>0.9999711498986594</v>
-      </c>
-      <c r="H7">
-        <v>1.000052196457989</v>
-      </c>
-      <c r="I7">
-        <v>1.000071513871152</v>
-      </c>
-      <c r="J7">
-        <v>0.9998625734772618</v>
-      </c>
-      <c r="K7">
-        <v>0.9999797513184749</v>
-      </c>
-      <c r="L7">
-        <v>1.000028075341102</v>
-      </c>
-      <c r="M7">
-        <v>0.9999126033045127</v>
       </c>
       <c r="N7">
         <v>1.000071513871152</v>
@@ -1030,13 +982,13 @@
         <v>1.000008408221229</v>
       </c>
       <c r="R7">
-        <v>0.9999932512974042</v>
+        <v>0.9999932512974041</v>
       </c>
       <c r="S7">
         <v>0.9999597966399065</v>
       </c>
       <c r="T7">
-        <v>0.9999932512974045</v>
+        <v>0.9999932512974042</v>
       </c>
       <c r="U7">
         <v>0.9999877259477181</v>
@@ -1045,10 +997,10 @@
         <v>1.000004483532405</v>
       </c>
       <c r="W7">
-        <v>0.9999904412766188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999904412766187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,67 +1011,67 @@
         <v>1.000215306525915</v>
       </c>
       <c r="D8">
+        <v>1.000215306525915</v>
+      </c>
+      <c r="E8">
+        <v>0.9999169936301969</v>
+      </c>
+      <c r="F8">
+        <v>1.000148929504977</v>
+      </c>
+      <c r="G8">
+        <v>1.000083689639559</v>
+      </c>
+      <c r="H8">
+        <v>0.9997485954441594</v>
+      </c>
+      <c r="I8">
         <v>0.9996062785929726</v>
       </c>
-      <c r="E8">
-        <v>1.000124967336891</v>
-      </c>
-      <c r="F8">
+      <c r="J8">
+        <v>0.9999382378047446</v>
+      </c>
+      <c r="K8">
+        <v>1.000124967336892</v>
+      </c>
+      <c r="L8">
+        <v>0.9996062785929726</v>
+      </c>
+      <c r="M8">
         <v>1.000215306525915</v>
-      </c>
-      <c r="G8">
-        <v>0.999916993630197</v>
-      </c>
-      <c r="H8">
-        <v>1.000148929504977</v>
-      </c>
-      <c r="I8">
-        <v>1.000215306525915</v>
-      </c>
-      <c r="J8">
-        <v>0.9996062785929726</v>
-      </c>
-      <c r="K8">
-        <v>0.9999382378047447</v>
-      </c>
-      <c r="L8">
-        <v>1.000083689639559</v>
-      </c>
-      <c r="M8">
-        <v>0.9997485954441594</v>
       </c>
       <c r="N8">
         <v>1.000215306525915</v>
       </c>
       <c r="O8">
-        <v>1.000124967336891</v>
+        <v>1.000124967336892</v>
       </c>
       <c r="P8">
-        <v>0.9998656229649321</v>
+        <v>0.9998656229649323</v>
       </c>
       <c r="Q8">
         <v>1.000020980483544</v>
       </c>
       <c r="R8">
-        <v>0.9999821841519262</v>
+        <v>0.9999821841519264</v>
       </c>
       <c r="S8">
-        <v>0.9998827465200204</v>
+        <v>0.9998827465200205</v>
       </c>
       <c r="T8">
-        <v>0.9999821841519262</v>
+        <v>0.9999821841519263</v>
       </c>
       <c r="U8">
-        <v>0.9999658865214939</v>
+        <v>0.999965886521494</v>
       </c>
       <c r="V8">
         <v>1.000015770522378</v>
       </c>
       <c r="W8">
-        <v>0.9999728748099268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999728748099269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1130,34 +1082,34 @@
         <v>1.000303127436831</v>
       </c>
       <c r="D9">
+        <v>1.000303127436831</v>
+      </c>
+      <c r="E9">
+        <v>0.9998859125471895</v>
+      </c>
+      <c r="F9">
+        <v>1.000203749907152</v>
+      </c>
+      <c r="G9">
+        <v>1.000117223825386</v>
+      </c>
+      <c r="H9">
+        <v>0.99965449832678</v>
+      </c>
+      <c r="I9">
         <v>0.9994601189994284</v>
       </c>
-      <c r="E9">
+      <c r="J9">
+        <v>0.9999124684332935</v>
+      </c>
+      <c r="K9">
         <v>1.000166917605444</v>
       </c>
-      <c r="F9">
+      <c r="L9">
+        <v>0.9994601189994284</v>
+      </c>
+      <c r="M9">
         <v>1.000303127436831</v>
-      </c>
-      <c r="G9">
-        <v>0.9998859125471891</v>
-      </c>
-      <c r="H9">
-        <v>1.000203749907152</v>
-      </c>
-      <c r="I9">
-        <v>1.000303127436831</v>
-      </c>
-      <c r="J9">
-        <v>0.9994601189994284</v>
-      </c>
-      <c r="K9">
-        <v>0.9999124684332935</v>
-      </c>
-      <c r="L9">
-        <v>1.000117223825386</v>
-      </c>
-      <c r="M9">
-        <v>0.99965449832678</v>
       </c>
       <c r="N9">
         <v>1.000303127436831</v>
@@ -1175,7 +1127,7 @@
         <v>0.9999767213472345</v>
       </c>
       <c r="S9">
-        <v>0.9998376497173537</v>
+        <v>0.999837649717354</v>
       </c>
       <c r="T9">
         <v>0.9999767213472345</v>
@@ -1190,7 +1142,7 @@
         <v>0.999963002135188</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1201,34 +1153,34 @@
         <v>1.000648774002584</v>
       </c>
       <c r="D10">
+        <v>1.000648774002584</v>
+      </c>
+      <c r="E10">
+        <v>0.9997529387094025</v>
+      </c>
+      <c r="F10">
+        <v>1.000442239014597</v>
+      </c>
+      <c r="G10">
+        <v>1.000251513625566</v>
+      </c>
+      <c r="H10">
+        <v>0.9992517574325023</v>
+      </c>
+      <c r="I10">
         <v>0.9988295165268308</v>
       </c>
-      <c r="E10">
+      <c r="J10">
+        <v>0.9998132600098526</v>
+      </c>
+      <c r="K10">
         <v>1.000366618513209</v>
       </c>
-      <c r="F10">
+      <c r="L10">
+        <v>0.9988295165268308</v>
+      </c>
+      <c r="M10">
         <v>1.000648774002584</v>
-      </c>
-      <c r="G10">
-        <v>0.9997529387094025</v>
-      </c>
-      <c r="H10">
-        <v>1.000442239014597</v>
-      </c>
-      <c r="I10">
-        <v>1.000648774002584</v>
-      </c>
-      <c r="J10">
-        <v>0.9988295165268308</v>
-      </c>
-      <c r="K10">
-        <v>0.9998132600098526</v>
-      </c>
-      <c r="L10">
-        <v>1.000251513625566</v>
-      </c>
-      <c r="M10">
-        <v>0.9992517574325023</v>
       </c>
       <c r="N10">
         <v>1.000648774002584</v>
@@ -1243,16 +1195,16 @@
         <v>1.000059778611305</v>
       </c>
       <c r="R10">
-        <v>0.9999483030142078</v>
+        <v>0.9999483030142079</v>
       </c>
       <c r="S10">
         <v>0.999649691249814</v>
       </c>
       <c r="T10">
-        <v>0.9999483030142078</v>
+        <v>0.9999483030142079</v>
       </c>
       <c r="U10">
-        <v>0.9998994619380065</v>
+        <v>0.9998994619380066</v>
       </c>
       <c r="V10">
         <v>1.000049324350922</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999195772293179</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,34 +1224,34 @@
         <v>1.001107830014321</v>
       </c>
       <c r="D11">
+        <v>1.001107830014321</v>
+      </c>
+      <c r="E11">
+        <v>0.9995878560552176</v>
+      </c>
+      <c r="F11">
+        <v>1.000734381572953</v>
+      </c>
+      <c r="G11">
+        <v>1.00042736846771</v>
+      </c>
+      <c r="H11">
+        <v>0.9987519324965857</v>
+      </c>
+      <c r="I11">
         <v>0.9980519128322423</v>
       </c>
-      <c r="E11">
+      <c r="J11">
+        <v>0.9996791016807496</v>
+      </c>
+      <c r="K11">
         <v>1.000594402789601</v>
       </c>
-      <c r="F11">
+      <c r="L11">
+        <v>0.9980519128322423</v>
+      </c>
+      <c r="M11">
         <v>1.001107830014321</v>
-      </c>
-      <c r="G11">
-        <v>0.9995878560552176</v>
-      </c>
-      <c r="H11">
-        <v>1.000734381572953</v>
-      </c>
-      <c r="I11">
-        <v>1.001107830014321</v>
-      </c>
-      <c r="J11">
-        <v>0.9980519128322423</v>
-      </c>
-      <c r="K11">
-        <v>0.9996791016807496</v>
-      </c>
-      <c r="L11">
-        <v>1.00042736846771</v>
-      </c>
-      <c r="M11">
-        <v>0.9987519324965857</v>
       </c>
       <c r="N11">
         <v>1.001107830014321</v>
@@ -1332,7 +1284,7 @@
         <v>0.9998668482386726</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,34 +1295,34 @@
         <v>0.9881220697008604</v>
       </c>
       <c r="D12">
-        <v>1.02967180262816</v>
+        <v>0.9881220697008604</v>
       </c>
       <c r="E12">
+        <v>1.006108542682043</v>
+      </c>
+      <c r="F12">
+        <v>0.9885194239306797</v>
+      </c>
+      <c r="G12">
+        <v>0.9950518239425535</v>
+      </c>
+      <c r="H12">
+        <v>1.018523042721934</v>
+      </c>
+      <c r="I12">
+        <v>1.029671802628159</v>
+      </c>
+      <c r="J12">
+        <v>1.003089179129521</v>
+      </c>
+      <c r="K12">
         <v>0.988136457402741</v>
       </c>
-      <c r="F12">
+      <c r="L12">
+        <v>1.029671802628159</v>
+      </c>
+      <c r="M12">
         <v>0.9881220697008604</v>
-      </c>
-      <c r="G12">
-        <v>1.006108542682043</v>
-      </c>
-      <c r="H12">
-        <v>0.9885194239306797</v>
-      </c>
-      <c r="I12">
-        <v>0.9881220697008604</v>
-      </c>
-      <c r="J12">
-        <v>1.02967180262816</v>
-      </c>
-      <c r="K12">
-        <v>1.003089179129521</v>
-      </c>
-      <c r="L12">
-        <v>0.9950518239425534</v>
-      </c>
-      <c r="M12">
-        <v>1.018523042721934</v>
       </c>
       <c r="N12">
         <v>0.9881220697008604</v>
@@ -1403,7 +1355,7 @@
         <v>1.002152792767312</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1414,34 +1366,34 @@
         <v>0.9929960582755254</v>
       </c>
       <c r="D13">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="E13">
+        <v>1.001292115374317</v>
+      </c>
+      <c r="F13">
+        <v>0.9981609168818504</v>
+      </c>
+      <c r="G13">
+        <v>0.997582651098466</v>
+      </c>
+      <c r="H13">
+        <v>1.003893446055748</v>
+      </c>
+      <c r="I13">
         <v>1.005486818328789</v>
       </c>
-      <c r="E13">
+      <c r="J13">
+        <v>1.002301944381739</v>
+      </c>
+      <c r="K13">
         <v>1.0005104598965</v>
       </c>
-      <c r="F13">
+      <c r="L13">
+        <v>1.005486818328789</v>
+      </c>
+      <c r="M13">
         <v>0.9929960582755254</v>
-      </c>
-      <c r="G13">
-        <v>1.001292115374317</v>
-      </c>
-      <c r="H13">
-        <v>0.9981609168818503</v>
-      </c>
-      <c r="I13">
-        <v>0.9929960582755254</v>
-      </c>
-      <c r="J13">
-        <v>1.005486818328789</v>
-      </c>
-      <c r="K13">
-        <v>1.002301944381739</v>
-      </c>
-      <c r="L13">
-        <v>0.997582651098466</v>
-      </c>
-      <c r="M13">
-        <v>1.003893446055748</v>
       </c>
       <c r="N13">
         <v>0.9929960582755254</v>
@@ -1474,7 +1426,7 @@
         <v>1.000278051286617</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1485,34 +1437,34 @@
         <v>0.945252614043252</v>
       </c>
       <c r="D14">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="E14">
+        <v>1.017803375928777</v>
+      </c>
+      <c r="F14">
+        <v>0.9691811370087832</v>
+      </c>
+      <c r="G14">
+        <v>0.9794356041647687</v>
+      </c>
+      <c r="H14">
+        <v>1.053874942934517</v>
+      </c>
+      <c r="I14">
         <v>1.082940084146371</v>
       </c>
-      <c r="E14">
+      <c r="J14">
+        <v>1.016391450488876</v>
+      </c>
+      <c r="K14">
         <v>0.9789578497916704</v>
       </c>
-      <c r="F14">
+      <c r="L14">
+        <v>1.082940084146371</v>
+      </c>
+      <c r="M14">
         <v>0.945252614043252</v>
-      </c>
-      <c r="G14">
-        <v>1.017803375928777</v>
-      </c>
-      <c r="H14">
-        <v>0.9691811370087831</v>
-      </c>
-      <c r="I14">
-        <v>0.945252614043252</v>
-      </c>
-      <c r="J14">
-        <v>1.082940084146371</v>
-      </c>
-      <c r="K14">
-        <v>1.016391450488876</v>
-      </c>
-      <c r="L14">
-        <v>0.9794356041647687</v>
-      </c>
-      <c r="M14">
-        <v>1.053874942934517</v>
       </c>
       <c r="N14">
         <v>0.945252614043252</v>
@@ -1524,7 +1476,7 @@
         <v>1.030948966969021</v>
       </c>
       <c r="Q14">
-        <v>0.9983806128602236</v>
+        <v>0.9983806128602237</v>
       </c>
       <c r="R14">
         <v>1.002383515993764</v>
@@ -1545,7 +1497,7 @@
         <v>1.005479632313377</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,34 +1508,34 @@
         <v>0.985074903623029</v>
       </c>
       <c r="D15">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="E15">
+        <v>1.004729781877404</v>
+      </c>
+      <c r="F15">
+        <v>0.9918623487492738</v>
+      </c>
+      <c r="G15">
+        <v>0.9944205889207962</v>
+      </c>
+      <c r="H15">
+        <v>1.014310749475811</v>
+      </c>
+      <c r="I15">
         <v>1.021967623765933</v>
       </c>
-      <c r="E15">
+      <c r="J15">
+        <v>1.004494326917023</v>
+      </c>
+      <c r="K15">
         <v>0.9946656092377719</v>
       </c>
-      <c r="F15">
+      <c r="L15">
+        <v>1.021967623765933</v>
+      </c>
+      <c r="M15">
         <v>0.985074903623029</v>
-      </c>
-      <c r="G15">
-        <v>1.004729781877404</v>
-      </c>
-      <c r="H15">
-        <v>0.9918623487492738</v>
-      </c>
-      <c r="I15">
-        <v>0.985074903623029</v>
-      </c>
-      <c r="J15">
-        <v>1.021967623765933</v>
-      </c>
-      <c r="K15">
-        <v>1.004494326917023</v>
-      </c>
-      <c r="L15">
-        <v>0.9944205889207962</v>
-      </c>
-      <c r="M15">
-        <v>1.014310749475811</v>
       </c>
       <c r="N15">
         <v>0.985074903623029</v>
@@ -1616,7 +1568,7 @@
         <v>1.00144074157088</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000015805854453</v>
+        <v>1.025074183343095</v>
       </c>
       <c r="D16">
-        <v>0.999999314884106</v>
+        <v>1.025074183343095</v>
       </c>
       <c r="E16">
-        <v>0.9999915389275252</v>
+        <v>0.9931633568305984</v>
       </c>
       <c r="F16">
-        <v>1.000015805854453</v>
+        <v>1.011303190462106</v>
       </c>
       <c r="G16">
-        <v>0.9999993337703582</v>
+        <v>1.009133086887384</v>
       </c>
       <c r="H16">
-        <v>0.9999993459690292</v>
+        <v>0.9793337996074175</v>
       </c>
       <c r="I16">
-        <v>1.000015805854453</v>
+        <v>0.9688623453367977</v>
       </c>
       <c r="J16">
-        <v>0.999999314884106</v>
+        <v>0.9922187918327805</v>
       </c>
       <c r="K16">
-        <v>0.9999943366764441</v>
+        <v>1.00535680501492</v>
       </c>
       <c r="L16">
-        <v>1.000004969033917</v>
+        <v>0.9688623453367977</v>
       </c>
       <c r="M16">
-        <v>0.9999980604133067</v>
+        <v>1.025074183343095</v>
       </c>
       <c r="N16">
-        <v>1.000015805854453</v>
+        <v>1.025074183343095</v>
       </c>
       <c r="O16">
-        <v>0.9999915389275252</v>
+        <v>1.00535680501492</v>
       </c>
       <c r="P16">
-        <v>0.9999954269058156</v>
+        <v>0.9871095751758587</v>
       </c>
       <c r="Q16">
-        <v>0.9999954363489417</v>
+        <v>0.9992600809227591</v>
       </c>
       <c r="R16">
-        <v>1.000002219888695</v>
+        <v>0.9997644445649376</v>
       </c>
       <c r="S16">
-        <v>0.9999967291939965</v>
+        <v>0.9891275023941053</v>
       </c>
       <c r="T16">
-        <v>1.000002219888695</v>
+        <v>0.9997644445649376</v>
       </c>
       <c r="U16">
-        <v>1.000001498359111</v>
+        <v>0.9981141726313528</v>
       </c>
       <c r="V16">
-        <v>1.000004359858179</v>
+        <v>1.003506174773702</v>
       </c>
       <c r="W16">
-        <v>1.000000338191142</v>
+        <v>0.9980556949143875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000052812190345</v>
+        <v>1.019565615515929</v>
       </c>
       <c r="D17">
-        <v>0.9998269023443974</v>
+        <v>1.019565615515929</v>
       </c>
       <c r="E17">
-        <v>1.000078480870091</v>
+        <v>0.994329441224269</v>
       </c>
       <c r="F17">
-        <v>1.000052812190345</v>
+        <v>1.00953690420805</v>
       </c>
       <c r="G17">
-        <v>0.9999649215338864</v>
+        <v>1.00719939104453</v>
       </c>
       <c r="H17">
-        <v>1.000067945519202</v>
+        <v>0.9828519493410227</v>
       </c>
       <c r="I17">
-        <v>1.000052812190345</v>
+        <v>0.9739567788103467</v>
       </c>
       <c r="J17">
-        <v>0.9998269023443974</v>
+        <v>0.993998101235723</v>
       </c>
       <c r="K17">
-        <v>0.9999879107010389</v>
+        <v>1.005271354226248</v>
       </c>
       <c r="L17">
-        <v>1.000023717379885</v>
+        <v>0.9739567788103467</v>
       </c>
       <c r="M17">
-        <v>0.9998935471864384</v>
+        <v>1.019565615515929</v>
       </c>
       <c r="N17">
-        <v>1.000052812190345</v>
+        <v>1.019565615515929</v>
       </c>
       <c r="O17">
-        <v>1.000078480870091</v>
+        <v>1.005271354226248</v>
       </c>
       <c r="P17">
-        <v>0.9999526916072443</v>
+        <v>0.9896140665182972</v>
       </c>
       <c r="Q17">
-        <v>1.000021701201989</v>
+        <v>0.9998003977252583</v>
       </c>
       <c r="R17">
-        <v>0.9999860651349445</v>
+        <v>0.9995979161841747</v>
       </c>
       <c r="S17">
-        <v>0.9999567682494583</v>
+        <v>0.9911858580869545</v>
       </c>
       <c r="T17">
-        <v>0.9999860651349445</v>
+        <v>0.9995979161841747</v>
       </c>
       <c r="U17">
-        <v>0.99998077923468</v>
+        <v>0.9982807974441983</v>
       </c>
       <c r="V17">
-        <v>0.9999951858258129</v>
+        <v>1.002537761058544</v>
       </c>
       <c r="W17">
-        <v>0.9999870297156606</v>
+        <v>0.9983386919507649</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000465322815878</v>
+        <v>1.008562648638812</v>
       </c>
       <c r="D18">
-        <v>0.9995477309403644</v>
+        <v>1.008562648638812</v>
       </c>
       <c r="E18">
-        <v>1.000020925611116</v>
+        <v>0.9966698095088238</v>
       </c>
       <c r="F18">
-        <v>1.000465322815878</v>
+        <v>1.005984974009249</v>
       </c>
       <c r="G18">
-        <v>0.9998972809870506</v>
+        <v>1.00333454561145</v>
       </c>
       <c r="H18">
-        <v>1.000158204498063</v>
+        <v>0.9899132704887007</v>
       </c>
       <c r="I18">
-        <v>1.000465322815878</v>
+        <v>0.9841907604211935</v>
       </c>
       <c r="J18">
-        <v>0.9995477309403644</v>
+        <v>0.9975498152475983</v>
       </c>
       <c r="K18">
-        <v>0.9998505737874338</v>
+        <v>1.005064286501087</v>
       </c>
       <c r="L18">
-        <v>1.000164259055332</v>
+        <v>0.9841907604211935</v>
       </c>
       <c r="M18">
-        <v>0.9996899763442239</v>
+        <v>1.008562648638812</v>
       </c>
       <c r="N18">
-        <v>1.000465322815878</v>
+        <v>1.008562648638812</v>
       </c>
       <c r="O18">
-        <v>1.000020925611116</v>
+        <v>1.005064286501087</v>
       </c>
       <c r="P18">
-        <v>0.9997843282757402</v>
+        <v>0.99462752346114</v>
       </c>
       <c r="Q18">
-        <v>0.9999591032990832</v>
+        <v>1.000867048004955</v>
       </c>
       <c r="R18">
-        <v>1.000011326455786</v>
+        <v>0.9992725651870309</v>
       </c>
       <c r="S18">
-        <v>0.9998219791795103</v>
+        <v>0.9953082854770345</v>
       </c>
       <c r="T18">
-        <v>1.000011326455786</v>
+        <v>0.9992725651870309</v>
       </c>
       <c r="U18">
-        <v>0.9999828150886023</v>
+        <v>0.9986218762674791</v>
       </c>
       <c r="V18">
-        <v>1.000079316634058</v>
+        <v>1.000610030741746</v>
       </c>
       <c r="W18">
-        <v>0.9999742842549327</v>
+        <v>0.9989087638033644</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="D19">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="E19">
+        <v>0.996253550896393</v>
+      </c>
+      <c r="F19">
+        <v>1.006806722076695</v>
+      </c>
+      <c r="G19">
+        <v>1.003580045626984</v>
+      </c>
+      <c r="H19">
+        <v>0.9886493961503876</v>
+      </c>
+      <c r="I19">
+        <v>0.9821160066239131</v>
+      </c>
+      <c r="J19">
+        <v>0.9974495809881778</v>
+      </c>
+      <c r="K19">
+        <v>1.006074717571391</v>
+      </c>
+      <c r="L19">
+        <v>0.9821160066239131</v>
+      </c>
+      <c r="M19">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="N19">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="O19">
+        <v>1.006074717571391</v>
+      </c>
+      <c r="P19">
+        <v>0.9940953620976518</v>
+      </c>
+      <c r="Q19">
+        <v>1.001164134233892</v>
+      </c>
+      <c r="R19">
+        <v>0.999087444358795</v>
+      </c>
+      <c r="S19">
+        <v>0.994814758363899</v>
+      </c>
+      <c r="T19">
+        <v>0.999087444358795</v>
+      </c>
+      <c r="U19">
+        <v>0.9983789709931945</v>
+      </c>
+      <c r="V19">
+        <v>1.000517498570772</v>
+      </c>
+      <c r="W19">
+        <v>0.9987502036018777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="D20">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="E20">
+        <v>0.9999993337703578</v>
+      </c>
+      <c r="F20">
+        <v>0.9999993459690292</v>
+      </c>
+      <c r="G20">
+        <v>1.000004969033917</v>
+      </c>
+      <c r="H20">
+        <v>0.9999980604133066</v>
+      </c>
+      <c r="I20">
+        <v>0.999999314884106</v>
+      </c>
+      <c r="J20">
+        <v>0.9999943366764441</v>
+      </c>
+      <c r="K20">
+        <v>0.9999915389275252</v>
+      </c>
+      <c r="L20">
+        <v>0.999999314884106</v>
+      </c>
+      <c r="M20">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="N20">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="O20">
+        <v>0.9999915389275252</v>
+      </c>
+      <c r="P20">
+        <v>0.9999954269058156</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999954363489415</v>
+      </c>
+      <c r="R20">
+        <v>1.000002219888695</v>
+      </c>
+      <c r="S20">
+        <v>0.9999967291939963</v>
+      </c>
+      <c r="T20">
+        <v>1.000002219888695</v>
+      </c>
+      <c r="U20">
+        <v>1.000001498359111</v>
+      </c>
+      <c r="V20">
+        <v>1.000004359858179</v>
+      </c>
+      <c r="W20">
+        <v>1.000000338191142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="D21">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="E21">
+        <v>0.9999649215338864</v>
+      </c>
+      <c r="F21">
+        <v>1.000067945519202</v>
+      </c>
+      <c r="G21">
+        <v>1.000023717379885</v>
+      </c>
+      <c r="H21">
+        <v>0.9998935471864387</v>
+      </c>
+      <c r="I21">
+        <v>0.9998269023443976</v>
+      </c>
+      <c r="J21">
+        <v>0.9999879107010389</v>
+      </c>
+      <c r="K21">
+        <v>1.000078480870091</v>
+      </c>
+      <c r="L21">
+        <v>0.9998269023443976</v>
+      </c>
+      <c r="M21">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="N21">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="O21">
+        <v>1.000078480870091</v>
+      </c>
+      <c r="P21">
+        <v>0.9999526916072443</v>
+      </c>
+      <c r="Q21">
+        <v>1.000021701201989</v>
+      </c>
+      <c r="R21">
+        <v>0.9999860651349445</v>
+      </c>
+      <c r="S21">
+        <v>0.9999567682494583</v>
+      </c>
+      <c r="T21">
+        <v>0.9999860651349445</v>
+      </c>
+      <c r="U21">
+        <v>0.99998077923468</v>
+      </c>
+      <c r="V21">
+        <v>0.9999951858258129</v>
+      </c>
+      <c r="W21">
+        <v>0.9999870297156606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="D22">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="E22">
+        <v>0.9998972809870506</v>
+      </c>
+      <c r="F22">
+        <v>1.000158204498063</v>
+      </c>
+      <c r="G22">
+        <v>1.000164259055332</v>
+      </c>
+      <c r="H22">
+        <v>0.9996899763442239</v>
+      </c>
+      <c r="I22">
+        <v>0.9995477309403644</v>
+      </c>
+      <c r="J22">
+        <v>0.9998505737874338</v>
+      </c>
+      <c r="K22">
+        <v>1.000020925611116</v>
+      </c>
+      <c r="L22">
+        <v>0.9995477309403644</v>
+      </c>
+      <c r="M22">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="N22">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="O22">
+        <v>1.000020925611116</v>
+      </c>
+      <c r="P22">
+        <v>0.9997843282757402</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999591032990832</v>
+      </c>
+      <c r="R22">
+        <v>1.000011326455786</v>
+      </c>
+      <c r="S22">
+        <v>0.9998219791795103</v>
+      </c>
+      <c r="T22">
+        <v>1.000011326455786</v>
+      </c>
+      <c r="U22">
+        <v>0.9999828150886021</v>
+      </c>
+      <c r="V22">
+        <v>1.000079316634057</v>
+      </c>
+      <c r="W22">
+        <v>0.9999742842549326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.001279846813977</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.001279846813977</v>
+      </c>
+      <c r="E23">
+        <v>0.99977347302196</v>
+      </c>
+      <c r="F23">
+        <v>1.000315607534621</v>
+      </c>
+      <c r="G23">
+        <v>1.000439651875568</v>
+      </c>
+      <c r="H23">
+        <v>0.9993176933993879</v>
+      </c>
+      <c r="I23">
         <v>0.9990471918101459</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>0.9995773703576686</v>
+      </c>
+      <c r="K23">
         <v>0.9998755920481947</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>0.9990471918101459</v>
+      </c>
+      <c r="M23">
         <v>1.001279846813977</v>
       </c>
-      <c r="G19">
-        <v>0.99977347302196</v>
-      </c>
-      <c r="H19">
-        <v>1.000315607534621</v>
-      </c>
-      <c r="I19">
+      <c r="N23">
         <v>1.001279846813977</v>
       </c>
-      <c r="J19">
-        <v>0.9990471918101459</v>
-      </c>
-      <c r="K19">
-        <v>0.9995773703576686</v>
-      </c>
-      <c r="L19">
-        <v>1.000439651875568</v>
-      </c>
-      <c r="M19">
-        <v>0.9993176933993879</v>
-      </c>
-      <c r="N19">
-        <v>1.001279846813977</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9998755920481947</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9994613919291703</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9998245325350773</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000067543557439</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9995654189601001</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000067543557439</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999940259235695</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000251190101651</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999533033576903</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001306194609692</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="D3">
-        <v>1.001306194609692</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="E3">
-        <v>0.9996511179017757</v>
+        <v>0.9958274001080709</v>
       </c>
       <c r="F3">
-        <v>1.000573318986792</v>
+        <v>1.007483980893371</v>
       </c>
       <c r="G3">
-        <v>1.000474199952385</v>
+        <v>1.004212841700287</v>
       </c>
       <c r="H3">
-        <v>0.998945526131739</v>
+        <v>0.9873623515778063</v>
       </c>
       <c r="I3">
-        <v>0.9984156893229064</v>
+        <v>0.9802116768876059</v>
       </c>
       <c r="J3">
-        <v>0.9995931410576885</v>
+        <v>0.9968881786239213</v>
       </c>
       <c r="K3">
-        <v>1.000255461004309</v>
+        <v>1.006268713472617</v>
       </c>
       <c r="L3">
-        <v>0.9984156893229064</v>
+        <v>0.9802116768876059</v>
       </c>
       <c r="M3">
-        <v>1.001306194609692</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="N3">
-        <v>1.001306194609692</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="O3">
-        <v>1.000255461004309</v>
+        <v>1.006268713472617</v>
       </c>
       <c r="P3">
-        <v>0.9993355751636077</v>
+        <v>0.9932401951801116</v>
       </c>
       <c r="Q3">
-        <v>0.9999532894530424</v>
+        <v>1.001048056790344</v>
       </c>
       <c r="R3">
-        <v>0.9999924483123026</v>
+        <v>0.9991076788184414</v>
       </c>
       <c r="S3">
-        <v>0.9994407560763303</v>
+        <v>0.9941025968227647</v>
       </c>
       <c r="T3">
-        <v>0.9999924483123026</v>
+        <v>0.9991076788184414</v>
       </c>
       <c r="U3">
-        <v>0.9999071157096708</v>
+        <v>0.9982876091408488</v>
       </c>
       <c r="V3">
-        <v>1.000186931489675</v>
+        <v>1.000798616531699</v>
       </c>
       <c r="W3">
-        <v>0.999901831120911</v>
+        <v>0.9986372236698475</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002515091269889</v>
+        <v>1.009583346373461</v>
       </c>
       <c r="D4">
-        <v>1.002515091269889</v>
+        <v>1.009583346373461</v>
       </c>
       <c r="E4">
-        <v>0.9993260057481815</v>
+        <v>0.9962824799953455</v>
       </c>
       <c r="F4">
-        <v>1.001108673769537</v>
+        <v>1.006677820670895</v>
       </c>
       <c r="G4">
-        <v>1.000913556789542</v>
+        <v>1.003729948069325</v>
       </c>
       <c r="H4">
-        <v>0.9979628436269711</v>
+        <v>0.9887402414946009</v>
       </c>
       <c r="I4">
-        <v>0.9969378497957793</v>
+        <v>0.9823563757789828</v>
       </c>
       <c r="J4">
-        <v>0.9992170527972349</v>
+        <v>0.9972557387579229</v>
       </c>
       <c r="K4">
-        <v>1.000499105385128</v>
+        <v>1.005636633415957</v>
       </c>
       <c r="L4">
-        <v>0.9969378497957793</v>
+        <v>0.9823563757789828</v>
       </c>
       <c r="M4">
-        <v>1.002515091269889</v>
+        <v>1.009583346373461</v>
       </c>
       <c r="N4">
-        <v>1.002515091269889</v>
+        <v>1.009583346373461</v>
       </c>
       <c r="O4">
-        <v>1.000499105385128</v>
+        <v>1.005636633415957</v>
       </c>
       <c r="P4">
-        <v>0.9987184775904538</v>
+        <v>0.9939965045974697</v>
       </c>
       <c r="Q4">
-        <v>0.999912555566655</v>
+        <v>1.000959556705651</v>
       </c>
       <c r="R4">
-        <v>0.9999840154835988</v>
+        <v>0.9991921185228002</v>
       </c>
       <c r="S4">
-        <v>0.998920986976363</v>
+        <v>0.9947584963967616</v>
       </c>
       <c r="T4">
-        <v>0.9999840154835988</v>
+        <v>0.9991921185228002</v>
       </c>
       <c r="U4">
-        <v>0.9998195130497445</v>
+        <v>0.9984647088909365</v>
       </c>
       <c r="V4">
-        <v>1.000358628693773</v>
+        <v>1.000688436387442</v>
       </c>
       <c r="W4">
-        <v>0.9998100223977829</v>
+        <v>0.9987828230695612</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004801201277693</v>
+        <v>1.013217114878705</v>
       </c>
       <c r="D5">
-        <v>1.004801201277693</v>
+        <v>1.013217114878705</v>
       </c>
       <c r="E5">
-        <v>0.9987069850532233</v>
+        <v>0.994966479191373</v>
       </c>
       <c r="F5">
-        <v>1.00213004935556</v>
+        <v>1.009010116334231</v>
       </c>
       <c r="G5">
-        <v>1.001745324661547</v>
+        <v>1.005123975525607</v>
       </c>
       <c r="H5">
-        <v>0.996091706630255</v>
+        <v>0.9847556046091649</v>
       </c>
       <c r="I5">
-        <v>0.9941212666531927</v>
+        <v>0.9761529360916452</v>
       </c>
       <c r="J5">
-        <v>0.9985067162692344</v>
+        <v>0.9961957204851737</v>
       </c>
       <c r="K5">
-        <v>1.000973534115416</v>
+        <v>1.007469782587602</v>
       </c>
       <c r="L5">
-        <v>0.9941212666531927</v>
+        <v>0.9761529360916452</v>
       </c>
       <c r="M5">
-        <v>1.004801201277693</v>
+        <v>1.013217114878705</v>
       </c>
       <c r="N5">
-        <v>1.004801201277693</v>
+        <v>1.013217114878705</v>
       </c>
       <c r="O5">
-        <v>1.000973534115416</v>
+        <v>1.007469782587602</v>
       </c>
       <c r="P5">
-        <v>0.9975474003843045</v>
+        <v>0.9918113593396238</v>
       </c>
       <c r="Q5">
-        <v>0.9998402595843198</v>
+        <v>1.001218130889488</v>
       </c>
       <c r="R5">
-        <v>0.999965334015434</v>
+        <v>0.9989466111859843</v>
       </c>
       <c r="S5">
-        <v>0.9979339286072774</v>
+        <v>0.9928630659568736</v>
       </c>
       <c r="T5">
-        <v>0.999965334015434</v>
+        <v>0.9989466111859843</v>
       </c>
       <c r="U5">
-        <v>0.9996507467748813</v>
+        <v>0.9979515781873315</v>
       </c>
       <c r="V5">
-        <v>1.000680837675444</v>
+        <v>1.001004685525606</v>
       </c>
       <c r="W5">
-        <v>0.9996345980020152</v>
+        <v>0.9983614662129379</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007029672713364</v>
+        <v>1.015413836363637</v>
       </c>
       <c r="D6">
-        <v>1.007029672713364</v>
+        <v>1.015413836363637</v>
       </c>
       <c r="E6">
-        <v>0.9981026462303424</v>
+        <v>0.9941665889204546</v>
       </c>
       <c r="F6">
-        <v>1.003127631122956</v>
+        <v>1.010429289545454</v>
       </c>
       <c r="G6">
-        <v>1.002556315221487</v>
+        <v>1.005967646931818</v>
       </c>
       <c r="H6">
-        <v>0.9942649651181188</v>
+        <v>0.9823336081818176</v>
       </c>
       <c r="I6">
-        <v>0.9913709374918126</v>
+        <v>0.9723802749431818</v>
       </c>
       <c r="J6">
-        <v>0.9978144734825449</v>
+        <v>0.9955558049431821</v>
       </c>
       <c r="K6">
-        <v>1.001438965951098</v>
+        <v>1.008592039090908</v>
       </c>
       <c r="L6">
-        <v>0.9913709374918126</v>
+        <v>0.9723802749431818</v>
       </c>
       <c r="M6">
-        <v>1.007029672713364</v>
+        <v>1.015413836363637</v>
       </c>
       <c r="N6">
-        <v>1.007029672713364</v>
+        <v>1.015413836363637</v>
       </c>
       <c r="O6">
-        <v>1.001438965951098</v>
+        <v>1.008592039090908</v>
       </c>
       <c r="P6">
-        <v>0.9964049517214555</v>
+        <v>0.9904861570170449</v>
       </c>
       <c r="Q6">
-        <v>0.9997708060907204</v>
+        <v>1.001379314005681</v>
       </c>
       <c r="R6">
-        <v>0.9999465253854249</v>
+        <v>0.9987953834659088</v>
       </c>
       <c r="S6">
-        <v>0.9969708498910844</v>
+        <v>0.9917129676515147</v>
       </c>
       <c r="T6">
-        <v>0.9999465253854249</v>
+        <v>0.9987953834659088</v>
       </c>
       <c r="U6">
-        <v>0.9994855555966543</v>
+        <v>0.9976381848295452</v>
       </c>
       <c r="V6">
-        <v>1.000994379019996</v>
+        <v>1.001193315136363</v>
       </c>
       <c r="W6">
-        <v>0.9994632009164655</v>
+        <v>0.9981048861150565</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000071513871152</v>
+        <v>1.064623176240824</v>
       </c>
       <c r="D7">
-        <v>1.000071513871152</v>
+        <v>1.064623176240824</v>
       </c>
       <c r="E7">
-        <v>0.9999711498986594</v>
+        <v>0.9773550076830392</v>
       </c>
       <c r="F7">
-        <v>1.000052196457989</v>
+        <v>1.03985777213596</v>
       </c>
       <c r="G7">
-        <v>1.000028075341102</v>
+        <v>1.024627094656382</v>
       </c>
       <c r="H7">
-        <v>0.9999126033045127</v>
+        <v>0.9314462982853433</v>
       </c>
       <c r="I7">
-        <v>0.9998625734772616</v>
+        <v>0.893623273034078</v>
       </c>
       <c r="J7">
-        <v>0.9999797513184749</v>
+        <v>0.9809907297133658</v>
       </c>
       <c r="K7">
-        <v>1.000045666543799</v>
+        <v>1.030134915904182</v>
       </c>
       <c r="L7">
-        <v>0.9998625734772616</v>
+        <v>0.893623273034078</v>
       </c>
       <c r="M7">
-        <v>1.000071513871152</v>
+        <v>1.064623176240824</v>
       </c>
       <c r="N7">
-        <v>1.000071513871152</v>
+        <v>1.064623176240824</v>
       </c>
       <c r="O7">
-        <v>1.000045666543799</v>
+        <v>1.030134915904182</v>
       </c>
       <c r="P7">
-        <v>0.9999541200105302</v>
+        <v>0.9618790944691298</v>
       </c>
       <c r="Q7">
-        <v>1.000008408221229</v>
+        <v>1.003744961793611</v>
       </c>
       <c r="R7">
-        <v>0.9999932512974041</v>
+        <v>0.9961271217263613</v>
       </c>
       <c r="S7">
-        <v>0.9999597966399065</v>
+        <v>0.9670377322070997</v>
       </c>
       <c r="T7">
-        <v>0.9999932512974042</v>
+        <v>0.9961271217263613</v>
       </c>
       <c r="U7">
-        <v>0.9999877259477181</v>
+        <v>0.9914340932155308</v>
       </c>
       <c r="V7">
-        <v>1.000004483532405</v>
+        <v>1.006071909820589</v>
       </c>
       <c r="W7">
-        <v>0.9999904412766187</v>
+        <v>0.9928322834566468</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000215306525915</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="D8">
-        <v>1.000215306525915</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="E8">
-        <v>0.9999169936301969</v>
+        <v>0.977353281579617</v>
       </c>
       <c r="F8">
-        <v>1.000148929504977</v>
+        <v>1.039864508163125</v>
       </c>
       <c r="G8">
-        <v>1.000083689639559</v>
+        <v>1.024620371391819</v>
       </c>
       <c r="H8">
-        <v>0.9997485954441594</v>
+        <v>0.9314409181474085</v>
       </c>
       <c r="I8">
-        <v>0.9996062785929726</v>
+        <v>0.8936102105617998</v>
       </c>
       <c r="J8">
-        <v>0.9999382378047446</v>
+        <v>0.9809996244706511</v>
       </c>
       <c r="K8">
-        <v>1.000124967336892</v>
+        <v>1.030156161648216</v>
       </c>
       <c r="L8">
-        <v>0.9996062785929726</v>
+        <v>0.8936102105617998</v>
       </c>
       <c r="M8">
-        <v>1.000215306525915</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="N8">
-        <v>1.000215306525915</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="O8">
-        <v>1.000124967336892</v>
+        <v>1.030156161648216</v>
       </c>
       <c r="P8">
-        <v>0.9998656229649323</v>
+        <v>0.9618831861050081</v>
       </c>
       <c r="Q8">
-        <v>1.000020980483544</v>
+        <v>1.003754721613917</v>
       </c>
       <c r="R8">
-        <v>0.9999821841519264</v>
+        <v>0.9961220973811361</v>
       </c>
       <c r="S8">
-        <v>0.9998827465200205</v>
+        <v>0.9670398845965443</v>
       </c>
       <c r="T8">
-        <v>0.9999821841519263</v>
+        <v>0.9961220973811361</v>
       </c>
       <c r="U8">
-        <v>0.999965886521494</v>
+        <v>0.9914298934307563</v>
       </c>
       <c r="V8">
-        <v>1.000015770522378</v>
+        <v>1.006063898731283</v>
       </c>
       <c r="W8">
-        <v>0.9999728748099269</v>
+        <v>0.9928306244870035</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000303127436831</v>
+        <v>1.064555429826391</v>
       </c>
       <c r="D9">
-        <v>1.000303127436831</v>
+        <v>1.064555429826391</v>
       </c>
       <c r="E9">
-        <v>0.9998859125471895</v>
+        <v>0.9773499739967562</v>
       </c>
       <c r="F9">
-        <v>1.000203749907152</v>
+        <v>1.039877406046449</v>
       </c>
       <c r="G9">
-        <v>1.000117223825386</v>
+        <v>1.024607510701738</v>
       </c>
       <c r="H9">
-        <v>0.99965449832678</v>
+        <v>0.9314306091281795</v>
       </c>
       <c r="I9">
-        <v>0.9994601189994284</v>
+        <v>0.8935851932276477</v>
       </c>
       <c r="J9">
-        <v>0.9999124684332935</v>
+        <v>0.9810166415726655</v>
       </c>
       <c r="K9">
-        <v>1.000166917605444</v>
+        <v>1.03019682306435</v>
       </c>
       <c r="L9">
-        <v>0.9994601189994284</v>
+        <v>0.8935851932276477</v>
       </c>
       <c r="M9">
-        <v>1.000303127436831</v>
+        <v>1.064555429826391</v>
       </c>
       <c r="N9">
-        <v>1.000303127436831</v>
+        <v>1.064555429826391</v>
       </c>
       <c r="O9">
-        <v>1.000166917605444</v>
+        <v>1.03019682306435</v>
       </c>
       <c r="P9">
-        <v>0.9998135183024361</v>
+        <v>0.961891008145999</v>
       </c>
       <c r="Q9">
-        <v>1.000026415076317</v>
+        <v>1.003773398530553</v>
       </c>
       <c r="R9">
-        <v>0.9999767213472345</v>
+        <v>0.996112482039463</v>
       </c>
       <c r="S9">
-        <v>0.999837649717354</v>
+        <v>0.9670439967629182</v>
       </c>
       <c r="T9">
-        <v>0.9999767213472345</v>
+        <v>0.996112482039463</v>
       </c>
       <c r="U9">
-        <v>0.9999540191472231</v>
+        <v>0.9914218550287863</v>
       </c>
       <c r="V9">
-        <v>1.000023840805145</v>
+        <v>1.006048569988307</v>
       </c>
       <c r="W9">
-        <v>0.999963002135188</v>
+        <v>0.9928274484455222</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000648774002584</v>
+        <v>1.064558773824288</v>
       </c>
       <c r="D10">
-        <v>1.000648774002584</v>
+        <v>1.064558773824288</v>
       </c>
       <c r="E10">
-        <v>0.9997529387094025</v>
+        <v>0.9773502407663585</v>
       </c>
       <c r="F10">
-        <v>1.000442239014597</v>
+        <v>1.039876397914469</v>
       </c>
       <c r="G10">
-        <v>1.000251513625566</v>
+        <v>1.024608473552032</v>
       </c>
       <c r="H10">
-        <v>0.9992517574325023</v>
+        <v>0.9314314392107801</v>
       </c>
       <c r="I10">
-        <v>0.9988295165268308</v>
+        <v>0.8935871680717782</v>
       </c>
       <c r="J10">
-        <v>0.9998132600098526</v>
+        <v>0.9810153586079736</v>
       </c>
       <c r="K10">
-        <v>1.000366618513209</v>
+        <v>1.03019370777555</v>
       </c>
       <c r="L10">
-        <v>0.9988295165268308</v>
+        <v>0.8935871680717782</v>
       </c>
       <c r="M10">
-        <v>1.000648774002584</v>
+        <v>1.064558773824288</v>
       </c>
       <c r="N10">
-        <v>1.000648774002584</v>
+        <v>1.064558773824288</v>
       </c>
       <c r="O10">
-        <v>1.000366618513209</v>
+        <v>1.03019370777555</v>
       </c>
       <c r="P10">
-        <v>0.9995980675200197</v>
+        <v>0.9618904379236641</v>
       </c>
       <c r="Q10">
-        <v>1.000059778611305</v>
+        <v>1.003771974270954</v>
       </c>
       <c r="R10">
-        <v>0.9999483030142079</v>
+        <v>0.9961132165572056</v>
       </c>
       <c r="S10">
-        <v>0.999649691249814</v>
+        <v>0.9670437055378955</v>
       </c>
       <c r="T10">
-        <v>0.9999483030142079</v>
+        <v>0.9961132165572056</v>
       </c>
       <c r="U10">
-        <v>0.9998994619380066</v>
+        <v>0.9914224726094938</v>
       </c>
       <c r="V10">
-        <v>1.000049324350922</v>
+        <v>1.006049732852453</v>
       </c>
       <c r="W10">
-        <v>0.9999195772293179</v>
+        <v>0.9928276949654036</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001107830014321</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="D11">
-        <v>1.001107830014321</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="E11">
-        <v>0.9995878560552176</v>
+        <v>0.99953868234062</v>
       </c>
       <c r="F11">
-        <v>1.000734381572953</v>
+        <v>1.000766465849375</v>
       </c>
       <c r="G11">
-        <v>1.00042736846771</v>
+        <v>1.0006075327648</v>
       </c>
       <c r="H11">
-        <v>0.9987519324965857</v>
+        <v>0.9986053455269963</v>
       </c>
       <c r="I11">
-        <v>0.9980519128322423</v>
+        <v>0.9978938809680834</v>
       </c>
       <c r="J11">
-        <v>0.9996791016807496</v>
+        <v>0.9994854614992725</v>
       </c>
       <c r="K11">
-        <v>1.000594402789601</v>
+        <v>1.00038072871975</v>
       </c>
       <c r="L11">
-        <v>0.9980519128322423</v>
+        <v>0.9978938809680834</v>
       </c>
       <c r="M11">
-        <v>1.001107830014321</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="N11">
-        <v>1.001107830014321</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="O11">
-        <v>1.000594402789601</v>
+        <v>1.00038072871975</v>
       </c>
       <c r="P11">
-        <v>0.9993231578109218</v>
+        <v>0.9991373048439165</v>
       </c>
       <c r="Q11">
-        <v>1.00009112942241</v>
+        <v>0.9999597055301849</v>
       </c>
       <c r="R11">
-        <v>0.9999180485453883</v>
+        <v>0.9999792975023599</v>
       </c>
       <c r="S11">
-        <v>0.9994113905590204</v>
+        <v>0.9992710973428176</v>
       </c>
       <c r="T11">
-        <v>0.9999180485453883</v>
+        <v>0.9999792975023601</v>
       </c>
       <c r="U11">
-        <v>0.9998355004228456</v>
+        <v>0.9998691437119251</v>
       </c>
       <c r="V11">
-        <v>1.000089966341141</v>
+        <v>1.000227971533389</v>
       </c>
       <c r="W11">
-        <v>0.9998668482386726</v>
+        <v>0.9998676725610181</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9881220697008604</v>
+        <v>1.000962605435574</v>
       </c>
       <c r="D12">
-        <v>0.9881220697008604</v>
+        <v>1.000962605435574</v>
       </c>
       <c r="E12">
-        <v>1.006108542682043</v>
+        <v>0.9997160280328958</v>
       </c>
       <c r="F12">
-        <v>0.9885194239306797</v>
+        <v>1.000479847484908</v>
       </c>
       <c r="G12">
-        <v>0.9950518239425535</v>
+        <v>1.000355283004552</v>
       </c>
       <c r="H12">
-        <v>1.018523042721934</v>
+        <v>0.9991411616104192</v>
       </c>
       <c r="I12">
-        <v>1.029671802628159</v>
+        <v>0.9986927756544817</v>
       </c>
       <c r="J12">
-        <v>1.003089179129521</v>
+        <v>0.9997057501500383</v>
       </c>
       <c r="K12">
-        <v>0.988136457402741</v>
+        <v>1.000275551147344</v>
       </c>
       <c r="L12">
-        <v>1.029671802628159</v>
+        <v>0.9986927756544817</v>
       </c>
       <c r="M12">
-        <v>0.9881220697008604</v>
+        <v>1.000962605435574</v>
       </c>
       <c r="N12">
-        <v>0.9881220697008604</v>
+        <v>1.000962605435574</v>
       </c>
       <c r="O12">
-        <v>0.988136457402741</v>
+        <v>1.000275551147344</v>
       </c>
       <c r="P12">
-        <v>1.00890413001545</v>
+        <v>0.9994841634009126</v>
       </c>
       <c r="Q12">
-        <v>0.9971225000423918</v>
+        <v>0.9999957895901197</v>
       </c>
       <c r="R12">
-        <v>1.001976776577254</v>
+        <v>0.9999769774124663</v>
       </c>
       <c r="S12">
-        <v>1.007972267570981</v>
+        <v>0.9995614516115737</v>
       </c>
       <c r="T12">
-        <v>1.001976776577254</v>
+        <v>0.9999769774124663</v>
       </c>
       <c r="U12">
-        <v>1.003009718103451</v>
+        <v>0.9999117400675737</v>
       </c>
       <c r="V12">
-        <v>1.000032188422933</v>
+        <v>1.000121913141174</v>
       </c>
       <c r="W12">
-        <v>1.002152792767312</v>
+        <v>0.9999161253150265</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9929960582755254</v>
+        <v>1.003248399901423</v>
       </c>
       <c r="D13">
-        <v>0.9929960582755254</v>
+        <v>1.003248399901423</v>
       </c>
       <c r="E13">
-        <v>1.001292115374317</v>
+        <v>0.99905397557926</v>
       </c>
       <c r="F13">
-        <v>0.9981609168818504</v>
+        <v>1.001593110746983</v>
       </c>
       <c r="G13">
-        <v>0.997582651098466</v>
+        <v>1.001196278211615</v>
       </c>
       <c r="H13">
-        <v>1.003893446055748</v>
+        <v>0.997139095154439</v>
       </c>
       <c r="I13">
-        <v>1.005486818328789</v>
+        <v>0.9956524284313436</v>
       </c>
       <c r="J13">
-        <v>1.002301944381739</v>
+        <v>0.9990044759499473</v>
       </c>
       <c r="K13">
-        <v>1.0005104598965</v>
+        <v>1.00089000370975</v>
       </c>
       <c r="L13">
-        <v>1.005486818328789</v>
+        <v>0.9956524284313436</v>
       </c>
       <c r="M13">
-        <v>0.9929960582755254</v>
+        <v>1.003248399901423</v>
       </c>
       <c r="N13">
-        <v>0.9929960582755254</v>
+        <v>1.003248399901423</v>
       </c>
       <c r="O13">
-        <v>1.0005104598965</v>
+        <v>1.00089000370975</v>
       </c>
       <c r="P13">
-        <v>1.002998639112644</v>
+        <v>0.9982712160705467</v>
       </c>
       <c r="Q13">
-        <v>1.000901287635408</v>
+        <v>0.9999719896445048</v>
       </c>
       <c r="R13">
-        <v>0.9996644455002713</v>
+        <v>0.9999302773475054</v>
       </c>
       <c r="S13">
-        <v>1.002429797866535</v>
+        <v>0.9985321359067845</v>
       </c>
       <c r="T13">
-        <v>0.9996644455002713</v>
+        <v>0.9999302773475053</v>
       </c>
       <c r="U13">
-        <v>1.000071362968783</v>
+        <v>0.9997112019054439</v>
       </c>
       <c r="V13">
-        <v>0.9986563020301313</v>
+        <v>1.00041864150464</v>
       </c>
       <c r="W13">
-        <v>1.000278051286617</v>
+        <v>0.999722220960595</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.945252614043252</v>
+        <v>1.003623716233945</v>
       </c>
       <c r="D14">
-        <v>0.945252614043252</v>
+        <v>1.003623716233945</v>
       </c>
       <c r="E14">
-        <v>1.017803375928777</v>
+        <v>0.9990195998742656</v>
       </c>
       <c r="F14">
-        <v>0.9691811370087832</v>
+        <v>1.00161724450697</v>
       </c>
       <c r="G14">
-        <v>0.9794356041647687</v>
+        <v>1.001318258672958</v>
       </c>
       <c r="H14">
-        <v>1.053874942934517</v>
+        <v>0.9970365445365853</v>
       </c>
       <c r="I14">
-        <v>1.082940084146371</v>
+        <v>0.995539670923176</v>
       </c>
       <c r="J14">
-        <v>1.016391450488876</v>
+        <v>0.998873868967777</v>
       </c>
       <c r="K14">
-        <v>0.9789578497916704</v>
+        <v>1.000749368095684</v>
       </c>
       <c r="L14">
-        <v>1.082940084146371</v>
+        <v>0.995539670923176</v>
       </c>
       <c r="M14">
-        <v>0.945252614043252</v>
+        <v>1.003623716233945</v>
       </c>
       <c r="N14">
-        <v>0.945252614043252</v>
+        <v>1.003623716233945</v>
       </c>
       <c r="O14">
-        <v>0.9789578497916704</v>
+        <v>1.000749368095684</v>
       </c>
       <c r="P14">
-        <v>1.030948966969021</v>
+        <v>0.9981445195094298</v>
       </c>
       <c r="Q14">
-        <v>0.9983806128602237</v>
+        <v>0.9998844839849745</v>
       </c>
       <c r="R14">
-        <v>1.002383515993764</v>
+        <v>0.9999709184176017</v>
       </c>
       <c r="S14">
-        <v>1.026567103288939</v>
+        <v>0.998436212964375</v>
       </c>
       <c r="T14">
-        <v>1.002383515993764</v>
+        <v>0.9999709184176017</v>
       </c>
       <c r="U14">
-        <v>1.006238480977518</v>
+        <v>0.9997330887817676</v>
       </c>
       <c r="V14">
-        <v>0.9940413075906644</v>
+        <v>1.000511214272203</v>
       </c>
       <c r="W14">
-        <v>1.005479632313377</v>
+        <v>0.99972228397642</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.985074903623029</v>
+        <v>1.001306194609692</v>
       </c>
       <c r="D15">
-        <v>0.985074903623029</v>
+        <v>1.001306194609692</v>
       </c>
       <c r="E15">
-        <v>1.004729781877404</v>
+        <v>0.9996511179017757</v>
       </c>
       <c r="F15">
-        <v>0.9918623487492738</v>
+        <v>1.000573318986792</v>
       </c>
       <c r="G15">
-        <v>0.9944205889207962</v>
+        <v>1.000474199952385</v>
       </c>
       <c r="H15">
-        <v>1.014310749475811</v>
+        <v>0.998945526131739</v>
       </c>
       <c r="I15">
-        <v>1.021967623765933</v>
+        <v>0.9984156893229064</v>
       </c>
       <c r="J15">
-        <v>1.004494326917023</v>
+        <v>0.9995931410576885</v>
       </c>
       <c r="K15">
-        <v>0.9946656092377719</v>
+        <v>1.000255461004309</v>
       </c>
       <c r="L15">
-        <v>1.021967623765933</v>
+        <v>0.9984156893229064</v>
       </c>
       <c r="M15">
-        <v>0.985074903623029</v>
+        <v>1.001306194609692</v>
       </c>
       <c r="N15">
-        <v>0.985074903623029</v>
+        <v>1.001306194609692</v>
       </c>
       <c r="O15">
-        <v>0.9946656092377719</v>
+        <v>1.000255461004309</v>
       </c>
       <c r="P15">
-        <v>1.008316616501853</v>
+        <v>0.9993355751636077</v>
       </c>
       <c r="Q15">
-        <v>0.999697695557588</v>
+        <v>0.9999532894530424</v>
       </c>
       <c r="R15">
-        <v>1.000569378875578</v>
+        <v>0.9999924483123026</v>
       </c>
       <c r="S15">
-        <v>1.00712100496037</v>
+        <v>0.9994407560763303</v>
       </c>
       <c r="T15">
-        <v>1.000569378875578</v>
+        <v>0.9999924483123026</v>
       </c>
       <c r="U15">
-        <v>1.001609479626035</v>
+        <v>0.9999071157096708</v>
       </c>
       <c r="V15">
-        <v>0.9983025644254335</v>
+        <v>1.000186931489675</v>
       </c>
       <c r="W15">
-        <v>1.00144074157088</v>
+        <v>0.999901831120911</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.025074183343095</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="D16">
-        <v>1.025074183343095</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="E16">
-        <v>0.9931633568305984</v>
+        <v>0.9993260057481815</v>
       </c>
       <c r="F16">
-        <v>1.011303190462106</v>
+        <v>1.001108673769537</v>
       </c>
       <c r="G16">
-        <v>1.009133086887384</v>
+        <v>1.000913556789542</v>
       </c>
       <c r="H16">
-        <v>0.9793337996074175</v>
+        <v>0.9979628436269711</v>
       </c>
       <c r="I16">
-        <v>0.9688623453367977</v>
+        <v>0.9969378497957793</v>
       </c>
       <c r="J16">
-        <v>0.9922187918327805</v>
+        <v>0.9992170527972349</v>
       </c>
       <c r="K16">
-        <v>1.00535680501492</v>
+        <v>1.000499105385128</v>
       </c>
       <c r="L16">
-        <v>0.9688623453367977</v>
+        <v>0.9969378497957793</v>
       </c>
       <c r="M16">
-        <v>1.025074183343095</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="N16">
-        <v>1.025074183343095</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="O16">
-        <v>1.00535680501492</v>
+        <v>1.000499105385128</v>
       </c>
       <c r="P16">
-        <v>0.9871095751758587</v>
+        <v>0.9987184775904538</v>
       </c>
       <c r="Q16">
-        <v>0.9992600809227591</v>
+        <v>0.999912555566655</v>
       </c>
       <c r="R16">
-        <v>0.9997644445649376</v>
+        <v>0.9999840154835988</v>
       </c>
       <c r="S16">
-        <v>0.9891275023941053</v>
+        <v>0.998920986976363</v>
       </c>
       <c r="T16">
-        <v>0.9997644445649376</v>
+        <v>0.9999840154835988</v>
       </c>
       <c r="U16">
-        <v>0.9981141726313528</v>
+        <v>0.9998195130497445</v>
       </c>
       <c r="V16">
-        <v>1.003506174773702</v>
+        <v>1.000358628693773</v>
       </c>
       <c r="W16">
-        <v>0.9980556949143875</v>
+        <v>0.9998100223977829</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.019565615515929</v>
+        <v>1.004801201277693</v>
       </c>
       <c r="D17">
-        <v>1.019565615515929</v>
+        <v>1.004801201277693</v>
       </c>
       <c r="E17">
-        <v>0.994329441224269</v>
+        <v>0.9987069850532233</v>
       </c>
       <c r="F17">
-        <v>1.00953690420805</v>
+        <v>1.00213004935556</v>
       </c>
       <c r="G17">
-        <v>1.00719939104453</v>
+        <v>1.001745324661547</v>
       </c>
       <c r="H17">
-        <v>0.9828519493410227</v>
+        <v>0.996091706630255</v>
       </c>
       <c r="I17">
-        <v>0.9739567788103467</v>
+        <v>0.9941212666531927</v>
       </c>
       <c r="J17">
-        <v>0.993998101235723</v>
+        <v>0.9985067162692344</v>
       </c>
       <c r="K17">
-        <v>1.005271354226248</v>
+        <v>1.000973534115416</v>
       </c>
       <c r="L17">
-        <v>0.9739567788103467</v>
+        <v>0.9941212666531927</v>
       </c>
       <c r="M17">
-        <v>1.019565615515929</v>
+        <v>1.004801201277693</v>
       </c>
       <c r="N17">
-        <v>1.019565615515929</v>
+        <v>1.004801201277693</v>
       </c>
       <c r="O17">
-        <v>1.005271354226248</v>
+        <v>1.000973534115416</v>
       </c>
       <c r="P17">
-        <v>0.9896140665182972</v>
+        <v>0.9975474003843045</v>
       </c>
       <c r="Q17">
-        <v>0.9998003977252583</v>
+        <v>0.9998402595843198</v>
       </c>
       <c r="R17">
-        <v>0.9995979161841747</v>
+        <v>0.999965334015434</v>
       </c>
       <c r="S17">
-        <v>0.9911858580869545</v>
+        <v>0.9979339286072774</v>
       </c>
       <c r="T17">
-        <v>0.9995979161841747</v>
+        <v>0.999965334015434</v>
       </c>
       <c r="U17">
-        <v>0.9982807974441983</v>
+        <v>0.9996507467748813</v>
       </c>
       <c r="V17">
-        <v>1.002537761058544</v>
+        <v>1.000680837675444</v>
       </c>
       <c r="W17">
-        <v>0.9983386919507649</v>
+        <v>0.9996345980020152</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.008562648638812</v>
+        <v>1.007029672713364</v>
       </c>
       <c r="D18">
-        <v>1.008562648638812</v>
+        <v>1.007029672713364</v>
       </c>
       <c r="E18">
-        <v>0.9966698095088238</v>
+        <v>0.9981026462303424</v>
       </c>
       <c r="F18">
-        <v>1.005984974009249</v>
+        <v>1.003127631122956</v>
       </c>
       <c r="G18">
-        <v>1.00333454561145</v>
+        <v>1.002556315221487</v>
       </c>
       <c r="H18">
-        <v>0.9899132704887007</v>
+        <v>0.9942649651181188</v>
       </c>
       <c r="I18">
-        <v>0.9841907604211935</v>
+        <v>0.9913709374918126</v>
       </c>
       <c r="J18">
-        <v>0.9975498152475983</v>
+        <v>0.9978144734825449</v>
       </c>
       <c r="K18">
-        <v>1.005064286501087</v>
+        <v>1.001438965951098</v>
       </c>
       <c r="L18">
-        <v>0.9841907604211935</v>
+        <v>0.9913709374918126</v>
       </c>
       <c r="M18">
-        <v>1.008562648638812</v>
+        <v>1.007029672713364</v>
       </c>
       <c r="N18">
-        <v>1.008562648638812</v>
+        <v>1.007029672713364</v>
       </c>
       <c r="O18">
-        <v>1.005064286501087</v>
+        <v>1.001438965951098</v>
       </c>
       <c r="P18">
-        <v>0.99462752346114</v>
+        <v>0.9964049517214555</v>
       </c>
       <c r="Q18">
-        <v>1.000867048004955</v>
+        <v>0.9997708060907204</v>
       </c>
       <c r="R18">
-        <v>0.9992725651870309</v>
+        <v>0.9999465253854249</v>
       </c>
       <c r="S18">
-        <v>0.9953082854770345</v>
+        <v>0.9969708498910844</v>
       </c>
       <c r="T18">
-        <v>0.9992725651870309</v>
+        <v>0.9999465253854249</v>
       </c>
       <c r="U18">
-        <v>0.9986218762674791</v>
+        <v>0.9994855555966543</v>
       </c>
       <c r="V18">
-        <v>1.000610030741746</v>
+        <v>1.000994379019996</v>
       </c>
       <c r="W18">
-        <v>0.9989087638033644</v>
+        <v>0.9994632009164655</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.009071608881081</v>
+        <v>1.000071513871152</v>
       </c>
       <c r="D19">
-        <v>1.009071608881081</v>
+        <v>1.000071513871152</v>
       </c>
       <c r="E19">
-        <v>0.996253550896393</v>
+        <v>0.9999711498986594</v>
       </c>
       <c r="F19">
-        <v>1.006806722076695</v>
+        <v>1.000052196457989</v>
       </c>
       <c r="G19">
-        <v>1.003580045626984</v>
+        <v>1.000028075341102</v>
       </c>
       <c r="H19">
-        <v>0.9886493961503876</v>
+        <v>0.9999126033045127</v>
       </c>
       <c r="I19">
-        <v>0.9821160066239131</v>
+        <v>0.9998625734772616</v>
       </c>
       <c r="J19">
-        <v>0.9974495809881778</v>
+        <v>0.9999797513184749</v>
       </c>
       <c r="K19">
-        <v>1.006074717571391</v>
+        <v>1.000045666543799</v>
       </c>
       <c r="L19">
-        <v>0.9821160066239131</v>
+        <v>0.9998625734772616</v>
       </c>
       <c r="M19">
-        <v>1.009071608881081</v>
+        <v>1.000071513871152</v>
       </c>
       <c r="N19">
-        <v>1.009071608881081</v>
+        <v>1.000071513871152</v>
       </c>
       <c r="O19">
-        <v>1.006074717571391</v>
+        <v>1.000045666543799</v>
       </c>
       <c r="P19">
-        <v>0.9940953620976518</v>
+        <v>0.9999541200105302</v>
       </c>
       <c r="Q19">
-        <v>1.001164134233892</v>
+        <v>1.000008408221229</v>
       </c>
       <c r="R19">
-        <v>0.999087444358795</v>
+        <v>0.9999932512974041</v>
       </c>
       <c r="S19">
-        <v>0.994814758363899</v>
+        <v>0.9999597966399065</v>
       </c>
       <c r="T19">
-        <v>0.999087444358795</v>
+        <v>0.9999932512974042</v>
       </c>
       <c r="U19">
-        <v>0.9983789709931945</v>
+        <v>0.9999877259477181</v>
       </c>
       <c r="V19">
-        <v>1.000517498570772</v>
+        <v>1.000004483532405</v>
       </c>
       <c r="W19">
-        <v>0.9987502036018777</v>
+        <v>0.9999904412766187</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000015805854453</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="D20">
-        <v>1.000015805854453</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="E20">
-        <v>0.9999993337703578</v>
+        <v>0.9999169936301969</v>
       </c>
       <c r="F20">
-        <v>0.9999993459690292</v>
+        <v>1.000148929504977</v>
       </c>
       <c r="G20">
-        <v>1.000004969033917</v>
+        <v>1.000083689639559</v>
       </c>
       <c r="H20">
-        <v>0.9999980604133066</v>
+        <v>0.9997485954441594</v>
       </c>
       <c r="I20">
-        <v>0.999999314884106</v>
+        <v>0.9996062785929726</v>
       </c>
       <c r="J20">
-        <v>0.9999943366764441</v>
+        <v>0.9999382378047446</v>
       </c>
       <c r="K20">
-        <v>0.9999915389275252</v>
+        <v>1.000124967336892</v>
       </c>
       <c r="L20">
-        <v>0.999999314884106</v>
+        <v>0.9996062785929726</v>
       </c>
       <c r="M20">
-        <v>1.000015805854453</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="N20">
-        <v>1.000015805854453</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="O20">
-        <v>0.9999915389275252</v>
+        <v>1.000124967336892</v>
       </c>
       <c r="P20">
-        <v>0.9999954269058156</v>
+        <v>0.9998656229649323</v>
       </c>
       <c r="Q20">
-        <v>0.9999954363489415</v>
+        <v>1.000020980483544</v>
       </c>
       <c r="R20">
-        <v>1.000002219888695</v>
+        <v>0.9999821841519264</v>
       </c>
       <c r="S20">
-        <v>0.9999967291939963</v>
+        <v>0.9998827465200205</v>
       </c>
       <c r="T20">
-        <v>1.000002219888695</v>
+        <v>0.9999821841519263</v>
       </c>
       <c r="U20">
-        <v>1.000001498359111</v>
+        <v>0.999965886521494</v>
       </c>
       <c r="V20">
-        <v>1.000004359858179</v>
+        <v>1.000015770522378</v>
       </c>
       <c r="W20">
-        <v>1.000000338191142</v>
+        <v>0.9999728748099269</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000052812190345</v>
+        <v>1.000303127436831</v>
       </c>
       <c r="D21">
-        <v>1.000052812190345</v>
+        <v>1.000303127436831</v>
       </c>
       <c r="E21">
-        <v>0.9999649215338864</v>
+        <v>0.9998859125471895</v>
       </c>
       <c r="F21">
-        <v>1.000067945519202</v>
+        <v>1.000203749907152</v>
       </c>
       <c r="G21">
-        <v>1.000023717379885</v>
+        <v>1.000117223825386</v>
       </c>
       <c r="H21">
-        <v>0.9998935471864387</v>
+        <v>0.99965449832678</v>
       </c>
       <c r="I21">
-        <v>0.9998269023443976</v>
+        <v>0.9994601189994284</v>
       </c>
       <c r="J21">
-        <v>0.9999879107010389</v>
+        <v>0.9999124684332935</v>
       </c>
       <c r="K21">
-        <v>1.000078480870091</v>
+        <v>1.000166917605444</v>
       </c>
       <c r="L21">
-        <v>0.9998269023443976</v>
+        <v>0.9994601189994284</v>
       </c>
       <c r="M21">
-        <v>1.000052812190345</v>
+        <v>1.000303127436831</v>
       </c>
       <c r="N21">
-        <v>1.000052812190345</v>
+        <v>1.000303127436831</v>
       </c>
       <c r="O21">
-        <v>1.000078480870091</v>
+        <v>1.000166917605444</v>
       </c>
       <c r="P21">
-        <v>0.9999526916072443</v>
+        <v>0.9998135183024361</v>
       </c>
       <c r="Q21">
-        <v>1.000021701201989</v>
+        <v>1.000026415076317</v>
       </c>
       <c r="R21">
-        <v>0.9999860651349445</v>
+        <v>0.9999767213472345</v>
       </c>
       <c r="S21">
-        <v>0.9999567682494583</v>
+        <v>0.999837649717354</v>
       </c>
       <c r="T21">
-        <v>0.9999860651349445</v>
+        <v>0.9999767213472345</v>
       </c>
       <c r="U21">
-        <v>0.99998077923468</v>
+        <v>0.9999540191472231</v>
       </c>
       <c r="V21">
-        <v>0.9999951858258129</v>
+        <v>1.000023840805145</v>
       </c>
       <c r="W21">
-        <v>0.9999870297156606</v>
+        <v>0.999963002135188</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000465322815878</v>
+        <v>1.000648774002584</v>
       </c>
       <c r="D22">
-        <v>1.000465322815878</v>
+        <v>1.000648774002584</v>
       </c>
       <c r="E22">
-        <v>0.9998972809870506</v>
+        <v>0.9997529387094025</v>
       </c>
       <c r="F22">
-        <v>1.000158204498063</v>
+        <v>1.000442239014597</v>
       </c>
       <c r="G22">
-        <v>1.000164259055332</v>
+        <v>1.000251513625566</v>
       </c>
       <c r="H22">
-        <v>0.9996899763442239</v>
+        <v>0.9992517574325023</v>
       </c>
       <c r="I22">
-        <v>0.9995477309403644</v>
+        <v>0.9988295165268308</v>
       </c>
       <c r="J22">
-        <v>0.9998505737874338</v>
+        <v>0.9998132600098526</v>
       </c>
       <c r="K22">
-        <v>1.000020925611116</v>
+        <v>1.000366618513209</v>
       </c>
       <c r="L22">
-        <v>0.9995477309403644</v>
+        <v>0.9988295165268308</v>
       </c>
       <c r="M22">
-        <v>1.000465322815878</v>
+        <v>1.000648774002584</v>
       </c>
       <c r="N22">
-        <v>1.000465322815878</v>
+        <v>1.000648774002584</v>
       </c>
       <c r="O22">
-        <v>1.000020925611116</v>
+        <v>1.000366618513209</v>
       </c>
       <c r="P22">
-        <v>0.9997843282757402</v>
+        <v>0.9995980675200197</v>
       </c>
       <c r="Q22">
-        <v>0.9999591032990832</v>
+        <v>1.000059778611305</v>
       </c>
       <c r="R22">
-        <v>1.000011326455786</v>
+        <v>0.9999483030142079</v>
       </c>
       <c r="S22">
-        <v>0.9998219791795103</v>
+        <v>0.999649691249814</v>
       </c>
       <c r="T22">
-        <v>1.000011326455786</v>
+        <v>0.9999483030142079</v>
       </c>
       <c r="U22">
-        <v>0.9999828150886021</v>
+        <v>0.9998994619380066</v>
       </c>
       <c r="V22">
-        <v>1.000079316634057</v>
+        <v>1.000049324350922</v>
       </c>
       <c r="W22">
-        <v>0.9999742842549326</v>
+        <v>0.9999195772293179</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001107830014321</v>
+      </c>
+      <c r="D23">
+        <v>1.001107830014321</v>
+      </c>
+      <c r="E23">
+        <v>0.9995878560552176</v>
+      </c>
+      <c r="F23">
+        <v>1.000734381572953</v>
+      </c>
+      <c r="G23">
+        <v>1.00042736846771</v>
+      </c>
+      <c r="H23">
+        <v>0.9987519324965857</v>
+      </c>
+      <c r="I23">
+        <v>0.9980519128322423</v>
+      </c>
+      <c r="J23">
+        <v>0.9996791016807496</v>
+      </c>
+      <c r="K23">
+        <v>1.000594402789601</v>
+      </c>
+      <c r="L23">
+        <v>0.9980519128322423</v>
+      </c>
+      <c r="M23">
+        <v>1.001107830014321</v>
+      </c>
+      <c r="N23">
+        <v>1.001107830014321</v>
+      </c>
+      <c r="O23">
+        <v>1.000594402789601</v>
+      </c>
+      <c r="P23">
+        <v>0.9993231578109218</v>
+      </c>
+      <c r="Q23">
+        <v>1.00009112942241</v>
+      </c>
+      <c r="R23">
+        <v>0.9999180485453883</v>
+      </c>
+      <c r="S23">
+        <v>0.9994113905590204</v>
+      </c>
+      <c r="T23">
+        <v>0.9999180485453883</v>
+      </c>
+      <c r="U23">
+        <v>0.9998355004228456</v>
+      </c>
+      <c r="V23">
+        <v>1.000089966341141</v>
+      </c>
+      <c r="W23">
+        <v>0.9998668482386726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="D24">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="E24">
+        <v>1.006108542682043</v>
+      </c>
+      <c r="F24">
+        <v>0.9885194239306797</v>
+      </c>
+      <c r="G24">
+        <v>0.9950518239425535</v>
+      </c>
+      <c r="H24">
+        <v>1.018523042721934</v>
+      </c>
+      <c r="I24">
+        <v>1.029671802628159</v>
+      </c>
+      <c r="J24">
+        <v>1.003089179129521</v>
+      </c>
+      <c r="K24">
+        <v>0.988136457402741</v>
+      </c>
+      <c r="L24">
+        <v>1.029671802628159</v>
+      </c>
+      <c r="M24">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="N24">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="O24">
+        <v>0.988136457402741</v>
+      </c>
+      <c r="P24">
+        <v>1.00890413001545</v>
+      </c>
+      <c r="Q24">
+        <v>0.9971225000423918</v>
+      </c>
+      <c r="R24">
+        <v>1.001976776577254</v>
+      </c>
+      <c r="S24">
+        <v>1.007972267570981</v>
+      </c>
+      <c r="T24">
+        <v>1.001976776577254</v>
+      </c>
+      <c r="U24">
+        <v>1.003009718103451</v>
+      </c>
+      <c r="V24">
+        <v>1.000032188422933</v>
+      </c>
+      <c r="W24">
+        <v>1.002152792767312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="D25">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="E25">
+        <v>1.001292115374317</v>
+      </c>
+      <c r="F25">
+        <v>0.9981609168818504</v>
+      </c>
+      <c r="G25">
+        <v>0.997582651098466</v>
+      </c>
+      <c r="H25">
+        <v>1.003893446055748</v>
+      </c>
+      <c r="I25">
+        <v>1.005486818328789</v>
+      </c>
+      <c r="J25">
+        <v>1.002301944381739</v>
+      </c>
+      <c r="K25">
+        <v>1.0005104598965</v>
+      </c>
+      <c r="L25">
+        <v>1.005486818328789</v>
+      </c>
+      <c r="M25">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="N25">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="O25">
+        <v>1.0005104598965</v>
+      </c>
+      <c r="P25">
+        <v>1.002998639112644</v>
+      </c>
+      <c r="Q25">
+        <v>1.000901287635408</v>
+      </c>
+      <c r="R25">
+        <v>0.9996644455002713</v>
+      </c>
+      <c r="S25">
+        <v>1.002429797866535</v>
+      </c>
+      <c r="T25">
+        <v>0.9996644455002713</v>
+      </c>
+      <c r="U25">
+        <v>1.000071362968783</v>
+      </c>
+      <c r="V25">
+        <v>0.9986563020301313</v>
+      </c>
+      <c r="W25">
+        <v>1.000278051286617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="D26">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="E26">
+        <v>1.017803375928777</v>
+      </c>
+      <c r="F26">
+        <v>0.9691811370087832</v>
+      </c>
+      <c r="G26">
+        <v>0.9794356041647687</v>
+      </c>
+      <c r="H26">
+        <v>1.053874942934517</v>
+      </c>
+      <c r="I26">
+        <v>1.082940084146371</v>
+      </c>
+      <c r="J26">
+        <v>1.016391450488876</v>
+      </c>
+      <c r="K26">
+        <v>0.9789578497916704</v>
+      </c>
+      <c r="L26">
+        <v>1.082940084146371</v>
+      </c>
+      <c r="M26">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="N26">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="O26">
+        <v>0.9789578497916704</v>
+      </c>
+      <c r="P26">
+        <v>1.030948966969021</v>
+      </c>
+      <c r="Q26">
+        <v>0.9983806128602237</v>
+      </c>
+      <c r="R26">
+        <v>1.002383515993764</v>
+      </c>
+      <c r="S26">
+        <v>1.026567103288939</v>
+      </c>
+      <c r="T26">
+        <v>1.002383515993764</v>
+      </c>
+      <c r="U26">
+        <v>1.006238480977518</v>
+      </c>
+      <c r="V26">
+        <v>0.9940413075906644</v>
+      </c>
+      <c r="W26">
+        <v>1.005479632313377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="D27">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="E27">
+        <v>1.004729781877404</v>
+      </c>
+      <c r="F27">
+        <v>0.9918623487492738</v>
+      </c>
+      <c r="G27">
+        <v>0.9944205889207962</v>
+      </c>
+      <c r="H27">
+        <v>1.014310749475811</v>
+      </c>
+      <c r="I27">
+        <v>1.021967623765933</v>
+      </c>
+      <c r="J27">
+        <v>1.004494326917023</v>
+      </c>
+      <c r="K27">
+        <v>0.9946656092377719</v>
+      </c>
+      <c r="L27">
+        <v>1.021967623765933</v>
+      </c>
+      <c r="M27">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="N27">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="O27">
+        <v>0.9946656092377719</v>
+      </c>
+      <c r="P27">
+        <v>1.008316616501853</v>
+      </c>
+      <c r="Q27">
+        <v>0.999697695557588</v>
+      </c>
+      <c r="R27">
+        <v>1.000569378875578</v>
+      </c>
+      <c r="S27">
+        <v>1.00712100496037</v>
+      </c>
+      <c r="T27">
+        <v>1.000569378875578</v>
+      </c>
+      <c r="U27">
+        <v>1.001609479626035</v>
+      </c>
+      <c r="V27">
+        <v>0.9983025644254335</v>
+      </c>
+      <c r="W27">
+        <v>1.00144074157088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.025074183343095</v>
+      </c>
+      <c r="D28">
+        <v>1.025074183343095</v>
+      </c>
+      <c r="E28">
+        <v>0.9931633568305984</v>
+      </c>
+      <c r="F28">
+        <v>1.011303190462106</v>
+      </c>
+      <c r="G28">
+        <v>1.009133086887384</v>
+      </c>
+      <c r="H28">
+        <v>0.9793337996074175</v>
+      </c>
+      <c r="I28">
+        <v>0.9688623453367977</v>
+      </c>
+      <c r="J28">
+        <v>0.9922187918327805</v>
+      </c>
+      <c r="K28">
+        <v>1.00535680501492</v>
+      </c>
+      <c r="L28">
+        <v>0.9688623453367977</v>
+      </c>
+      <c r="M28">
+        <v>1.025074183343095</v>
+      </c>
+      <c r="N28">
+        <v>1.025074183343095</v>
+      </c>
+      <c r="O28">
+        <v>1.00535680501492</v>
+      </c>
+      <c r="P28">
+        <v>0.9871095751758587</v>
+      </c>
+      <c r="Q28">
+        <v>0.9992600809227591</v>
+      </c>
+      <c r="R28">
+        <v>0.9997644445649376</v>
+      </c>
+      <c r="S28">
+        <v>0.9891275023941053</v>
+      </c>
+      <c r="T28">
+        <v>0.9997644445649376</v>
+      </c>
+      <c r="U28">
+        <v>0.9981141726313528</v>
+      </c>
+      <c r="V28">
+        <v>1.003506174773702</v>
+      </c>
+      <c r="W28">
+        <v>0.9980556949143875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.019565615515929</v>
+      </c>
+      <c r="D29">
+        <v>1.019565615515929</v>
+      </c>
+      <c r="E29">
+        <v>0.994329441224269</v>
+      </c>
+      <c r="F29">
+        <v>1.00953690420805</v>
+      </c>
+      <c r="G29">
+        <v>1.00719939104453</v>
+      </c>
+      <c r="H29">
+        <v>0.9828519493410227</v>
+      </c>
+      <c r="I29">
+        <v>0.9739567788103467</v>
+      </c>
+      <c r="J29">
+        <v>0.993998101235723</v>
+      </c>
+      <c r="K29">
+        <v>1.005271354226248</v>
+      </c>
+      <c r="L29">
+        <v>0.9739567788103467</v>
+      </c>
+      <c r="M29">
+        <v>1.019565615515929</v>
+      </c>
+      <c r="N29">
+        <v>1.019565615515929</v>
+      </c>
+      <c r="O29">
+        <v>1.005271354226248</v>
+      </c>
+      <c r="P29">
+        <v>0.9896140665182972</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998003977252583</v>
+      </c>
+      <c r="R29">
+        <v>0.9995979161841747</v>
+      </c>
+      <c r="S29">
+        <v>0.9911858580869545</v>
+      </c>
+      <c r="T29">
+        <v>0.9995979161841747</v>
+      </c>
+      <c r="U29">
+        <v>0.9982807974441983</v>
+      </c>
+      <c r="V29">
+        <v>1.002537761058544</v>
+      </c>
+      <c r="W29">
+        <v>0.9983386919507649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.008562648638812</v>
+      </c>
+      <c r="D30">
+        <v>1.008562648638812</v>
+      </c>
+      <c r="E30">
+        <v>0.9966698095088238</v>
+      </c>
+      <c r="F30">
+        <v>1.005984974009249</v>
+      </c>
+      <c r="G30">
+        <v>1.00333454561145</v>
+      </c>
+      <c r="H30">
+        <v>0.9899132704887007</v>
+      </c>
+      <c r="I30">
+        <v>0.9841907604211935</v>
+      </c>
+      <c r="J30">
+        <v>0.9975498152475983</v>
+      </c>
+      <c r="K30">
+        <v>1.005064286501087</v>
+      </c>
+      <c r="L30">
+        <v>0.9841907604211935</v>
+      </c>
+      <c r="M30">
+        <v>1.008562648638812</v>
+      </c>
+      <c r="N30">
+        <v>1.008562648638812</v>
+      </c>
+      <c r="O30">
+        <v>1.005064286501087</v>
+      </c>
+      <c r="P30">
+        <v>0.99462752346114</v>
+      </c>
+      <c r="Q30">
+        <v>1.000867048004955</v>
+      </c>
+      <c r="R30">
+        <v>0.9992725651870309</v>
+      </c>
+      <c r="S30">
+        <v>0.9953082854770345</v>
+      </c>
+      <c r="T30">
+        <v>0.9992725651870309</v>
+      </c>
+      <c r="U30">
+        <v>0.9986218762674791</v>
+      </c>
+      <c r="V30">
+        <v>1.000610030741746</v>
+      </c>
+      <c r="W30">
+        <v>0.9989087638033644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="D31">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="E31">
+        <v>0.996253550896393</v>
+      </c>
+      <c r="F31">
+        <v>1.006806722076695</v>
+      </c>
+      <c r="G31">
+        <v>1.003580045626984</v>
+      </c>
+      <c r="H31">
+        <v>0.9886493961503876</v>
+      </c>
+      <c r="I31">
+        <v>0.9821160066239131</v>
+      </c>
+      <c r="J31">
+        <v>0.9974495809881778</v>
+      </c>
+      <c r="K31">
+        <v>1.006074717571391</v>
+      </c>
+      <c r="L31">
+        <v>0.9821160066239131</v>
+      </c>
+      <c r="M31">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="N31">
+        <v>1.009071608881081</v>
+      </c>
+      <c r="O31">
+        <v>1.006074717571391</v>
+      </c>
+      <c r="P31">
+        <v>0.9940953620976518</v>
+      </c>
+      <c r="Q31">
+        <v>1.001164134233892</v>
+      </c>
+      <c r="R31">
+        <v>0.999087444358795</v>
+      </c>
+      <c r="S31">
+        <v>0.994814758363899</v>
+      </c>
+      <c r="T31">
+        <v>0.999087444358795</v>
+      </c>
+      <c r="U31">
+        <v>0.9983789709931945</v>
+      </c>
+      <c r="V31">
+        <v>1.000517498570772</v>
+      </c>
+      <c r="W31">
+        <v>0.9987502036018777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.031210740821918</v>
+      </c>
+      <c r="D32">
+        <v>1.031210740821918</v>
+      </c>
+      <c r="E32">
+        <v>0.9917920775342464</v>
+      </c>
+      <c r="F32">
+        <v>1.013425078082192</v>
+      </c>
+      <c r="G32">
+        <v>1.011302881917808</v>
+      </c>
+      <c r="H32">
+        <v>0.9751946913698631</v>
+      </c>
+      <c r="I32">
+        <v>0.9628114478082194</v>
+      </c>
+      <c r="J32">
+        <v>0.9902516647945206</v>
+      </c>
+      <c r="K32">
+        <v>1.005686801917808</v>
+      </c>
+      <c r="L32">
+        <v>0.9628114478082194</v>
+      </c>
+      <c r="M32">
+        <v>1.031210740821918</v>
+      </c>
+      <c r="N32">
+        <v>1.031210740821918</v>
+      </c>
+      <c r="O32">
+        <v>1.005686801917808</v>
+      </c>
+      <c r="P32">
+        <v>0.9842491248630139</v>
+      </c>
+      <c r="Q32">
+        <v>0.9987394397260274</v>
+      </c>
+      <c r="R32">
+        <v>0.9999029968493153</v>
+      </c>
+      <c r="S32">
+        <v>0.9867634424200914</v>
+      </c>
+      <c r="T32">
+        <v>0.9999029968493153</v>
+      </c>
+      <c r="U32">
+        <v>0.9978752670205481</v>
+      </c>
+      <c r="V32">
+        <v>1.004542361780822</v>
+      </c>
+      <c r="W32">
+        <v>0.9977094230308221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.029899100526316</v>
+      </c>
+      <c r="D33">
+        <v>1.029899100526316</v>
+      </c>
+      <c r="E33">
+        <v>0.9898231068421053</v>
+      </c>
+      <c r="F33">
+        <v>1.017800067894737</v>
+      </c>
+      <c r="G33">
+        <v>1.011329145263158</v>
+      </c>
+      <c r="H33">
+        <v>0.9691959573684212</v>
+      </c>
+      <c r="I33">
+        <v>0.952343812631579</v>
+      </c>
+      <c r="J33">
+        <v>0.9911425636842106</v>
+      </c>
+      <c r="K33">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="L33">
+        <v>0.952343812631579</v>
+      </c>
+      <c r="M33">
+        <v>1.029899100526316</v>
+      </c>
+      <c r="N33">
+        <v>1.029899100526316</v>
+      </c>
+      <c r="O33">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="P33">
+        <v>0.9826553378947369</v>
+      </c>
+      <c r="Q33">
+        <v>1.001394985</v>
+      </c>
+      <c r="R33">
+        <v>0.9984032587719299</v>
+      </c>
+      <c r="S33">
+        <v>0.9850445942105264</v>
+      </c>
+      <c r="T33">
+        <v>0.9984032587719298</v>
+      </c>
+      <c r="U33">
+        <v>0.9962582207894737</v>
+      </c>
+      <c r="V33">
+        <v>1.002986396736842</v>
+      </c>
+      <c r="W33">
+        <v>0.9968125771710528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="D34">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="E34">
+        <v>0.9773157663157894</v>
+      </c>
+      <c r="F34">
+        <v>1.040010831578947</v>
+      </c>
+      <c r="G34">
+        <v>1.024474426315789</v>
+      </c>
+      <c r="H34">
+        <v>0.9313239894736842</v>
+      </c>
+      <c r="I34">
+        <v>0.8933264142105264</v>
+      </c>
+      <c r="J34">
+        <v>0.981192727894737</v>
+      </c>
+      <c r="K34">
+        <v>1.030617521052632</v>
+      </c>
+      <c r="L34">
+        <v>0.8933264142105264</v>
+      </c>
+      <c r="M34">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="N34">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="O34">
+        <v>1.030617521052632</v>
+      </c>
+      <c r="P34">
+        <v>0.961971967631579</v>
+      </c>
+      <c r="Q34">
+        <v>1.003966643684211</v>
+      </c>
+      <c r="R34">
+        <v>0.9960129959649123</v>
+      </c>
+      <c r="S34">
+        <v>0.9670865671929825</v>
+      </c>
+      <c r="T34">
+        <v>0.9960129959649123</v>
+      </c>
+      <c r="U34">
+        <v>0.9913386885526316</v>
+      </c>
+      <c r="V34">
+        <v>1.005889961368421</v>
+      </c>
+      <c r="W34">
+        <v>0.9927945911842105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.031270587436952</v>
+      </c>
+      <c r="D35">
+        <v>1.031270587436952</v>
+      </c>
+      <c r="E35">
+        <v>0.9866693962511121</v>
+      </c>
+      <c r="F35">
+        <v>1.024351901339909</v>
+      </c>
+      <c r="G35">
+        <v>1.01243089336876</v>
+      </c>
+      <c r="H35">
+        <v>0.9596068061548342</v>
+      </c>
+      <c r="I35">
+        <v>0.9361880674810975</v>
+      </c>
+      <c r="J35">
+        <v>0.9912950605415937</v>
+      </c>
+      <c r="K35">
+        <v>1.022292731153267</v>
+      </c>
+      <c r="L35">
+        <v>0.9361880674810975</v>
+      </c>
+      <c r="M35">
+        <v>1.031270587436952</v>
+      </c>
+      <c r="N35">
+        <v>1.031270587436952</v>
+      </c>
+      <c r="O35">
+        <v>1.022292731153267</v>
+      </c>
+      <c r="P35">
+        <v>0.9792403993171825</v>
+      </c>
+      <c r="Q35">
+        <v>1.00448106370219</v>
+      </c>
+      <c r="R35">
+        <v>0.9965837953571057</v>
+      </c>
+      <c r="S35">
+        <v>0.9817167316284924</v>
+      </c>
+      <c r="T35">
+        <v>0.9965837953571057</v>
+      </c>
+      <c r="U35">
+        <v>0.9941051955806073</v>
+      </c>
+      <c r="V35">
+        <v>1.001538273951876</v>
+      </c>
+      <c r="W35">
+        <v>0.9955131804659407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="D36">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="E36">
+        <v>0.9999993337703578</v>
+      </c>
+      <c r="F36">
+        <v>0.9999993459690292</v>
+      </c>
+      <c r="G36">
+        <v>1.000004969033917</v>
+      </c>
+      <c r="H36">
+        <v>0.9999980604133066</v>
+      </c>
+      <c r="I36">
+        <v>0.999999314884106</v>
+      </c>
+      <c r="J36">
+        <v>0.9999943366764441</v>
+      </c>
+      <c r="K36">
+        <v>0.9999915389275252</v>
+      </c>
+      <c r="L36">
+        <v>0.999999314884106</v>
+      </c>
+      <c r="M36">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="N36">
+        <v>1.000015805854453</v>
+      </c>
+      <c r="O36">
+        <v>0.9999915389275252</v>
+      </c>
+      <c r="P36">
+        <v>0.9999954269058156</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999954363489415</v>
+      </c>
+      <c r="R36">
+        <v>1.000002219888695</v>
+      </c>
+      <c r="S36">
+        <v>0.9999967291939963</v>
+      </c>
+      <c r="T36">
+        <v>1.000002219888695</v>
+      </c>
+      <c r="U36">
+        <v>1.000001498359111</v>
+      </c>
+      <c r="V36">
+        <v>1.000004359858179</v>
+      </c>
+      <c r="W36">
+        <v>1.000000338191142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="D37">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="E37">
+        <v>0.9999649215338864</v>
+      </c>
+      <c r="F37">
+        <v>1.000067945519202</v>
+      </c>
+      <c r="G37">
+        <v>1.000023717379885</v>
+      </c>
+      <c r="H37">
+        <v>0.9998935471864387</v>
+      </c>
+      <c r="I37">
+        <v>0.9998269023443976</v>
+      </c>
+      <c r="J37">
+        <v>0.9999879107010389</v>
+      </c>
+      <c r="K37">
+        <v>1.000078480870091</v>
+      </c>
+      <c r="L37">
+        <v>0.9998269023443976</v>
+      </c>
+      <c r="M37">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="N37">
+        <v>1.000052812190345</v>
+      </c>
+      <c r="O37">
+        <v>1.000078480870091</v>
+      </c>
+      <c r="P37">
+        <v>0.9999526916072443</v>
+      </c>
+      <c r="Q37">
+        <v>1.000021701201989</v>
+      </c>
+      <c r="R37">
+        <v>0.9999860651349445</v>
+      </c>
+      <c r="S37">
+        <v>0.9999567682494583</v>
+      </c>
+      <c r="T37">
+        <v>0.9999860651349445</v>
+      </c>
+      <c r="U37">
+        <v>0.99998077923468</v>
+      </c>
+      <c r="V37">
+        <v>0.9999951858258129</v>
+      </c>
+      <c r="W37">
+        <v>0.9999870297156606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="D38">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="E38">
+        <v>0.9998972809870506</v>
+      </c>
+      <c r="F38">
+        <v>1.000158204498063</v>
+      </c>
+      <c r="G38">
+        <v>1.000164259055332</v>
+      </c>
+      <c r="H38">
+        <v>0.9996899763442239</v>
+      </c>
+      <c r="I38">
+        <v>0.9995477309403644</v>
+      </c>
+      <c r="J38">
+        <v>0.9998505737874338</v>
+      </c>
+      <c r="K38">
+        <v>1.000020925611116</v>
+      </c>
+      <c r="L38">
+        <v>0.9995477309403644</v>
+      </c>
+      <c r="M38">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="N38">
+        <v>1.000465322815878</v>
+      </c>
+      <c r="O38">
+        <v>1.000020925611116</v>
+      </c>
+      <c r="P38">
+        <v>0.9997843282757402</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999591032990832</v>
+      </c>
+      <c r="R38">
+        <v>1.000011326455786</v>
+      </c>
+      <c r="S38">
+        <v>0.9998219791795103</v>
+      </c>
+      <c r="T38">
+        <v>1.000011326455786</v>
+      </c>
+      <c r="U38">
+        <v>0.9999828150886021</v>
+      </c>
+      <c r="V38">
+        <v>1.000079316634057</v>
+      </c>
+      <c r="W38">
+        <v>0.9999742842549326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.001279846813977</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001279846813977</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.99977347302196</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000315607534621</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000439651875568</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9993176933993879</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9990471918101459</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9995773703576686</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9998755920481947</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9990471918101459</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.001279846813977</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.001279846813977</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9998755920481947</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9994613919291703</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9998245325350773</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000067543557439</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9995654189601001</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000067543557439</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999940259235695</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000251190101651</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999533033576903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.026411359974976</v>
+      </c>
+      <c r="D40">
+        <v>1.026411359974976</v>
+      </c>
+      <c r="E40">
+        <v>0.9920363071278614</v>
+      </c>
+      <c r="F40">
+        <v>1.013533487188697</v>
+      </c>
+      <c r="G40">
+        <v>1.00978531691474</v>
+      </c>
+      <c r="H40">
+        <v>0.9759115503329664</v>
+      </c>
+      <c r="I40">
+        <v>0.9632376378772688</v>
+      </c>
+      <c r="J40">
+        <v>0.9919624049159077</v>
+      </c>
+      <c r="K40">
+        <v>1.008120089351655</v>
+      </c>
+      <c r="L40">
+        <v>0.9632376378772688</v>
+      </c>
+      <c r="M40">
+        <v>1.026411359974976</v>
+      </c>
+      <c r="N40">
+        <v>1.026411359974976</v>
+      </c>
+      <c r="O40">
+        <v>1.008120089351655</v>
+      </c>
+      <c r="P40">
+        <v>0.9856788636144618</v>
+      </c>
+      <c r="Q40">
+        <v>1.000078198239758</v>
+      </c>
+      <c r="R40">
+        <v>0.9992563624012997</v>
+      </c>
+      <c r="S40">
+        <v>0.9877980114522616</v>
+      </c>
+      <c r="T40">
+        <v>0.9992563624012999</v>
+      </c>
+      <c r="U40">
+        <v>0.9974513485829403</v>
+      </c>
+      <c r="V40">
+        <v>1.003243350861347</v>
+      </c>
+      <c r="W40">
+        <v>0.9976247692105089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9998955512946107</v>
+      </c>
+      <c r="D41">
+        <v>0.9998955512946107</v>
+      </c>
+      <c r="E41">
+        <v>1.000087688105043</v>
+      </c>
+      <c r="F41">
+        <v>0.9998265255974991</v>
+      </c>
+      <c r="G41">
+        <v>0.999949129357148</v>
+      </c>
+      <c r="H41">
+        <v>1.000266262376697</v>
+      </c>
+      <c r="I41">
+        <v>1.0004375505148</v>
+      </c>
+      <c r="J41">
+        <v>1.000020100595111</v>
+      </c>
+      <c r="K41">
+        <v>0.9997852842324371</v>
+      </c>
+      <c r="L41">
+        <v>1.0004375505148</v>
+      </c>
+      <c r="M41">
+        <v>0.9998955512946107</v>
+      </c>
+      <c r="N41">
+        <v>0.9998955512946107</v>
+      </c>
+      <c r="O41">
+        <v>0.9997852842324371</v>
+      </c>
+      <c r="P41">
+        <v>1.000111417373618</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999364861687402</v>
+      </c>
+      <c r="R41">
+        <v>1.000039462013949</v>
+      </c>
+      <c r="S41">
+        <v>1.000103507617427</v>
+      </c>
+      <c r="T41">
+        <v>1.000039462013949</v>
+      </c>
+      <c r="U41">
+        <v>1.000051518536723</v>
+      </c>
+      <c r="V41">
+        <v>1.0000203250883</v>
+      </c>
+      <c r="W41">
+        <v>1.000033511509168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.02628132089875</v>
+      </c>
+      <c r="D42">
+        <v>1.02628132089875</v>
+      </c>
+      <c r="E42">
+        <v>0.9920218569451639</v>
+      </c>
+      <c r="F42">
+        <v>1.013581391826442</v>
+      </c>
+      <c r="G42">
+        <v>1.009748761100016</v>
+      </c>
+      <c r="H42">
+        <v>0.9758668633231796</v>
+      </c>
+      <c r="I42">
+        <v>0.963139647032307</v>
+      </c>
+      <c r="J42">
+        <v>0.9920131403675222</v>
+      </c>
+      <c r="K42">
+        <v>1.008254480632172</v>
+      </c>
+      <c r="L42">
+        <v>0.963139647032307</v>
+      </c>
+      <c r="M42">
+        <v>1.02628132089875</v>
+      </c>
+      <c r="N42">
+        <v>1.02628132089875</v>
+      </c>
+      <c r="O42">
+        <v>1.008254480632172</v>
+      </c>
+      <c r="P42">
+        <v>0.9856970638322398</v>
+      </c>
+      <c r="Q42">
+        <v>1.000138168788668</v>
+      </c>
+      <c r="R42">
+        <v>0.9992251495210765</v>
+      </c>
+      <c r="S42">
+        <v>0.9878053282032145</v>
+      </c>
+      <c r="T42">
+        <v>0.9992251495210765</v>
+      </c>
+      <c r="U42">
+        <v>0.9974243263770984</v>
+      </c>
+      <c r="V42">
+        <v>1.003195725281429</v>
+      </c>
+      <c r="W42">
+        <v>0.997613432765694</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001306194609692</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="D3">
-        <v>0.9984156893229064</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="E3">
-        <v>1.000255461004309</v>
+        <v>0.9999169936301969</v>
       </c>
       <c r="F3">
-        <v>1.001306194609692</v>
+        <v>1.000148929504977</v>
       </c>
       <c r="G3">
-        <v>0.9996511179017757</v>
+        <v>1.000083689639559</v>
       </c>
       <c r="H3">
-        <v>1.000573318986792</v>
+        <v>0.9997485954441594</v>
       </c>
       <c r="I3">
-        <v>1.001306194609692</v>
+        <v>0.9996062785929726</v>
       </c>
       <c r="J3">
-        <v>0.9984156893229064</v>
+        <v>0.9999382378047446</v>
       </c>
       <c r="K3">
-        <v>0.9995931410576885</v>
+        <v>1.000124967336892</v>
       </c>
       <c r="L3">
-        <v>1.000474199952385</v>
+        <v>0.9996062785929726</v>
       </c>
       <c r="M3">
-        <v>0.998945526131739</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="N3">
-        <v>1.001306194609692</v>
+        <v>1.000215306525915</v>
       </c>
       <c r="O3">
-        <v>1.000255461004309</v>
+        <v>1.000124967336892</v>
       </c>
       <c r="P3">
-        <v>0.9993355751636077</v>
+        <v>0.9998656229649323</v>
       </c>
       <c r="Q3">
-        <v>0.9999532894530424</v>
+        <v>1.000020980483544</v>
       </c>
       <c r="R3">
-        <v>0.9999924483123026</v>
+        <v>0.9999821841519264</v>
       </c>
       <c r="S3">
-        <v>0.9994407560763303</v>
+        <v>0.9998827465200205</v>
       </c>
       <c r="T3">
-        <v>0.9999924483123026</v>
+        <v>0.9999821841519263</v>
       </c>
       <c r="U3">
-        <v>0.9999071157096708</v>
+        <v>0.999965886521494</v>
       </c>
       <c r="V3">
-        <v>1.000186931489675</v>
+        <v>1.000015770522378</v>
       </c>
       <c r="W3">
-        <v>0.9999018311209109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999728748099269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002515091269889</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="D4">
-        <v>0.9969378497957793</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="E4">
-        <v>1.000499105385128</v>
+        <v>0.9920363071278614</v>
       </c>
       <c r="F4">
-        <v>1.002515091269889</v>
+        <v>1.013533487188697</v>
       </c>
       <c r="G4">
-        <v>0.9993260057481813</v>
+        <v>1.00978531691474</v>
       </c>
       <c r="H4">
-        <v>1.001108673769537</v>
+        <v>0.9759115503329664</v>
       </c>
       <c r="I4">
-        <v>1.002515091269889</v>
+        <v>0.9632376378772688</v>
       </c>
       <c r="J4">
-        <v>0.9969378497957793</v>
+        <v>0.9919624049159077</v>
       </c>
       <c r="K4">
-        <v>0.9992170527972349</v>
+        <v>1.008120089351655</v>
       </c>
       <c r="L4">
-        <v>1.000913556789542</v>
+        <v>0.9632376378772688</v>
       </c>
       <c r="M4">
-        <v>0.9979628436269712</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="N4">
-        <v>1.002515091269889</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="O4">
-        <v>1.000499105385128</v>
+        <v>1.008120089351655</v>
       </c>
       <c r="P4">
-        <v>0.9987184775904538</v>
+        <v>0.9856788636144618</v>
       </c>
       <c r="Q4">
-        <v>0.9999125555666548</v>
+        <v>1.000078198239758</v>
       </c>
       <c r="R4">
-        <v>0.9999840154835988</v>
+        <v>0.9992563624012997</v>
       </c>
       <c r="S4">
-        <v>0.998920986976363</v>
+        <v>0.9877980114522616</v>
       </c>
       <c r="T4">
-        <v>0.9999840154835988</v>
+        <v>0.9992563624012999</v>
       </c>
       <c r="U4">
-        <v>0.9998195130497445</v>
+        <v>0.9974513485829403</v>
       </c>
       <c r="V4">
-        <v>1.000358628693773</v>
+        <v>1.003243350861347</v>
       </c>
       <c r="W4">
-        <v>0.9998100223977829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9976247692105089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004801201277693</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="D5">
-        <v>0.9941212666531927</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="E5">
-        <v>1.000973534115416</v>
+        <v>0.9958274001080709</v>
       </c>
       <c r="F5">
-        <v>1.004801201277693</v>
+        <v>1.007483980893371</v>
       </c>
       <c r="G5">
-        <v>0.9987069850532233</v>
+        <v>1.004212841700287</v>
       </c>
       <c r="H5">
-        <v>1.00213004935556</v>
+        <v>0.9873623515778063</v>
       </c>
       <c r="I5">
-        <v>1.004801201277693</v>
+        <v>0.9802116768876059</v>
       </c>
       <c r="J5">
-        <v>0.9941212666531927</v>
+        <v>0.9968881786239213</v>
       </c>
       <c r="K5">
-        <v>0.9985067162692344</v>
+        <v>1.006268713472617</v>
       </c>
       <c r="L5">
-        <v>1.001745324661547</v>
+        <v>0.9802116768876059</v>
       </c>
       <c r="M5">
-        <v>0.996091706630255</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="N5">
-        <v>1.004801201277693</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="O5">
-        <v>1.000973534115416</v>
+        <v>1.006268713472617</v>
       </c>
       <c r="P5">
-        <v>0.9975474003843045</v>
+        <v>0.9932401951801116</v>
       </c>
       <c r="Q5">
-        <v>0.9998402595843198</v>
+        <v>1.001048056790344</v>
       </c>
       <c r="R5">
-        <v>0.999965334015434</v>
+        <v>0.9991076788184414</v>
       </c>
       <c r="S5">
-        <v>0.9979339286072774</v>
+        <v>0.9941025968227647</v>
       </c>
       <c r="T5">
-        <v>0.999965334015434</v>
+        <v>0.9991076788184414</v>
       </c>
       <c r="U5">
-        <v>0.9996507467748813</v>
+        <v>0.9982876091408488</v>
       </c>
       <c r="V5">
-        <v>1.000680837675444</v>
+        <v>1.000798616531699</v>
       </c>
       <c r="W5">
-        <v>0.9996345980020152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9986372236698475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007029672713364</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="D6">
-        <v>0.9913709374918126</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="E6">
-        <v>1.001438965951098</v>
+        <v>0.9866693962511121</v>
       </c>
       <c r="F6">
-        <v>1.007029672713364</v>
+        <v>1.024351901339909</v>
       </c>
       <c r="G6">
-        <v>0.9981026462303424</v>
+        <v>1.01243089336876</v>
       </c>
       <c r="H6">
-        <v>1.003127631122956</v>
+        <v>0.9596068061548342</v>
       </c>
       <c r="I6">
-        <v>1.007029672713364</v>
+        <v>0.9361880674810975</v>
       </c>
       <c r="J6">
-        <v>0.9913709374918126</v>
+        <v>0.9912950605415937</v>
       </c>
       <c r="K6">
-        <v>0.9978144734825449</v>
+        <v>1.022292731153267</v>
       </c>
       <c r="L6">
-        <v>1.002556315221487</v>
+        <v>0.9361880674810975</v>
       </c>
       <c r="M6">
-        <v>0.9942649651181188</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="N6">
-        <v>1.007029672713364</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="O6">
-        <v>1.001438965951098</v>
+        <v>1.022292731153267</v>
       </c>
       <c r="P6">
-        <v>0.9964049517214555</v>
+        <v>0.9792403993171825</v>
       </c>
       <c r="Q6">
-        <v>0.9997708060907203</v>
+        <v>1.00448106370219</v>
       </c>
       <c r="R6">
-        <v>0.9999465253854249</v>
+        <v>0.9965837953571057</v>
       </c>
       <c r="S6">
-        <v>0.9969708498910844</v>
+        <v>0.9817167316284924</v>
       </c>
       <c r="T6">
-        <v>0.9999465253854248</v>
+        <v>0.9965837953571057</v>
       </c>
       <c r="U6">
-        <v>0.9994855555966542</v>
+        <v>0.9941051955806073</v>
       </c>
       <c r="V6">
-        <v>1.000994379019996</v>
+        <v>1.001538273951876</v>
       </c>
       <c r="W6">
-        <v>0.9994632009164655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9955131804659407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000071513871152</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="D7">
-        <v>0.9998625734772618</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="E7">
-        <v>1.000045666543799</v>
+        <v>0.99953868234062</v>
       </c>
       <c r="F7">
-        <v>1.000071513871152</v>
+        <v>1.000766465849375</v>
       </c>
       <c r="G7">
-        <v>0.9999711498986594</v>
+        <v>1.0006075327648</v>
       </c>
       <c r="H7">
-        <v>1.000052196457989</v>
+        <v>0.9986053455269963</v>
       </c>
       <c r="I7">
-        <v>1.000071513871152</v>
+        <v>0.9978938809680834</v>
       </c>
       <c r="J7">
-        <v>0.9998625734772618</v>
+        <v>0.9994854614992725</v>
       </c>
       <c r="K7">
-        <v>0.9999797513184749</v>
+        <v>1.00038072871975</v>
       </c>
       <c r="L7">
-        <v>1.000028075341102</v>
+        <v>0.9978938809680834</v>
       </c>
       <c r="M7">
-        <v>0.9999126033045127</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="N7">
-        <v>1.000071513871152</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="O7">
-        <v>1.000045666543799</v>
+        <v>1.00038072871975</v>
       </c>
       <c r="P7">
-        <v>0.9999541200105302</v>
+        <v>0.9991373048439165</v>
       </c>
       <c r="Q7">
-        <v>1.000008408221229</v>
+        <v>0.9999597055301849</v>
       </c>
       <c r="R7">
-        <v>0.9999932512974042</v>
+        <v>0.9999792975023599</v>
       </c>
       <c r="S7">
-        <v>0.9999597966399065</v>
+        <v>0.9992710973428176</v>
       </c>
       <c r="T7">
-        <v>0.9999932512974045</v>
+        <v>0.9999792975023601</v>
       </c>
       <c r="U7">
-        <v>0.9999877259477181</v>
+        <v>0.9998691437119251</v>
       </c>
       <c r="V7">
-        <v>1.000004483532405</v>
+        <v>1.000227971533389</v>
       </c>
       <c r="W7">
-        <v>0.9999904412766188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9998676725610181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000215306525915</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="D8">
-        <v>0.9996062785929726</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="E8">
-        <v>1.000124967336891</v>
+        <v>0.9999649215338864</v>
       </c>
       <c r="F8">
-        <v>1.000215306525915</v>
+        <v>1.000067945519202</v>
       </c>
       <c r="G8">
-        <v>0.999916993630197</v>
+        <v>1.000023717379885</v>
       </c>
       <c r="H8">
-        <v>1.000148929504977</v>
+        <v>0.9998935471864387</v>
       </c>
       <c r="I8">
-        <v>1.000215306525915</v>
+        <v>0.9998269023443976</v>
       </c>
       <c r="J8">
-        <v>0.9996062785929726</v>
+        <v>0.9999879107010389</v>
       </c>
       <c r="K8">
-        <v>0.9999382378047447</v>
+        <v>1.000078480870091</v>
       </c>
       <c r="L8">
-        <v>1.000083689639559</v>
+        <v>0.9998269023443976</v>
       </c>
       <c r="M8">
-        <v>0.9997485954441594</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="N8">
-        <v>1.000215306525915</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="O8">
-        <v>1.000124967336891</v>
+        <v>1.000078480870091</v>
       </c>
       <c r="P8">
-        <v>0.9998656229649321</v>
+        <v>0.9999526916072443</v>
       </c>
       <c r="Q8">
-        <v>1.000020980483544</v>
+        <v>1.000021701201989</v>
       </c>
       <c r="R8">
-        <v>0.9999821841519262</v>
+        <v>0.9999860651349445</v>
       </c>
       <c r="S8">
-        <v>0.9998827465200204</v>
+        <v>0.9999567682494583</v>
       </c>
       <c r="T8">
-        <v>0.9999821841519262</v>
+        <v>0.9999860651349445</v>
       </c>
       <c r="U8">
-        <v>0.9999658865214939</v>
+        <v>0.99998077923468</v>
       </c>
       <c r="V8">
-        <v>1.000015770522378</v>
+        <v>0.9999951858258129</v>
       </c>
       <c r="W8">
-        <v>0.9999728748099268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999870297156606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000303127436831</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="D9">
-        <v>0.9994601189994284</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="E9">
-        <v>1.000166917605444</v>
+        <v>0.9993260057481815</v>
       </c>
       <c r="F9">
-        <v>1.000303127436831</v>
+        <v>1.001108673769537</v>
       </c>
       <c r="G9">
-        <v>0.9998859125471891</v>
+        <v>1.000913556789542</v>
       </c>
       <c r="H9">
-        <v>1.000203749907152</v>
+        <v>0.9979628436269711</v>
       </c>
       <c r="I9">
-        <v>1.000303127436831</v>
+        <v>0.9969378497957793</v>
       </c>
       <c r="J9">
-        <v>0.9994601189994284</v>
+        <v>0.9992170527972349</v>
       </c>
       <c r="K9">
-        <v>0.9999124684332935</v>
+        <v>1.000499105385128</v>
       </c>
       <c r="L9">
-        <v>1.000117223825386</v>
+        <v>0.9969378497957793</v>
       </c>
       <c r="M9">
-        <v>0.99965449832678</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="N9">
-        <v>1.000303127436831</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="O9">
-        <v>1.000166917605444</v>
+        <v>1.000499105385128</v>
       </c>
       <c r="P9">
-        <v>0.9998135183024361</v>
+        <v>0.9987184775904538</v>
       </c>
       <c r="Q9">
-        <v>1.000026415076317</v>
+        <v>0.999912555566655</v>
       </c>
       <c r="R9">
-        <v>0.9999767213472345</v>
+        <v>0.9999840154835988</v>
       </c>
       <c r="S9">
-        <v>0.9998376497173537</v>
+        <v>0.998920986976363</v>
       </c>
       <c r="T9">
-        <v>0.9999767213472345</v>
+        <v>0.9999840154835988</v>
       </c>
       <c r="U9">
-        <v>0.9999540191472231</v>
+        <v>0.9998195130497445</v>
       </c>
       <c r="V9">
-        <v>1.000023840805145</v>
+        <v>1.000358628693773</v>
       </c>
       <c r="W9">
-        <v>0.999963002135188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9998100223977829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000648774002584</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="D10">
-        <v>0.9988295165268308</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="E10">
-        <v>1.000366618513209</v>
+        <v>0.986461438327409</v>
       </c>
       <c r="F10">
-        <v>1.000648774002584</v>
+        <v>1.024752421719979</v>
       </c>
       <c r="G10">
-        <v>0.9997529387094025</v>
+        <v>1.012576835201399</v>
       </c>
       <c r="H10">
-        <v>1.000442239014597</v>
+        <v>0.9589758091191133</v>
       </c>
       <c r="I10">
-        <v>1.000648774002584</v>
+        <v>0.9351649643051252</v>
       </c>
       <c r="J10">
-        <v>0.9988295165268308</v>
+        <v>0.9912169682221781</v>
       </c>
       <c r="K10">
-        <v>0.9998132600098526</v>
+        <v>1.022746208348243</v>
       </c>
       <c r="L10">
-        <v>1.000251513625566</v>
+        <v>0.9351649643051252</v>
       </c>
       <c r="M10">
-        <v>0.9992517574325023</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="N10">
-        <v>1.000648774002584</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="O10">
-        <v>1.000366618513209</v>
+        <v>1.022746208348243</v>
       </c>
       <c r="P10">
-        <v>0.9995980675200197</v>
+        <v>0.978955586326684</v>
       </c>
       <c r="Q10">
-        <v>1.000059778611305</v>
+        <v>1.004603823337826</v>
       </c>
       <c r="R10">
-        <v>0.9999483030142078</v>
+        <v>0.9965041199205045</v>
       </c>
       <c r="S10">
-        <v>0.999649691249814</v>
+        <v>0.9814575369935924</v>
       </c>
       <c r="T10">
-        <v>0.9999483030142078</v>
+        <v>0.9965041199205045</v>
       </c>
       <c r="U10">
-        <v>0.9998994619380065</v>
+        <v>0.9939934495222306</v>
       </c>
       <c r="V10">
-        <v>1.000049324350922</v>
+        <v>1.001514997039413</v>
       </c>
       <c r="W10">
-        <v>0.9999195772293179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9954369790439489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001107830014321</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="D11">
-        <v>0.9980519128322423</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="E11">
-        <v>1.000594402789601</v>
+        <v>0.9920508175859376</v>
       </c>
       <c r="F11">
-        <v>1.001107830014321</v>
+        <v>1.013476107502108</v>
       </c>
       <c r="G11">
-        <v>0.9995878560552176</v>
+        <v>1.009843585284242</v>
       </c>
       <c r="H11">
-        <v>1.000734381572953</v>
+        <v>0.9759568103097847</v>
       </c>
       <c r="I11">
-        <v>1.001107830014321</v>
+        <v>0.9633484545640454</v>
       </c>
       <c r="J11">
-        <v>0.9980519128322423</v>
+        <v>0.9918855288247413</v>
       </c>
       <c r="K11">
-        <v>0.9996791016807496</v>
+        <v>1.00793763333637</v>
       </c>
       <c r="L11">
-        <v>1.00042736846771</v>
+        <v>0.9633484545640454</v>
       </c>
       <c r="M11">
-        <v>0.9987519324965857</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="N11">
-        <v>1.001107830014321</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="O11">
-        <v>1.000594402789601</v>
+        <v>1.00793763333637</v>
       </c>
       <c r="P11">
-        <v>0.9993231578109218</v>
+        <v>0.9856430439502077</v>
       </c>
       <c r="Q11">
-        <v>1.00009112942241</v>
+        <v>0.9999942254611538</v>
       </c>
       <c r="R11">
-        <v>0.9999180485453883</v>
+        <v>0.9992995615248913</v>
       </c>
       <c r="S11">
-        <v>0.9994113905590204</v>
+        <v>0.987778968495451</v>
       </c>
       <c r="T11">
-        <v>0.9999180485453883</v>
+        <v>0.9992995615248913</v>
       </c>
       <c r="U11">
-        <v>0.9998355004228456</v>
+        <v>0.9974873755401529</v>
       </c>
       <c r="V11">
-        <v>1.000089966341141</v>
+        <v>1.003312419766974</v>
       </c>
       <c r="W11">
-        <v>0.9998668482386726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9976389417601859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9881220697008604</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="D12">
-        <v>1.02967180262816</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="E12">
-        <v>0.988136457402741</v>
+        <v>0.9956773611894741</v>
       </c>
       <c r="F12">
-        <v>0.9881220697008604</v>
+        <v>1.007892926884211</v>
       </c>
       <c r="G12">
-        <v>1.006108542682043</v>
+        <v>1.004039095221053</v>
       </c>
       <c r="H12">
-        <v>0.9885194239306797</v>
+        <v>0.9869020798631568</v>
       </c>
       <c r="I12">
-        <v>0.9881220697008604</v>
+        <v>0.9793127975263147</v>
       </c>
       <c r="J12">
-        <v>1.02967180262816</v>
+        <v>0.9971674350421051</v>
       </c>
       <c r="K12">
-        <v>1.003089179129521</v>
+        <v>1.007210672463158</v>
       </c>
       <c r="L12">
-        <v>0.9950518239425534</v>
+        <v>0.9793127975263147</v>
       </c>
       <c r="M12">
-        <v>1.018523042721934</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="N12">
-        <v>0.9881220697008604</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="O12">
-        <v>0.988136457402741</v>
+        <v>1.007210672463158</v>
       </c>
       <c r="P12">
-        <v>1.00890413001545</v>
+        <v>0.9932617349947361</v>
       </c>
       <c r="Q12">
-        <v>0.9971225000423918</v>
+        <v>1.001444016826316</v>
       </c>
       <c r="R12">
-        <v>1.001976776577254</v>
+        <v>0.9988967587824561</v>
       </c>
       <c r="S12">
-        <v>1.007972267570981</v>
+        <v>0.9940669437263154</v>
       </c>
       <c r="T12">
-        <v>1.001976776577254</v>
+        <v>0.9988967587824561</v>
       </c>
       <c r="U12">
-        <v>1.003009718103451</v>
+        <v>0.9980919093842106</v>
       </c>
       <c r="V12">
-        <v>1.000032188422933</v>
+        <v>1.000506888778948</v>
       </c>
       <c r="W12">
-        <v>1.002152792767312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9985461468184209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9929960582755254</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="D13">
-        <v>1.005486818328789</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="E13">
-        <v>1.0005104598965</v>
+        <v>1.002564291092104</v>
       </c>
       <c r="F13">
-        <v>0.9929960582755254</v>
+        <v>0.9955154276616219</v>
       </c>
       <c r="G13">
-        <v>1.001292115374317</v>
+        <v>0.9971440991550233</v>
       </c>
       <c r="H13">
-        <v>0.9981609168818503</v>
+        <v>1.007761732402461</v>
       </c>
       <c r="I13">
-        <v>0.9929960582755254</v>
+        <v>1.012007292323513</v>
       </c>
       <c r="J13">
-        <v>1.005486818328789</v>
+        <v>1.00223335565899</v>
       </c>
       <c r="K13">
-        <v>1.002301944381739</v>
+        <v>0.9967355226903482</v>
       </c>
       <c r="L13">
-        <v>0.997582651098466</v>
+        <v>1.012007292323513</v>
       </c>
       <c r="M13">
-        <v>1.003893446055748</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="N13">
-        <v>0.9929960582755254</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="O13">
-        <v>1.0005104598965</v>
+        <v>0.9967355226903482</v>
       </c>
       <c r="P13">
-        <v>1.002998639112644</v>
+        <v>1.004371407506931</v>
       </c>
       <c r="Q13">
-        <v>1.000901287635408</v>
+        <v>0.9996499068912263</v>
       </c>
       <c r="R13">
-        <v>0.9996644455002713</v>
+        <v>1.000401633219017</v>
       </c>
       <c r="S13">
-        <v>1.002429797866535</v>
+        <v>1.003769035368655</v>
       </c>
       <c r="T13">
-        <v>0.9996644455002713</v>
+        <v>1.000401633219017</v>
       </c>
       <c r="U13">
-        <v>1.000071362968783</v>
+        <v>1.000942297687289</v>
       </c>
       <c r="V13">
-        <v>0.9986563020301313</v>
+        <v>0.9992462550784686</v>
       </c>
       <c r="W13">
-        <v>1.000278051286617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000802975703406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.945252614043252</v>
+        <v>1.0542662</v>
       </c>
       <c r="D14">
-        <v>1.082940084146371</v>
+        <v>1.0542662</v>
       </c>
       <c r="E14">
-        <v>0.9789578497916704</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="F14">
-        <v>0.945252614043252</v>
+        <v>1.042861100000001</v>
       </c>
       <c r="G14">
-        <v>1.017803375928777</v>
+        <v>1.0216333</v>
       </c>
       <c r="H14">
-        <v>0.9691811370087831</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="I14">
-        <v>0.945252614043252</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="J14">
-        <v>1.082940084146371</v>
+        <v>0.98495226</v>
       </c>
       <c r="K14">
-        <v>1.016391450488876</v>
+        <v>1.0396018</v>
       </c>
       <c r="L14">
-        <v>0.9794356041647687</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="M14">
-        <v>1.053874942934517</v>
+        <v>1.0542662</v>
       </c>
       <c r="N14">
-        <v>0.945252614043252</v>
+        <v>1.0542662</v>
       </c>
       <c r="O14">
-        <v>0.9789578497916704</v>
+        <v>1.0396018</v>
       </c>
       <c r="P14">
-        <v>1.030948966969021</v>
+        <v>0.9636996350000004</v>
       </c>
       <c r="Q14">
-        <v>0.9983806128602236</v>
+        <v>1.008093225</v>
       </c>
       <c r="R14">
-        <v>1.002383515993764</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="S14">
-        <v>1.026567103288939</v>
+        <v>0.9679946400000002</v>
       </c>
       <c r="T14">
-        <v>1.002383515993764</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="U14">
-        <v>1.006238480977518</v>
+        <v>0.9895625300000004</v>
       </c>
       <c r="V14">
-        <v>0.9940413075906644</v>
+        <v>1.002503264</v>
       </c>
       <c r="W14">
-        <v>1.005479632313377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9920927587500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.985074903623029</v>
+        <v>1.0739194</v>
       </c>
       <c r="D15">
-        <v>1.021967623765933</v>
+        <v>1.0739194</v>
       </c>
       <c r="E15">
-        <v>0.9946656092377719</v>
+        <v>0.97804822</v>
       </c>
       <c r="F15">
-        <v>0.985074903623029</v>
+        <v>1.0371583</v>
       </c>
       <c r="G15">
-        <v>1.004729781877404</v>
+        <v>1.0273139</v>
       </c>
       <c r="H15">
-        <v>0.9918623487492738</v>
+        <v>0.9336067300000001</v>
       </c>
       <c r="I15">
-        <v>0.985074903623029</v>
+        <v>0.89886153</v>
       </c>
       <c r="J15">
-        <v>1.021967623765933</v>
+        <v>0.97743455</v>
       </c>
       <c r="K15">
-        <v>1.004494326917023</v>
+        <v>1.0216319</v>
       </c>
       <c r="L15">
-        <v>0.9944205889207962</v>
+        <v>0.89886153</v>
       </c>
       <c r="M15">
-        <v>1.014310749475811</v>
+        <v>1.0739194</v>
       </c>
       <c r="N15">
-        <v>0.985074903623029</v>
+        <v>1.0739194</v>
       </c>
       <c r="O15">
-        <v>0.9946656092377719</v>
+        <v>1.0216319</v>
       </c>
       <c r="P15">
-        <v>1.008316616501853</v>
+        <v>0.960246715</v>
       </c>
       <c r="Q15">
-        <v>0.999697695557588</v>
+        <v>0.99984006</v>
       </c>
       <c r="R15">
-        <v>1.000569378875578</v>
+        <v>0.99813761</v>
       </c>
       <c r="S15">
-        <v>1.00712100496037</v>
+        <v>0.9661805500000001</v>
       </c>
       <c r="T15">
-        <v>1.000569378875578</v>
+        <v>0.99813761</v>
       </c>
       <c r="U15">
-        <v>1.001609479626035</v>
+        <v>0.9931152624999999</v>
       </c>
       <c r="V15">
-        <v>0.9983025644254335</v>
+        <v>1.00927609</v>
       </c>
       <c r="W15">
-        <v>1.00144074157088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.99349681625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000015805854453</v>
+        <v>1.2008753</v>
       </c>
       <c r="D16">
-        <v>0.999999314884106</v>
+        <v>1.2008753</v>
       </c>
       <c r="E16">
-        <v>0.9999915389275252</v>
+        <v>0.94173666</v>
       </c>
       <c r="F16">
-        <v>1.000015805854453</v>
+        <v>1.0980093</v>
       </c>
       <c r="G16">
-        <v>0.9999993337703582</v>
+        <v>1.0739241</v>
       </c>
       <c r="H16">
-        <v>0.9999993459690292</v>
+        <v>0.8238079400000001</v>
       </c>
       <c r="I16">
-        <v>1.000015805854453</v>
+        <v>0.73238625</v>
       </c>
       <c r="J16">
-        <v>0.999999314884106</v>
+        <v>0.93838944</v>
       </c>
       <c r="K16">
-        <v>0.9999943366764441</v>
+        <v>1.0542662</v>
       </c>
       <c r="L16">
-        <v>1.000004969033917</v>
+        <v>0.73238625</v>
       </c>
       <c r="M16">
-        <v>0.9999980604133067</v>
+        <v>1.2008753</v>
       </c>
       <c r="N16">
-        <v>1.000015805854453</v>
+        <v>1.2008753</v>
       </c>
       <c r="O16">
-        <v>0.9999915389275252</v>
+        <v>1.0542662</v>
       </c>
       <c r="P16">
-        <v>0.9999954269058156</v>
+        <v>0.893326225</v>
       </c>
       <c r="Q16">
-        <v>0.9999954363489417</v>
+        <v>0.99800143</v>
       </c>
       <c r="R16">
-        <v>1.000002219888695</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="S16">
-        <v>0.9999967291939965</v>
+        <v>0.9094630366666667</v>
       </c>
       <c r="T16">
-        <v>1.000002219888695</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="U16">
-        <v>1.000001498359111</v>
+        <v>0.9823161025</v>
       </c>
       <c r="V16">
-        <v>1.000004359858179</v>
+        <v>1.026027942</v>
       </c>
       <c r="W16">
-        <v>1.000000338191142</v>
+        <v>0.98292439875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000052812190345</v>
+        <v>0.99805808</v>
       </c>
       <c r="D17">
-        <v>0.9998269023443974</v>
+        <v>0.99805808</v>
       </c>
       <c r="E17">
-        <v>1.000078480870091</v>
+        <v>0.99814082</v>
       </c>
       <c r="F17">
-        <v>1.000052812190345</v>
+        <v>1.0042234</v>
       </c>
       <c r="G17">
-        <v>0.9999649215338864</v>
+        <v>0.9998101299999999</v>
       </c>
       <c r="H17">
-        <v>1.000067945519202</v>
+        <v>0.99433189</v>
       </c>
       <c r="I17">
-        <v>1.000052812190345</v>
+        <v>0.98999236</v>
       </c>
       <c r="J17">
-        <v>0.9998269023443974</v>
+        <v>1.0010994</v>
       </c>
       <c r="K17">
-        <v>0.9999879107010389</v>
+        <v>1.0073471</v>
       </c>
       <c r="L17">
-        <v>1.000023717379885</v>
+        <v>0.98999236</v>
       </c>
       <c r="M17">
-        <v>0.9998935471864384</v>
+        <v>0.99805808</v>
       </c>
       <c r="N17">
-        <v>1.000052812190345</v>
+        <v>0.99805808</v>
       </c>
       <c r="O17">
-        <v>1.000078480870091</v>
+        <v>1.0073471</v>
       </c>
       <c r="P17">
-        <v>0.9999526916072443</v>
+        <v>0.99866973</v>
       </c>
       <c r="Q17">
-        <v>1.000021701201989</v>
+        <v>1.00274396</v>
       </c>
       <c r="R17">
-        <v>0.9999860651349445</v>
+        <v>0.9984658466666666</v>
       </c>
       <c r="S17">
-        <v>0.9999567682494583</v>
+        <v>0.9984934266666667</v>
       </c>
       <c r="T17">
-        <v>0.9999860651349445</v>
+        <v>0.9984658466666666</v>
       </c>
       <c r="U17">
-        <v>0.99998077923468</v>
+        <v>0.99838459</v>
       </c>
       <c r="V17">
-        <v>0.9999951858258129</v>
+        <v>0.998319288</v>
       </c>
       <c r="W17">
-        <v>0.9999870297156606</v>
+        <v>0.9991253975000001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000465322815878</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="D18">
-        <v>0.9995477309403644</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="E18">
-        <v>1.000020925611116</v>
+        <v>0.9917920775342464</v>
       </c>
       <c r="F18">
-        <v>1.000465322815878</v>
+        <v>1.013425078082192</v>
       </c>
       <c r="G18">
-        <v>0.9998972809870506</v>
+        <v>1.011302881917808</v>
       </c>
       <c r="H18">
-        <v>1.000158204498063</v>
+        <v>0.9751946913698631</v>
       </c>
       <c r="I18">
-        <v>1.000465322815878</v>
+        <v>0.9628114478082194</v>
       </c>
       <c r="J18">
-        <v>0.9995477309403644</v>
+        <v>0.9902516647945206</v>
       </c>
       <c r="K18">
-        <v>0.9998505737874338</v>
+        <v>1.005686801917808</v>
       </c>
       <c r="L18">
-        <v>1.000164259055332</v>
+        <v>0.9628114478082194</v>
       </c>
       <c r="M18">
-        <v>0.9996899763442239</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="N18">
-        <v>1.000465322815878</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="O18">
-        <v>1.000020925611116</v>
+        <v>1.005686801917808</v>
       </c>
       <c r="P18">
-        <v>0.9997843282757402</v>
+        <v>0.9842491248630139</v>
       </c>
       <c r="Q18">
-        <v>0.9999591032990832</v>
+        <v>0.9987394397260274</v>
       </c>
       <c r="R18">
-        <v>1.000011326455786</v>
+        <v>0.9999029968493153</v>
       </c>
       <c r="S18">
-        <v>0.9998219791795103</v>
+        <v>0.9867634424200914</v>
       </c>
       <c r="T18">
-        <v>1.000011326455786</v>
+        <v>0.9999029968493153</v>
       </c>
       <c r="U18">
-        <v>0.9999828150886023</v>
+        <v>0.9978752670205481</v>
       </c>
       <c r="V18">
-        <v>1.000079316634058</v>
+        <v>1.004542361780822</v>
       </c>
       <c r="W18">
-        <v>0.9999742842549327</v>
+        <v>0.9977094230308221</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001279846813977</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="D19">
-        <v>0.9990471918101459</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="E19">
-        <v>0.9998755920481947</v>
+        <v>0.9898231068421053</v>
       </c>
       <c r="F19">
-        <v>1.001279846813977</v>
+        <v>1.017800067894737</v>
       </c>
       <c r="G19">
-        <v>0.99977347302196</v>
+        <v>1.011329145263158</v>
       </c>
       <c r="H19">
-        <v>1.000315607534621</v>
+        <v>0.9691959573684212</v>
       </c>
       <c r="I19">
-        <v>1.001279846813977</v>
+        <v>0.952343812631579</v>
       </c>
       <c r="J19">
-        <v>0.9990471918101459</v>
+        <v>0.9911425636842106</v>
       </c>
       <c r="K19">
-        <v>0.9995773703576686</v>
+        <v>1.012966863157895</v>
       </c>
       <c r="L19">
-        <v>1.000439651875568</v>
+        <v>0.952343812631579</v>
       </c>
       <c r="M19">
-        <v>0.9993176933993879</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="N19">
-        <v>1.001279846813977</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="O19">
-        <v>0.9998755920481947</v>
+        <v>1.012966863157895</v>
       </c>
       <c r="P19">
-        <v>0.9994613919291703</v>
+        <v>0.9826553378947369</v>
       </c>
       <c r="Q19">
-        <v>0.9998245325350773</v>
+        <v>1.001394985</v>
       </c>
       <c r="R19">
-        <v>1.000067543557439</v>
+        <v>0.9984032587719299</v>
       </c>
       <c r="S19">
-        <v>0.9995654189601001</v>
+        <v>0.9850445942105264</v>
       </c>
       <c r="T19">
-        <v>1.000067543557439</v>
+        <v>0.9984032587719298</v>
       </c>
       <c r="U19">
-        <v>0.9999940259235695</v>
+        <v>0.9962582207894737</v>
       </c>
       <c r="V19">
-        <v>1.000251190101651</v>
+        <v>1.002986396736842</v>
       </c>
       <c r="W19">
-        <v>0.9999533033576903</v>
+        <v>0.9968125771710528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="D20">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="E20">
+        <v>0.9773157663157894</v>
+      </c>
+      <c r="F20">
+        <v>1.040010831578947</v>
+      </c>
+      <c r="G20">
+        <v>1.024474426315789</v>
+      </c>
+      <c r="H20">
+        <v>0.9313239894736842</v>
+      </c>
+      <c r="I20">
+        <v>0.8933264142105264</v>
+      </c>
+      <c r="J20">
+        <v>0.981192727894737</v>
+      </c>
+      <c r="K20">
+        <v>1.030617521052632</v>
+      </c>
+      <c r="L20">
+        <v>0.8933264142105264</v>
+      </c>
+      <c r="M20">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="N20">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="O20">
+        <v>1.030617521052632</v>
+      </c>
+      <c r="P20">
+        <v>0.961971967631579</v>
+      </c>
+      <c r="Q20">
+        <v>1.003966643684211</v>
+      </c>
+      <c r="R20">
+        <v>0.9960129959649123</v>
+      </c>
+      <c r="S20">
+        <v>0.9670865671929825</v>
+      </c>
+      <c r="T20">
+        <v>0.9960129959649123</v>
+      </c>
+      <c r="U20">
+        <v>0.9913386885526316</v>
+      </c>
+      <c r="V20">
+        <v>1.005889961368421</v>
+      </c>
+      <c r="W20">
+        <v>0.9927945911842105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="D21">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="E21">
+        <v>1.017803375928777</v>
+      </c>
+      <c r="F21">
+        <v>0.9691811370087832</v>
+      </c>
+      <c r="G21">
+        <v>0.9794356041647687</v>
+      </c>
+      <c r="H21">
+        <v>1.053874942934517</v>
+      </c>
+      <c r="I21">
+        <v>1.082940084146371</v>
+      </c>
+      <c r="J21">
+        <v>1.016391450488876</v>
+      </c>
+      <c r="K21">
+        <v>0.9789578497916704</v>
+      </c>
+      <c r="L21">
+        <v>1.082940084146371</v>
+      </c>
+      <c r="M21">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="N21">
+        <v>0.945252614043252</v>
+      </c>
+      <c r="O21">
+        <v>0.9789578497916704</v>
+      </c>
+      <c r="P21">
+        <v>1.030948966969021</v>
+      </c>
+      <c r="Q21">
+        <v>0.9983806128602237</v>
+      </c>
+      <c r="R21">
+        <v>1.002383515993764</v>
+      </c>
+      <c r="S21">
+        <v>1.026567103288939</v>
+      </c>
+      <c r="T21">
+        <v>1.002383515993764</v>
+      </c>
+      <c r="U21">
+        <v>1.006238480977518</v>
+      </c>
+      <c r="V21">
+        <v>0.9940413075906644</v>
+      </c>
+      <c r="W21">
+        <v>1.005479632313377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="D22">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="E22">
+        <v>1.004729781877404</v>
+      </c>
+      <c r="F22">
+        <v>0.9918623487492738</v>
+      </c>
+      <c r="G22">
+        <v>0.9944205889207962</v>
+      </c>
+      <c r="H22">
+        <v>1.014310749475811</v>
+      </c>
+      <c r="I22">
+        <v>1.021967623765933</v>
+      </c>
+      <c r="J22">
+        <v>1.004494326917023</v>
+      </c>
+      <c r="K22">
+        <v>0.9946656092377719</v>
+      </c>
+      <c r="L22">
+        <v>1.021967623765933</v>
+      </c>
+      <c r="M22">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="N22">
+        <v>0.985074903623029</v>
+      </c>
+      <c r="O22">
+        <v>0.9946656092377719</v>
+      </c>
+      <c r="P22">
+        <v>1.008316616501853</v>
+      </c>
+      <c r="Q22">
+        <v>0.999697695557588</v>
+      </c>
+      <c r="R22">
+        <v>1.000569378875578</v>
+      </c>
+      <c r="S22">
+        <v>1.00712100496037</v>
+      </c>
+      <c r="T22">
+        <v>1.000569378875578</v>
+      </c>
+      <c r="U22">
+        <v>1.001609479626035</v>
+      </c>
+      <c r="V22">
+        <v>0.9983025644254335</v>
+      </c>
+      <c r="W22">
+        <v>1.00144074157088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="D23">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="E23">
+        <v>1.006108542682043</v>
+      </c>
+      <c r="F23">
+        <v>0.9885194239306797</v>
+      </c>
+      <c r="G23">
+        <v>0.9950518239425535</v>
+      </c>
+      <c r="H23">
+        <v>1.018523042721934</v>
+      </c>
+      <c r="I23">
+        <v>1.029671802628159</v>
+      </c>
+      <c r="J23">
+        <v>1.003089179129521</v>
+      </c>
+      <c r="K23">
+        <v>0.988136457402741</v>
+      </c>
+      <c r="L23">
+        <v>1.029671802628159</v>
+      </c>
+      <c r="M23">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="N23">
+        <v>0.9881220697008604</v>
+      </c>
+      <c r="O23">
+        <v>0.988136457402741</v>
+      </c>
+      <c r="P23">
+        <v>1.00890413001545</v>
+      </c>
+      <c r="Q23">
+        <v>0.9971225000423918</v>
+      </c>
+      <c r="R23">
+        <v>1.001976776577254</v>
+      </c>
+      <c r="S23">
+        <v>1.007972267570981</v>
+      </c>
+      <c r="T23">
+        <v>1.001976776577254</v>
+      </c>
+      <c r="U23">
+        <v>1.003009718103451</v>
+      </c>
+      <c r="V23">
+        <v>1.000032188422933</v>
+      </c>
+      <c r="W23">
+        <v>1.002152792767312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="D24">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="E24">
+        <v>1.001292115374317</v>
+      </c>
+      <c r="F24">
+        <v>0.9981609168818504</v>
+      </c>
+      <c r="G24">
+        <v>0.997582651098466</v>
+      </c>
+      <c r="H24">
+        <v>1.003893446055748</v>
+      </c>
+      <c r="I24">
+        <v>1.005486818328789</v>
+      </c>
+      <c r="J24">
+        <v>1.002301944381739</v>
+      </c>
+      <c r="K24">
+        <v>1.0005104598965</v>
+      </c>
+      <c r="L24">
+        <v>1.005486818328789</v>
+      </c>
+      <c r="M24">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="N24">
+        <v>0.9929960582755254</v>
+      </c>
+      <c r="O24">
+        <v>1.0005104598965</v>
+      </c>
+      <c r="P24">
+        <v>1.002998639112644</v>
+      </c>
+      <c r="Q24">
+        <v>1.000901287635408</v>
+      </c>
+      <c r="R24">
+        <v>0.9996644455002713</v>
+      </c>
+      <c r="S24">
+        <v>1.002429797866535</v>
+      </c>
+      <c r="T24">
+        <v>0.9996644455002713</v>
+      </c>
+      <c r="U24">
+        <v>1.000071362968783</v>
+      </c>
+      <c r="V24">
+        <v>0.9986563020301313</v>
+      </c>
+      <c r="W24">
+        <v>1.000278051286617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.0560088487021</v>
+      </c>
+      <c r="D25">
+        <v>1.0560088487021</v>
+      </c>
+      <c r="E25">
+        <v>0.9826962824712844</v>
+      </c>
+      <c r="F25">
+        <v>1.029586781338969</v>
+      </c>
+      <c r="G25">
+        <v>1.020841132070817</v>
+      </c>
+      <c r="H25">
+        <v>0.9476524354755785</v>
+      </c>
+      <c r="I25">
+        <v>0.9198795011310777</v>
+      </c>
+      <c r="J25">
+        <v>0.9830416325831307</v>
+      </c>
+      <c r="K25">
+        <v>1.018570322703986</v>
+      </c>
+      <c r="L25">
+        <v>0.9198795011310777</v>
+      </c>
+      <c r="M25">
+        <v>1.0560088487021</v>
+      </c>
+      <c r="N25">
+        <v>1.0560088487021</v>
+      </c>
+      <c r="O25">
+        <v>1.018570322703986</v>
+      </c>
+      <c r="P25">
+        <v>0.969224911917532</v>
+      </c>
+      <c r="Q25">
+        <v>1.000633302587635</v>
+      </c>
+      <c r="R25">
+        <v>0.9981528908457212</v>
+      </c>
+      <c r="S25">
+        <v>0.9737153687687828</v>
+      </c>
+      <c r="T25">
+        <v>0.9981528908457212</v>
+      </c>
+      <c r="U25">
+        <v>0.994288738752112</v>
+      </c>
+      <c r="V25">
+        <v>1.00663276074211</v>
+      </c>
+      <c r="W25">
+        <v>0.994784617059618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.013683125397131</v>
+      </c>
+      <c r="D26">
+        <v>1.013683125397131</v>
+      </c>
+      <c r="E26">
+        <v>0.9952669974212713</v>
+      </c>
+      <c r="F26">
+        <v>1.008307479734452</v>
+      </c>
+      <c r="G26">
+        <v>1.005201078403967</v>
+      </c>
+      <c r="H26">
+        <v>0.98567265282489</v>
+      </c>
+      <c r="I26">
+        <v>0.9777973350175618</v>
+      </c>
+      <c r="J26">
+        <v>0.9959621832699987</v>
+      </c>
+      <c r="K26">
+        <v>1.006179908669356</v>
+      </c>
+      <c r="L26">
+        <v>0.9777973350175618</v>
+      </c>
+      <c r="M26">
+        <v>1.013683125397131</v>
+      </c>
+      <c r="N26">
+        <v>1.013683125397131</v>
+      </c>
+      <c r="O26">
+        <v>1.006179908669356</v>
+      </c>
+      <c r="P26">
+        <v>0.991988621843459</v>
+      </c>
+      <c r="Q26">
+        <v>1.000723453045314</v>
+      </c>
+      <c r="R26">
+        <v>0.9992201230280164</v>
+      </c>
+      <c r="S26">
+        <v>0.9930814137027298</v>
+      </c>
+      <c r="T26">
+        <v>0.9992201230280164</v>
+      </c>
+      <c r="U26">
+        <v>0.9982318416263302</v>
+      </c>
+      <c r="V26">
+        <v>1.00132209838049</v>
+      </c>
+      <c r="W26">
+        <v>0.9985088450923285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="D27">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="E27">
+        <v>0.9986959737622363</v>
+      </c>
+      <c r="F27">
+        <v>1.002197716009112</v>
+      </c>
+      <c r="G27">
+        <v>1.001645030426103</v>
+      </c>
+      <c r="H27">
+        <v>0.9960563333951805</v>
+      </c>
+      <c r="I27">
+        <v>0.9940048472104366</v>
+      </c>
+      <c r="J27">
+        <v>0.9986324994163899</v>
+      </c>
+      <c r="K27">
+        <v>1.001235526117853</v>
+      </c>
+      <c r="L27">
+        <v>0.9940048472104366</v>
+      </c>
+      <c r="M27">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="N27">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="O27">
+        <v>1.001235526117853</v>
+      </c>
+      <c r="P27">
+        <v>0.9976201866641449</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999657499400447</v>
+      </c>
+      <c r="R27">
+        <v>0.9999017074415066</v>
+      </c>
+      <c r="S27">
+        <v>0.9979787823635086</v>
+      </c>
+      <c r="T27">
+        <v>0.9999017074415066</v>
+      </c>
+      <c r="U27">
+        <v>0.9996002740216891</v>
+      </c>
+      <c r="V27">
+        <v>1.000573169016597</v>
+      </c>
+      <c r="W27">
+        <v>0.9996165844166927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="D28">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="E28">
+        <v>0.9977580542839358</v>
+      </c>
+      <c r="F28">
+        <v>1.00373114822979</v>
+      </c>
+      <c r="G28">
+        <v>1.002938081476415</v>
+      </c>
+      <c r="H28">
+        <v>0.9932218862419924</v>
+      </c>
+      <c r="I28">
+        <v>0.9897562096692494</v>
+      </c>
+      <c r="J28">
+        <v>0.9975167821633516</v>
+      </c>
+      <c r="K28">
+        <v>1.001882102742715</v>
+      </c>
+      <c r="L28">
+        <v>0.9897562096692494</v>
+      </c>
+      <c r="M28">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="N28">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="O28">
+        <v>1.001882102742715</v>
+      </c>
+      <c r="P28">
+        <v>0.995819156205982</v>
+      </c>
+      <c r="Q28">
+        <v>0.9998200785133253</v>
+      </c>
+      <c r="R28">
+        <v>0.9998914487382127</v>
+      </c>
+      <c r="S28">
+        <v>0.9964654555653</v>
+      </c>
+      <c r="T28">
+        <v>0.9998914487382127</v>
+      </c>
+      <c r="U28">
+        <v>0.9993581001246434</v>
+      </c>
+      <c r="V28">
+        <v>1.00109368686025</v>
+      </c>
+      <c r="W28">
+        <v>0.9993550373262654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9954404235822315</v>
+      </c>
+      <c r="D29">
+        <v>0.9954404235822315</v>
+      </c>
+      <c r="E29">
+        <v>1.002046077527865</v>
+      </c>
+      <c r="F29">
+        <v>0.9962308088318446</v>
+      </c>
+      <c r="G29">
+        <v>0.9981652720059248</v>
+      </c>
+      <c r="H29">
+        <v>1.006201143261314</v>
+      </c>
+      <c r="I29">
+        <v>1.009836503429235</v>
+      </c>
+      <c r="J29">
+        <v>1.001247990380848</v>
+      </c>
+      <c r="K29">
+        <v>0.9964169572517488</v>
+      </c>
+      <c r="L29">
+        <v>1.009836503429235</v>
+      </c>
+      <c r="M29">
+        <v>0.9954404235822315</v>
+      </c>
+      <c r="N29">
+        <v>0.9954404235822315</v>
+      </c>
+      <c r="O29">
+        <v>0.9964169572517488</v>
+      </c>
+      <c r="P29">
+        <v>1.003126730340492</v>
+      </c>
+      <c r="Q29">
+        <v>0.999231517389807</v>
+      </c>
+      <c r="R29">
+        <v>1.000564628087738</v>
+      </c>
+      <c r="S29">
+        <v>1.002766512736283</v>
+      </c>
+      <c r="T29">
+        <v>1.000564628087739</v>
+      </c>
+      <c r="U29">
+        <v>1.00093499044777</v>
+      </c>
+      <c r="V29">
+        <v>0.9998360770746626</v>
+      </c>
+      <c r="W29">
+        <v>1.000698147033876</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.026411359974976</v>
+        <v>1.008238018141915</v>
       </c>
       <c r="D4">
-        <v>1.026411359974976</v>
+        <v>1.008238018141915</v>
       </c>
       <c r="E4">
-        <v>0.9920363071278614</v>
+        <v>0.9967492681100655</v>
       </c>
       <c r="F4">
-        <v>1.013533487188697</v>
+        <v>1.005857956597598</v>
       </c>
       <c r="G4">
-        <v>1.00978531691474</v>
+        <v>1.003218264173067</v>
       </c>
       <c r="H4">
-        <v>0.9759115503329664</v>
+        <v>0.9901532872362948</v>
       </c>
       <c r="I4">
-        <v>0.9632376378772688</v>
+        <v>0.9845468259532987</v>
       </c>
       <c r="J4">
-        <v>0.9919624049159077</v>
+        <v>0.9976524390309097</v>
       </c>
       <c r="K4">
-        <v>1.008120089351655</v>
+        <v>1.005024349730139</v>
       </c>
       <c r="L4">
-        <v>0.9632376378772688</v>
+        <v>0.9845468259532987</v>
       </c>
       <c r="M4">
-        <v>1.026411359974976</v>
+        <v>1.008238018141915</v>
       </c>
       <c r="N4">
-        <v>1.026411359974976</v>
+        <v>1.008238018141915</v>
       </c>
       <c r="O4">
-        <v>1.008120089351655</v>
+        <v>1.005024349730139</v>
       </c>
       <c r="P4">
-        <v>0.9856788636144618</v>
+        <v>0.9947855878417191</v>
       </c>
       <c r="Q4">
-        <v>1.000078198239758</v>
+        <v>1.000886808920102</v>
       </c>
       <c r="R4">
-        <v>0.9992563624012997</v>
+        <v>0.9992697312751179</v>
       </c>
       <c r="S4">
-        <v>0.9877980114522616</v>
+        <v>0.995440147931168</v>
       </c>
       <c r="T4">
-        <v>0.9992563624012999</v>
+        <v>0.9992697312751178</v>
       </c>
       <c r="U4">
-        <v>0.9974513485829403</v>
+        <v>0.9986396154838547</v>
       </c>
       <c r="V4">
-        <v>1.003243350861347</v>
+        <v>1.000559296015467</v>
       </c>
       <c r="W4">
-        <v>0.9976247692105089</v>
+        <v>0.9989300511216612</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.010842646095101</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="D5">
-        <v>1.010842646095101</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="E5">
-        <v>0.9958274001080709</v>
+        <v>0.977353281579617</v>
       </c>
       <c r="F5">
-        <v>1.007483980893371</v>
+        <v>1.039864508163125</v>
       </c>
       <c r="G5">
-        <v>1.004212841700287</v>
+        <v>1.024620371391819</v>
       </c>
       <c r="H5">
-        <v>0.9873623515778063</v>
+        <v>0.9314409181474085</v>
       </c>
       <c r="I5">
-        <v>0.9802116768876059</v>
+        <v>0.8936102105617998</v>
       </c>
       <c r="J5">
-        <v>0.9968881786239213</v>
+        <v>0.9809996244706511</v>
       </c>
       <c r="K5">
-        <v>1.006268713472617</v>
+        <v>1.030156161648216</v>
       </c>
       <c r="L5">
-        <v>0.9802116768876059</v>
+        <v>0.8936102105617998</v>
       </c>
       <c r="M5">
-        <v>1.010842646095101</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="N5">
-        <v>1.010842646095101</v>
+        <v>1.064599919933392</v>
       </c>
       <c r="O5">
-        <v>1.006268713472617</v>
+        <v>1.030156161648216</v>
       </c>
       <c r="P5">
-        <v>0.9932401951801116</v>
+        <v>0.9618831861050081</v>
       </c>
       <c r="Q5">
-        <v>1.001048056790344</v>
+        <v>1.003754721613917</v>
       </c>
       <c r="R5">
-        <v>0.9991076788184414</v>
+        <v>0.9961220973811361</v>
       </c>
       <c r="S5">
-        <v>0.9941025968227647</v>
+        <v>0.9670398845965443</v>
       </c>
       <c r="T5">
-        <v>0.9991076788184414</v>
+        <v>0.9961220973811361</v>
       </c>
       <c r="U5">
-        <v>0.9982876091408488</v>
+        <v>0.9914298934307563</v>
       </c>
       <c r="V5">
-        <v>1.000798616531699</v>
+        <v>1.006063898731283</v>
       </c>
       <c r="W5">
-        <v>0.9986372236698475</v>
+        <v>0.9928306244870035</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.031270587436952</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="D6">
-        <v>1.031270587436952</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="E6">
-        <v>0.9866693962511121</v>
+        <v>0.9920363071278614</v>
       </c>
       <c r="F6">
-        <v>1.024351901339909</v>
+        <v>1.013533487188697</v>
       </c>
       <c r="G6">
-        <v>1.01243089336876</v>
+        <v>1.00978531691474</v>
       </c>
       <c r="H6">
-        <v>0.9596068061548342</v>
+        <v>0.9759115503329664</v>
       </c>
       <c r="I6">
-        <v>0.9361880674810975</v>
+        <v>0.9632376378772688</v>
       </c>
       <c r="J6">
-        <v>0.9912950605415937</v>
+        <v>0.9919624049159077</v>
       </c>
       <c r="K6">
-        <v>1.022292731153267</v>
+        <v>1.008120089351655</v>
       </c>
       <c r="L6">
-        <v>0.9361880674810975</v>
+        <v>0.9632376378772688</v>
       </c>
       <c r="M6">
-        <v>1.031270587436952</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="N6">
-        <v>1.031270587436952</v>
+        <v>1.026411359974976</v>
       </c>
       <c r="O6">
-        <v>1.022292731153267</v>
+        <v>1.008120089351655</v>
       </c>
       <c r="P6">
-        <v>0.9792403993171825</v>
+        <v>0.9856788636144618</v>
       </c>
       <c r="Q6">
-        <v>1.00448106370219</v>
+        <v>1.000078198239758</v>
       </c>
       <c r="R6">
-        <v>0.9965837953571057</v>
+        <v>0.9992563624012997</v>
       </c>
       <c r="S6">
-        <v>0.9817167316284924</v>
+        <v>0.9877980114522616</v>
       </c>
       <c r="T6">
-        <v>0.9965837953571057</v>
+        <v>0.9992563624012999</v>
       </c>
       <c r="U6">
-        <v>0.9941051955806073</v>
+        <v>0.9974513485829403</v>
       </c>
       <c r="V6">
-        <v>1.001538273951876</v>
+        <v>1.003243350861347</v>
       </c>
       <c r="W6">
-        <v>0.9955131804659407</v>
+        <v>0.9976247692105089</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001663282819247</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="D7">
-        <v>1.001663282819247</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="E7">
-        <v>0.99953868234062</v>
+        <v>0.9958274001080709</v>
       </c>
       <c r="F7">
-        <v>1.000766465849375</v>
+        <v>1.007483980893371</v>
       </c>
       <c r="G7">
-        <v>1.0006075327648</v>
+        <v>1.004212841700287</v>
       </c>
       <c r="H7">
-        <v>0.9986053455269963</v>
+        <v>0.9873623515778063</v>
       </c>
       <c r="I7">
-        <v>0.9978938809680834</v>
+        <v>0.9802116768876059</v>
       </c>
       <c r="J7">
-        <v>0.9994854614992725</v>
+        <v>0.9968881786239213</v>
       </c>
       <c r="K7">
-        <v>1.00038072871975</v>
+        <v>1.006268713472617</v>
       </c>
       <c r="L7">
-        <v>0.9978938809680834</v>
+        <v>0.9802116768876059</v>
       </c>
       <c r="M7">
-        <v>1.001663282819247</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="N7">
-        <v>1.001663282819247</v>
+        <v>1.010842646095101</v>
       </c>
       <c r="O7">
-        <v>1.00038072871975</v>
+        <v>1.006268713472617</v>
       </c>
       <c r="P7">
-        <v>0.9991373048439165</v>
+        <v>0.9932401951801116</v>
       </c>
       <c r="Q7">
-        <v>0.9999597055301849</v>
+        <v>1.001048056790344</v>
       </c>
       <c r="R7">
-        <v>0.9999792975023599</v>
+        <v>0.9991076788184414</v>
       </c>
       <c r="S7">
-        <v>0.9992710973428176</v>
+        <v>0.9941025968227647</v>
       </c>
       <c r="T7">
-        <v>0.9999792975023601</v>
+        <v>0.9991076788184414</v>
       </c>
       <c r="U7">
-        <v>0.9998691437119251</v>
+        <v>0.9982876091408488</v>
       </c>
       <c r="V7">
-        <v>1.000227971533389</v>
+        <v>1.000798616531699</v>
       </c>
       <c r="W7">
-        <v>0.9998676725610181</v>
+        <v>0.9986372236698475</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000052812190345</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="D8">
-        <v>1.000052812190345</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="E8">
-        <v>0.9999649215338864</v>
+        <v>0.9866693962511121</v>
       </c>
       <c r="F8">
-        <v>1.000067945519202</v>
+        <v>1.024351901339909</v>
       </c>
       <c r="G8">
-        <v>1.000023717379885</v>
+        <v>1.01243089336876</v>
       </c>
       <c r="H8">
-        <v>0.9998935471864387</v>
+        <v>0.9596068061548342</v>
       </c>
       <c r="I8">
-        <v>0.9998269023443976</v>
+        <v>0.9361880674810975</v>
       </c>
       <c r="J8">
-        <v>0.9999879107010389</v>
+        <v>0.9912950605415937</v>
       </c>
       <c r="K8">
-        <v>1.000078480870091</v>
+        <v>1.022292731153267</v>
       </c>
       <c r="L8">
-        <v>0.9998269023443976</v>
+        <v>0.9361880674810975</v>
       </c>
       <c r="M8">
-        <v>1.000052812190345</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="N8">
-        <v>1.000052812190345</v>
+        <v>1.031270587436952</v>
       </c>
       <c r="O8">
-        <v>1.000078480870091</v>
+        <v>1.022292731153267</v>
       </c>
       <c r="P8">
-        <v>0.9999526916072443</v>
+        <v>0.9792403993171825</v>
       </c>
       <c r="Q8">
-        <v>1.000021701201989</v>
+        <v>1.00448106370219</v>
       </c>
       <c r="R8">
-        <v>0.9999860651349445</v>
+        <v>0.9965837953571057</v>
       </c>
       <c r="S8">
-        <v>0.9999567682494583</v>
+        <v>0.9817167316284924</v>
       </c>
       <c r="T8">
-        <v>0.9999860651349445</v>
+        <v>0.9965837953571057</v>
       </c>
       <c r="U8">
-        <v>0.99998077923468</v>
+        <v>0.9941051955806073</v>
       </c>
       <c r="V8">
-        <v>0.9999951858258129</v>
+        <v>1.001538273951876</v>
       </c>
       <c r="W8">
-        <v>0.9999870297156606</v>
+        <v>0.9955131804659407</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002515091269889</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="D9">
-        <v>1.002515091269889</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="E9">
-        <v>0.9993260057481815</v>
+        <v>0.99953868234062</v>
       </c>
       <c r="F9">
-        <v>1.001108673769537</v>
+        <v>1.000766465849375</v>
       </c>
       <c r="G9">
-        <v>1.000913556789542</v>
+        <v>1.0006075327648</v>
       </c>
       <c r="H9">
-        <v>0.9979628436269711</v>
+        <v>0.9986053455269963</v>
       </c>
       <c r="I9">
-        <v>0.9969378497957793</v>
+        <v>0.9978938809680834</v>
       </c>
       <c r="J9">
-        <v>0.9992170527972349</v>
+        <v>0.9994854614992725</v>
       </c>
       <c r="K9">
-        <v>1.000499105385128</v>
+        <v>1.00038072871975</v>
       </c>
       <c r="L9">
-        <v>0.9969378497957793</v>
+        <v>0.9978938809680834</v>
       </c>
       <c r="M9">
-        <v>1.002515091269889</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="N9">
-        <v>1.002515091269889</v>
+        <v>1.001663282819247</v>
       </c>
       <c r="O9">
-        <v>1.000499105385128</v>
+        <v>1.00038072871975</v>
       </c>
       <c r="P9">
-        <v>0.9987184775904538</v>
+        <v>0.9991373048439165</v>
       </c>
       <c r="Q9">
-        <v>0.999912555566655</v>
+        <v>0.9999597055301849</v>
       </c>
       <c r="R9">
-        <v>0.9999840154835988</v>
+        <v>0.9999792975023599</v>
       </c>
       <c r="S9">
-        <v>0.998920986976363</v>
+        <v>0.9992710973428176</v>
       </c>
       <c r="T9">
-        <v>0.9999840154835988</v>
+        <v>0.9999792975023601</v>
       </c>
       <c r="U9">
-        <v>0.9998195130497445</v>
+        <v>0.9998691437119251</v>
       </c>
       <c r="V9">
-        <v>1.000358628693773</v>
+        <v>1.000227971533389</v>
       </c>
       <c r="W9">
-        <v>0.9998100223977829</v>
+        <v>0.9998676725610181</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.031601187108145</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="D10">
-        <v>1.031601187108145</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="E10">
-        <v>0.986461438327409</v>
+        <v>0.9999649215338864</v>
       </c>
       <c r="F10">
-        <v>1.024752421719979</v>
+        <v>1.000067945519202</v>
       </c>
       <c r="G10">
-        <v>1.012576835201399</v>
+        <v>1.000023717379885</v>
       </c>
       <c r="H10">
-        <v>0.9589758091191133</v>
+        <v>0.9998935471864387</v>
       </c>
       <c r="I10">
-        <v>0.9351649643051252</v>
+        <v>0.9998269023443976</v>
       </c>
       <c r="J10">
-        <v>0.9912169682221781</v>
+        <v>0.9999879107010389</v>
       </c>
       <c r="K10">
-        <v>1.022746208348243</v>
+        <v>1.000078480870091</v>
       </c>
       <c r="L10">
-        <v>0.9351649643051252</v>
+        <v>0.9998269023443976</v>
       </c>
       <c r="M10">
-        <v>1.031601187108145</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="N10">
-        <v>1.031601187108145</v>
+        <v>1.000052812190345</v>
       </c>
       <c r="O10">
-        <v>1.022746208348243</v>
+        <v>1.000078480870091</v>
       </c>
       <c r="P10">
-        <v>0.978955586326684</v>
+        <v>0.9999526916072443</v>
       </c>
       <c r="Q10">
-        <v>1.004603823337826</v>
+        <v>1.000021701201989</v>
       </c>
       <c r="R10">
-        <v>0.9965041199205045</v>
+        <v>0.9999860651349445</v>
       </c>
       <c r="S10">
-        <v>0.9814575369935924</v>
+        <v>0.9999567682494583</v>
       </c>
       <c r="T10">
-        <v>0.9965041199205045</v>
+        <v>0.9999860651349445</v>
       </c>
       <c r="U10">
-        <v>0.9939934495222306</v>
+        <v>0.99998077923468</v>
       </c>
       <c r="V10">
-        <v>1.001514997039413</v>
+        <v>0.9999951858258129</v>
       </c>
       <c r="W10">
-        <v>0.9954369790439489</v>
+        <v>0.9999870297156606</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.026612596674259</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="D11">
-        <v>1.026612596674259</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="E11">
-        <v>0.9920508175859376</v>
+        <v>0.9993260057481815</v>
       </c>
       <c r="F11">
-        <v>1.013476107502108</v>
+        <v>1.001108673769537</v>
       </c>
       <c r="G11">
-        <v>1.009843585284242</v>
+        <v>1.000913556789542</v>
       </c>
       <c r="H11">
-        <v>0.9759568103097847</v>
+        <v>0.9979628436269711</v>
       </c>
       <c r="I11">
-        <v>0.9633484545640454</v>
+        <v>0.9969378497957793</v>
       </c>
       <c r="J11">
-        <v>0.9918855288247413</v>
+        <v>0.9992170527972349</v>
       </c>
       <c r="K11">
-        <v>1.00793763333637</v>
+        <v>1.000499105385128</v>
       </c>
       <c r="L11">
-        <v>0.9633484545640454</v>
+        <v>0.9969378497957793</v>
       </c>
       <c r="M11">
-        <v>1.026612596674259</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="N11">
-        <v>1.026612596674259</v>
+        <v>1.002515091269889</v>
       </c>
       <c r="O11">
-        <v>1.00793763333637</v>
+        <v>1.000499105385128</v>
       </c>
       <c r="P11">
-        <v>0.9856430439502077</v>
+        <v>0.9987184775904538</v>
       </c>
       <c r="Q11">
-        <v>0.9999942254611538</v>
+        <v>0.999912555566655</v>
       </c>
       <c r="R11">
-        <v>0.9992995615248913</v>
+        <v>0.9999840154835988</v>
       </c>
       <c r="S11">
-        <v>0.987778968495451</v>
+        <v>0.998920986976363</v>
       </c>
       <c r="T11">
-        <v>0.9992995615248913</v>
+        <v>0.9999840154835988</v>
       </c>
       <c r="U11">
-        <v>0.9974873755401529</v>
+        <v>0.9998195130497445</v>
       </c>
       <c r="V11">
-        <v>1.003312419766974</v>
+        <v>1.000358628693773</v>
       </c>
       <c r="W11">
-        <v>0.9976389417601859</v>
+        <v>0.9998100223977829</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.010166806357896</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="D12">
-        <v>1.010166806357896</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="E12">
-        <v>0.9956773611894741</v>
+        <v>0.986461438327409</v>
       </c>
       <c r="F12">
-        <v>1.007892926884211</v>
+        <v>1.024752421719979</v>
       </c>
       <c r="G12">
-        <v>1.004039095221053</v>
+        <v>1.012576835201399</v>
       </c>
       <c r="H12">
-        <v>0.9869020798631568</v>
+        <v>0.9589758091191133</v>
       </c>
       <c r="I12">
-        <v>0.9793127975263147</v>
+        <v>0.9351649643051252</v>
       </c>
       <c r="J12">
-        <v>0.9971674350421051</v>
+        <v>0.9912169682221781</v>
       </c>
       <c r="K12">
-        <v>1.007210672463158</v>
+        <v>1.022746208348243</v>
       </c>
       <c r="L12">
-        <v>0.9793127975263147</v>
+        <v>0.9351649643051252</v>
       </c>
       <c r="M12">
-        <v>1.010166806357896</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="N12">
-        <v>1.010166806357896</v>
+        <v>1.031601187108145</v>
       </c>
       <c r="O12">
-        <v>1.007210672463158</v>
+        <v>1.022746208348243</v>
       </c>
       <c r="P12">
-        <v>0.9932617349947361</v>
+        <v>0.978955586326684</v>
       </c>
       <c r="Q12">
-        <v>1.001444016826316</v>
+        <v>1.004603823337826</v>
       </c>
       <c r="R12">
-        <v>0.9988967587824561</v>
+        <v>0.9965041199205045</v>
       </c>
       <c r="S12">
-        <v>0.9940669437263154</v>
+        <v>0.9814575369935924</v>
       </c>
       <c r="T12">
-        <v>0.9988967587824561</v>
+        <v>0.9965041199205045</v>
       </c>
       <c r="U12">
-        <v>0.9980919093842106</v>
+        <v>0.9939934495222306</v>
       </c>
       <c r="V12">
-        <v>1.000506888778948</v>
+        <v>1.001514997039413</v>
       </c>
       <c r="W12">
-        <v>0.9985461468184209</v>
+        <v>0.9954369790439489</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9924620846431892</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="D13">
-        <v>0.9924620846431892</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="E13">
-        <v>1.002564291092104</v>
+        <v>0.9920508175859376</v>
       </c>
       <c r="F13">
-        <v>0.9955154276616219</v>
+        <v>1.013476107502108</v>
       </c>
       <c r="G13">
-        <v>0.9971440991550233</v>
+        <v>1.009843585284242</v>
       </c>
       <c r="H13">
-        <v>1.007761732402461</v>
+        <v>0.9759568103097847</v>
       </c>
       <c r="I13">
-        <v>1.012007292323513</v>
+        <v>0.9633484545640454</v>
       </c>
       <c r="J13">
-        <v>1.00223335565899</v>
+        <v>0.9918855288247413</v>
       </c>
       <c r="K13">
-        <v>0.9967355226903482</v>
+        <v>1.00793763333637</v>
       </c>
       <c r="L13">
-        <v>1.012007292323513</v>
+        <v>0.9633484545640454</v>
       </c>
       <c r="M13">
-        <v>0.9924620846431892</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="N13">
-        <v>0.9924620846431892</v>
+        <v>1.026612596674259</v>
       </c>
       <c r="O13">
-        <v>0.9967355226903482</v>
+        <v>1.00793763333637</v>
       </c>
       <c r="P13">
-        <v>1.004371407506931</v>
+        <v>0.9856430439502077</v>
       </c>
       <c r="Q13">
-        <v>0.9996499068912263</v>
+        <v>0.9999942254611538</v>
       </c>
       <c r="R13">
-        <v>1.000401633219017</v>
+        <v>0.9992995615248913</v>
       </c>
       <c r="S13">
-        <v>1.003769035368655</v>
+        <v>0.987778968495451</v>
       </c>
       <c r="T13">
-        <v>1.000401633219017</v>
+        <v>0.9992995615248913</v>
       </c>
       <c r="U13">
-        <v>1.000942297687289</v>
+        <v>0.9974873755401529</v>
       </c>
       <c r="V13">
-        <v>0.9992462550784686</v>
+        <v>1.003312419766974</v>
       </c>
       <c r="W13">
-        <v>1.000802975703406</v>
+        <v>0.9976389417601859</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0542662</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="D14">
-        <v>1.0542662</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="E14">
-        <v>0.9765846500000002</v>
+        <v>0.9956773611894741</v>
       </c>
       <c r="F14">
-        <v>1.042861100000001</v>
+        <v>1.007892926884211</v>
       </c>
       <c r="G14">
-        <v>1.0216333</v>
+        <v>1.004039095221053</v>
       </c>
       <c r="H14">
-        <v>0.9290452899999994</v>
+        <v>0.9869020798631568</v>
       </c>
       <c r="I14">
-        <v>0.887797470000001</v>
+        <v>0.9793127975263147</v>
       </c>
       <c r="J14">
-        <v>0.98495226</v>
+        <v>0.9971674350421051</v>
       </c>
       <c r="K14">
-        <v>1.0396018</v>
+        <v>1.007210672463158</v>
       </c>
       <c r="L14">
-        <v>0.887797470000001</v>
+        <v>0.9793127975263147</v>
       </c>
       <c r="M14">
-        <v>1.0542662</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="N14">
-        <v>1.0542662</v>
+        <v>1.010166806357896</v>
       </c>
       <c r="O14">
-        <v>1.0396018</v>
+        <v>1.007210672463158</v>
       </c>
       <c r="P14">
-        <v>0.9636996350000004</v>
+        <v>0.9932617349947361</v>
       </c>
       <c r="Q14">
-        <v>1.008093225</v>
+        <v>1.001444016826316</v>
       </c>
       <c r="R14">
-        <v>0.9938884900000003</v>
+        <v>0.9988967587824561</v>
       </c>
       <c r="S14">
-        <v>0.9679946400000002</v>
+        <v>0.9940669437263154</v>
       </c>
       <c r="T14">
-        <v>0.9938884900000003</v>
+        <v>0.9988967587824561</v>
       </c>
       <c r="U14">
-        <v>0.9895625300000004</v>
+        <v>0.9980919093842106</v>
       </c>
       <c r="V14">
-        <v>1.002503264</v>
+        <v>1.000506888778948</v>
       </c>
       <c r="W14">
-        <v>0.9920927587500001</v>
+        <v>0.9985461468184209</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0739194</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="D15">
-        <v>1.0739194</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="E15">
-        <v>0.97804822</v>
+        <v>1.002564291092104</v>
       </c>
       <c r="F15">
-        <v>1.0371583</v>
+        <v>0.9955154276616219</v>
       </c>
       <c r="G15">
-        <v>1.0273139</v>
+        <v>0.9971440991550233</v>
       </c>
       <c r="H15">
-        <v>0.9336067300000001</v>
+        <v>1.007761732402461</v>
       </c>
       <c r="I15">
-        <v>0.89886153</v>
+        <v>1.012007292323513</v>
       </c>
       <c r="J15">
-        <v>0.97743455</v>
+        <v>1.00223335565899</v>
       </c>
       <c r="K15">
-        <v>1.0216319</v>
+        <v>0.9967355226903482</v>
       </c>
       <c r="L15">
-        <v>0.89886153</v>
+        <v>1.012007292323513</v>
       </c>
       <c r="M15">
-        <v>1.0739194</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="N15">
-        <v>1.0739194</v>
+        <v>0.9924620846431892</v>
       </c>
       <c r="O15">
-        <v>1.0216319</v>
+        <v>0.9967355226903482</v>
       </c>
       <c r="P15">
-        <v>0.960246715</v>
+        <v>1.004371407506931</v>
       </c>
       <c r="Q15">
-        <v>0.99984006</v>
+        <v>0.9996499068912263</v>
       </c>
       <c r="R15">
-        <v>0.99813761</v>
+        <v>1.000401633219017</v>
       </c>
       <c r="S15">
-        <v>0.9661805500000001</v>
+        <v>1.003769035368655</v>
       </c>
       <c r="T15">
-        <v>0.99813761</v>
+        <v>1.000401633219017</v>
       </c>
       <c r="U15">
-        <v>0.9931152624999999</v>
+        <v>1.000942297687289</v>
       </c>
       <c r="V15">
-        <v>1.00927609</v>
+        <v>0.9992462550784686</v>
       </c>
       <c r="W15">
-        <v>0.99349681625</v>
+        <v>1.000802975703406</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.2008753</v>
+        <v>1.0542662</v>
       </c>
       <c r="D16">
-        <v>1.2008753</v>
+        <v>1.0542662</v>
       </c>
       <c r="E16">
-        <v>0.94173666</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="F16">
-        <v>1.0980093</v>
+        <v>1.042861100000001</v>
       </c>
       <c r="G16">
-        <v>1.0739241</v>
+        <v>1.0216333</v>
       </c>
       <c r="H16">
-        <v>0.8238079400000001</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="I16">
-        <v>0.73238625</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="J16">
-        <v>0.93838944</v>
+        <v>0.98495226</v>
       </c>
       <c r="K16">
+        <v>1.0396018</v>
+      </c>
+      <c r="L16">
+        <v>0.887797470000001</v>
+      </c>
+      <c r="M16">
         <v>1.0542662</v>
       </c>
-      <c r="L16">
-        <v>0.73238625</v>
-      </c>
-      <c r="M16">
-        <v>1.2008753</v>
-      </c>
       <c r="N16">
-        <v>1.2008753</v>
+        <v>1.0542662</v>
       </c>
       <c r="O16">
-        <v>1.0542662</v>
+        <v>1.0396018</v>
       </c>
       <c r="P16">
-        <v>0.893326225</v>
+        <v>0.9636996350000004</v>
       </c>
       <c r="Q16">
-        <v>0.99800143</v>
+        <v>1.008093225</v>
       </c>
       <c r="R16">
-        <v>0.9958425833333333</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="S16">
-        <v>0.9094630366666667</v>
+        <v>0.9679946400000002</v>
       </c>
       <c r="T16">
-        <v>0.9958425833333333</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="U16">
-        <v>0.9823161025</v>
+        <v>0.9895625300000004</v>
       </c>
       <c r="V16">
-        <v>1.026027942</v>
+        <v>1.002503264</v>
       </c>
       <c r="W16">
-        <v>0.98292439875</v>
+        <v>0.9920927587500001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99805808</v>
+        <v>1.0739194</v>
       </c>
       <c r="D17">
-        <v>0.99805808</v>
+        <v>1.0739194</v>
       </c>
       <c r="E17">
-        <v>0.99814082</v>
+        <v>0.97804822</v>
       </c>
       <c r="F17">
-        <v>1.0042234</v>
+        <v>1.0371583</v>
       </c>
       <c r="G17">
-        <v>0.9998101299999999</v>
+        <v>1.0273139</v>
       </c>
       <c r="H17">
-        <v>0.99433189</v>
+        <v>0.9336067300000001</v>
       </c>
       <c r="I17">
-        <v>0.98999236</v>
+        <v>0.89886153</v>
       </c>
       <c r="J17">
-        <v>1.0010994</v>
+        <v>0.97743455</v>
       </c>
       <c r="K17">
-        <v>1.0073471</v>
+        <v>1.0216319</v>
       </c>
       <c r="L17">
-        <v>0.98999236</v>
+        <v>0.89886153</v>
       </c>
       <c r="M17">
-        <v>0.99805808</v>
+        <v>1.0739194</v>
       </c>
       <c r="N17">
-        <v>0.99805808</v>
+        <v>1.0739194</v>
       </c>
       <c r="O17">
-        <v>1.0073471</v>
+        <v>1.0216319</v>
       </c>
       <c r="P17">
-        <v>0.99866973</v>
+        <v>0.960246715</v>
       </c>
       <c r="Q17">
-        <v>1.00274396</v>
+        <v>0.99984006</v>
       </c>
       <c r="R17">
-        <v>0.9984658466666666</v>
+        <v>0.99813761</v>
       </c>
       <c r="S17">
-        <v>0.9984934266666667</v>
+        <v>0.9661805500000001</v>
       </c>
       <c r="T17">
-        <v>0.9984658466666666</v>
+        <v>0.99813761</v>
       </c>
       <c r="U17">
-        <v>0.99838459</v>
+        <v>0.9931152624999999</v>
       </c>
       <c r="V17">
-        <v>0.998319288</v>
+        <v>1.00927609</v>
       </c>
       <c r="W17">
-        <v>0.9991253975000001</v>
+        <v>0.99349681625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.031210740821918</v>
+        <v>1.2008753</v>
       </c>
       <c r="D18">
-        <v>1.031210740821918</v>
+        <v>1.2008753</v>
       </c>
       <c r="E18">
-        <v>0.9917920775342464</v>
+        <v>0.94173666</v>
       </c>
       <c r="F18">
-        <v>1.013425078082192</v>
+        <v>1.0980093</v>
       </c>
       <c r="G18">
-        <v>1.011302881917808</v>
+        <v>1.0739241</v>
       </c>
       <c r="H18">
-        <v>0.9751946913698631</v>
+        <v>0.8238079400000001</v>
       </c>
       <c r="I18">
-        <v>0.9628114478082194</v>
+        <v>0.73238625</v>
       </c>
       <c r="J18">
-        <v>0.9902516647945206</v>
+        <v>0.93838944</v>
       </c>
       <c r="K18">
-        <v>1.005686801917808</v>
+        <v>1.0542662</v>
       </c>
       <c r="L18">
-        <v>0.9628114478082194</v>
+        <v>0.73238625</v>
       </c>
       <c r="M18">
-        <v>1.031210740821918</v>
+        <v>1.2008753</v>
       </c>
       <c r="N18">
-        <v>1.031210740821918</v>
+        <v>1.2008753</v>
       </c>
       <c r="O18">
-        <v>1.005686801917808</v>
+        <v>1.0542662</v>
       </c>
       <c r="P18">
-        <v>0.9842491248630139</v>
+        <v>0.893326225</v>
       </c>
       <c r="Q18">
-        <v>0.9987394397260274</v>
+        <v>0.99800143</v>
       </c>
       <c r="R18">
-        <v>0.9999029968493153</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="S18">
-        <v>0.9867634424200914</v>
+        <v>0.9094630366666667</v>
       </c>
       <c r="T18">
-        <v>0.9999029968493153</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="U18">
-        <v>0.9978752670205481</v>
+        <v>0.9823161025</v>
       </c>
       <c r="V18">
-        <v>1.004542361780822</v>
+        <v>1.026027942</v>
       </c>
       <c r="W18">
-        <v>0.9977094230308221</v>
+        <v>0.98292439875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.029899100526316</v>
+        <v>0.99805808</v>
       </c>
       <c r="D19">
-        <v>1.029899100526316</v>
+        <v>0.99805808</v>
       </c>
       <c r="E19">
-        <v>0.9898231068421053</v>
+        <v>0.99814082</v>
       </c>
       <c r="F19">
-        <v>1.017800067894737</v>
+        <v>1.0042234</v>
       </c>
       <c r="G19">
-        <v>1.011329145263158</v>
+        <v>0.9998101299999999</v>
       </c>
       <c r="H19">
-        <v>0.9691959573684212</v>
+        <v>0.99433189</v>
       </c>
       <c r="I19">
-        <v>0.952343812631579</v>
+        <v>0.98999236</v>
       </c>
       <c r="J19">
-        <v>0.9911425636842106</v>
+        <v>1.0010994</v>
       </c>
       <c r="K19">
-        <v>1.012966863157895</v>
+        <v>1.0073471</v>
       </c>
       <c r="L19">
-        <v>0.952343812631579</v>
+        <v>0.98999236</v>
       </c>
       <c r="M19">
-        <v>1.029899100526316</v>
+        <v>0.99805808</v>
       </c>
       <c r="N19">
-        <v>1.029899100526316</v>
+        <v>0.99805808</v>
       </c>
       <c r="O19">
-        <v>1.012966863157895</v>
+        <v>1.0073471</v>
       </c>
       <c r="P19">
-        <v>0.9826553378947369</v>
+        <v>0.99866973</v>
       </c>
       <c r="Q19">
-        <v>1.001394985</v>
+        <v>1.00274396</v>
       </c>
       <c r="R19">
-        <v>0.9984032587719299</v>
+        <v>0.9984658466666666</v>
       </c>
       <c r="S19">
-        <v>0.9850445942105264</v>
+        <v>0.9984934266666667</v>
       </c>
       <c r="T19">
-        <v>0.9984032587719298</v>
+        <v>0.9984658466666666</v>
       </c>
       <c r="U19">
-        <v>0.9962582207894737</v>
+        <v>0.99838459</v>
       </c>
       <c r="V19">
-        <v>1.002986396736842</v>
+        <v>0.998319288</v>
       </c>
       <c r="W19">
-        <v>0.9968125771710528</v>
+        <v>0.9991253975000001</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.064095052631579</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="D20">
-        <v>1.064095052631579</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="E20">
-        <v>0.9773157663157894</v>
+        <v>0.9917920775342464</v>
       </c>
       <c r="F20">
-        <v>1.040010831578947</v>
+        <v>1.013425078082192</v>
       </c>
       <c r="G20">
-        <v>1.024474426315789</v>
+        <v>1.011302881917808</v>
       </c>
       <c r="H20">
-        <v>0.9313239894736842</v>
+        <v>0.9751946913698631</v>
       </c>
       <c r="I20">
-        <v>0.8933264142105264</v>
+        <v>0.9628114478082194</v>
       </c>
       <c r="J20">
-        <v>0.981192727894737</v>
+        <v>0.9902516647945206</v>
       </c>
       <c r="K20">
-        <v>1.030617521052632</v>
+        <v>1.005686801917808</v>
       </c>
       <c r="L20">
-        <v>0.8933264142105264</v>
+        <v>0.9628114478082194</v>
       </c>
       <c r="M20">
-        <v>1.064095052631579</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="N20">
-        <v>1.064095052631579</v>
+        <v>1.031210740821918</v>
       </c>
       <c r="O20">
-        <v>1.030617521052632</v>
+        <v>1.005686801917808</v>
       </c>
       <c r="P20">
-        <v>0.961971967631579</v>
+        <v>0.9842491248630139</v>
       </c>
       <c r="Q20">
-        <v>1.003966643684211</v>
+        <v>0.9987394397260274</v>
       </c>
       <c r="R20">
-        <v>0.9960129959649123</v>
+        <v>0.9999029968493153</v>
       </c>
       <c r="S20">
-        <v>0.9670865671929825</v>
+        <v>0.9867634424200914</v>
       </c>
       <c r="T20">
-        <v>0.9960129959649123</v>
+        <v>0.9999029968493153</v>
       </c>
       <c r="U20">
-        <v>0.9913386885526316</v>
+        <v>0.9978752670205481</v>
       </c>
       <c r="V20">
-        <v>1.005889961368421</v>
+        <v>1.004542361780822</v>
       </c>
       <c r="W20">
-        <v>0.9927945911842105</v>
+        <v>0.9977094230308221</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.945252614043252</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="D21">
-        <v>0.945252614043252</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="E21">
-        <v>1.017803375928777</v>
+        <v>0.9898231068421053</v>
       </c>
       <c r="F21">
-        <v>0.9691811370087832</v>
+        <v>1.017800067894737</v>
       </c>
       <c r="G21">
-        <v>0.9794356041647687</v>
+        <v>1.011329145263158</v>
       </c>
       <c r="H21">
-        <v>1.053874942934517</v>
+        <v>0.9691959573684212</v>
       </c>
       <c r="I21">
-        <v>1.082940084146371</v>
+        <v>0.952343812631579</v>
       </c>
       <c r="J21">
-        <v>1.016391450488876</v>
+        <v>0.9911425636842106</v>
       </c>
       <c r="K21">
-        <v>0.9789578497916704</v>
+        <v>1.012966863157895</v>
       </c>
       <c r="L21">
-        <v>1.082940084146371</v>
+        <v>0.952343812631579</v>
       </c>
       <c r="M21">
-        <v>0.945252614043252</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="N21">
-        <v>0.945252614043252</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="O21">
-        <v>0.9789578497916704</v>
+        <v>1.012966863157895</v>
       </c>
       <c r="P21">
-        <v>1.030948966969021</v>
+        <v>0.9826553378947369</v>
       </c>
       <c r="Q21">
-        <v>0.9983806128602237</v>
+        <v>1.001394985</v>
       </c>
       <c r="R21">
-        <v>1.002383515993764</v>
+        <v>0.9984032587719299</v>
       </c>
       <c r="S21">
-        <v>1.026567103288939</v>
+        <v>0.9850445942105264</v>
       </c>
       <c r="T21">
-        <v>1.002383515993764</v>
+        <v>0.9984032587719298</v>
       </c>
       <c r="U21">
-        <v>1.006238480977518</v>
+        <v>0.9962582207894737</v>
       </c>
       <c r="V21">
-        <v>0.9940413075906644</v>
+        <v>1.002986396736842</v>
       </c>
       <c r="W21">
-        <v>1.005479632313377</v>
+        <v>0.9968125771710528</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.985074903623029</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="D22">
-        <v>0.985074903623029</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="E22">
-        <v>1.004729781877404</v>
+        <v>0.9773157663157894</v>
       </c>
       <c r="F22">
-        <v>0.9918623487492738</v>
+        <v>1.040010831578947</v>
       </c>
       <c r="G22">
-        <v>0.9944205889207962</v>
+        <v>1.024474426315789</v>
       </c>
       <c r="H22">
-        <v>1.014310749475811</v>
+        <v>0.9313239894736842</v>
       </c>
       <c r="I22">
-        <v>1.021967623765933</v>
+        <v>0.8933264142105264</v>
       </c>
       <c r="J22">
-        <v>1.004494326917023</v>
+        <v>0.981192727894737</v>
       </c>
       <c r="K22">
-        <v>0.9946656092377719</v>
+        <v>1.030617521052632</v>
       </c>
       <c r="L22">
-        <v>1.021967623765933</v>
+        <v>0.8933264142105264</v>
       </c>
       <c r="M22">
-        <v>0.985074903623029</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="N22">
-        <v>0.985074903623029</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="O22">
-        <v>0.9946656092377719</v>
+        <v>1.030617521052632</v>
       </c>
       <c r="P22">
-        <v>1.008316616501853</v>
+        <v>0.961971967631579</v>
       </c>
       <c r="Q22">
-        <v>0.999697695557588</v>
+        <v>1.003966643684211</v>
       </c>
       <c r="R22">
-        <v>1.000569378875578</v>
+        <v>0.9960129959649123</v>
       </c>
       <c r="S22">
-        <v>1.00712100496037</v>
+        <v>0.9670865671929825</v>
       </c>
       <c r="T22">
-        <v>1.000569378875578</v>
+        <v>0.9960129959649123</v>
       </c>
       <c r="U22">
-        <v>1.001609479626035</v>
+        <v>0.9913386885526316</v>
       </c>
       <c r="V22">
-        <v>0.9983025644254335</v>
+        <v>1.005889961368421</v>
       </c>
       <c r="W22">
-        <v>1.00144074157088</v>
+        <v>0.9927945911842105</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9881220697008604</v>
+        <v>0.945252614043252</v>
       </c>
       <c r="D23">
-        <v>0.9881220697008604</v>
+        <v>0.945252614043252</v>
       </c>
       <c r="E23">
-        <v>1.006108542682043</v>
+        <v>1.017803375928777</v>
       </c>
       <c r="F23">
-        <v>0.9885194239306797</v>
+        <v>0.9691811370087832</v>
       </c>
       <c r="G23">
-        <v>0.9950518239425535</v>
+        <v>0.9794356041647687</v>
       </c>
       <c r="H23">
-        <v>1.018523042721934</v>
+        <v>1.053874942934517</v>
       </c>
       <c r="I23">
-        <v>1.029671802628159</v>
+        <v>1.082940084146371</v>
       </c>
       <c r="J23">
-        <v>1.003089179129521</v>
+        <v>1.016391450488876</v>
       </c>
       <c r="K23">
-        <v>0.988136457402741</v>
+        <v>0.9789578497916704</v>
       </c>
       <c r="L23">
-        <v>1.029671802628159</v>
+        <v>1.082940084146371</v>
       </c>
       <c r="M23">
-        <v>0.9881220697008604</v>
+        <v>0.945252614043252</v>
       </c>
       <c r="N23">
-        <v>0.9881220697008604</v>
+        <v>0.945252614043252</v>
       </c>
       <c r="O23">
-        <v>0.988136457402741</v>
+        <v>0.9789578497916704</v>
       </c>
       <c r="P23">
-        <v>1.00890413001545</v>
+        <v>1.030948966969021</v>
       </c>
       <c r="Q23">
-        <v>0.9971225000423918</v>
+        <v>0.9983806128602237</v>
       </c>
       <c r="R23">
-        <v>1.001976776577254</v>
+        <v>1.002383515993764</v>
       </c>
       <c r="S23">
-        <v>1.007972267570981</v>
+        <v>1.026567103288939</v>
       </c>
       <c r="T23">
-        <v>1.001976776577254</v>
+        <v>1.002383515993764</v>
       </c>
       <c r="U23">
-        <v>1.003009718103451</v>
+        <v>1.006238480977518</v>
       </c>
       <c r="V23">
-        <v>1.000032188422933</v>
+        <v>0.9940413075906644</v>
       </c>
       <c r="W23">
-        <v>1.002152792767312</v>
+        <v>1.005479632313377</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9929960582755254</v>
+        <v>0.985074903623029</v>
       </c>
       <c r="D24">
-        <v>0.9929960582755254</v>
+        <v>0.985074903623029</v>
       </c>
       <c r="E24">
-        <v>1.001292115374317</v>
+        <v>1.004729781877404</v>
       </c>
       <c r="F24">
-        <v>0.9981609168818504</v>
+        <v>0.9918623487492738</v>
       </c>
       <c r="G24">
-        <v>0.997582651098466</v>
+        <v>0.9944205889207962</v>
       </c>
       <c r="H24">
-        <v>1.003893446055748</v>
+        <v>1.014310749475811</v>
       </c>
       <c r="I24">
-        <v>1.005486818328789</v>
+        <v>1.021967623765933</v>
       </c>
       <c r="J24">
-        <v>1.002301944381739</v>
+        <v>1.004494326917023</v>
       </c>
       <c r="K24">
-        <v>1.0005104598965</v>
+        <v>0.9946656092377719</v>
       </c>
       <c r="L24">
-        <v>1.005486818328789</v>
+        <v>1.021967623765933</v>
       </c>
       <c r="M24">
-        <v>0.9929960582755254</v>
+        <v>0.985074903623029</v>
       </c>
       <c r="N24">
-        <v>0.9929960582755254</v>
+        <v>0.985074903623029</v>
       </c>
       <c r="O24">
-        <v>1.0005104598965</v>
+        <v>0.9946656092377719</v>
       </c>
       <c r="P24">
-        <v>1.002998639112644</v>
+        <v>1.008316616501853</v>
       </c>
       <c r="Q24">
-        <v>1.000901287635408</v>
+        <v>0.999697695557588</v>
       </c>
       <c r="R24">
-        <v>0.9996644455002713</v>
+        <v>1.000569378875578</v>
       </c>
       <c r="S24">
-        <v>1.002429797866535</v>
+        <v>1.00712100496037</v>
       </c>
       <c r="T24">
-        <v>0.9996644455002713</v>
+        <v>1.000569378875578</v>
       </c>
       <c r="U24">
-        <v>1.000071362968783</v>
+        <v>1.001609479626035</v>
       </c>
       <c r="V24">
-        <v>0.9986563020301313</v>
+        <v>0.9983025644254335</v>
       </c>
       <c r="W24">
-        <v>1.000278051286617</v>
+        <v>1.00144074157088</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.0560088487021</v>
+        <v>0.9881220697008604</v>
       </c>
       <c r="D25">
-        <v>1.0560088487021</v>
+        <v>0.9881220697008604</v>
       </c>
       <c r="E25">
-        <v>0.9826962824712844</v>
+        <v>1.006108542682043</v>
       </c>
       <c r="F25">
-        <v>1.029586781338969</v>
+        <v>0.9885194239306797</v>
       </c>
       <c r="G25">
-        <v>1.020841132070817</v>
+        <v>0.9950518239425535</v>
       </c>
       <c r="H25">
-        <v>0.9476524354755785</v>
+        <v>1.018523042721934</v>
       </c>
       <c r="I25">
-        <v>0.9198795011310777</v>
+        <v>1.029671802628159</v>
       </c>
       <c r="J25">
-        <v>0.9830416325831307</v>
+        <v>1.003089179129521</v>
       </c>
       <c r="K25">
-        <v>1.018570322703986</v>
+        <v>0.988136457402741</v>
       </c>
       <c r="L25">
-        <v>0.9198795011310777</v>
+        <v>1.029671802628159</v>
       </c>
       <c r="M25">
-        <v>1.0560088487021</v>
+        <v>0.9881220697008604</v>
       </c>
       <c r="N25">
-        <v>1.0560088487021</v>
+        <v>0.9881220697008604</v>
       </c>
       <c r="O25">
-        <v>1.018570322703986</v>
+        <v>0.988136457402741</v>
       </c>
       <c r="P25">
-        <v>0.969224911917532</v>
+        <v>1.00890413001545</v>
       </c>
       <c r="Q25">
-        <v>1.000633302587635</v>
+        <v>0.9971225000423918</v>
       </c>
       <c r="R25">
-        <v>0.9981528908457212</v>
+        <v>1.001976776577254</v>
       </c>
       <c r="S25">
-        <v>0.9737153687687828</v>
+        <v>1.007972267570981</v>
       </c>
       <c r="T25">
-        <v>0.9981528908457212</v>
+        <v>1.001976776577254</v>
       </c>
       <c r="U25">
-        <v>0.994288738752112</v>
+        <v>1.003009718103451</v>
       </c>
       <c r="V25">
-        <v>1.00663276074211</v>
+        <v>1.000032188422933</v>
       </c>
       <c r="W25">
-        <v>0.994784617059618</v>
+        <v>1.002152792767312</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.013683125397131</v>
+        <v>0.9929960582755254</v>
       </c>
       <c r="D26">
-        <v>1.013683125397131</v>
+        <v>0.9929960582755254</v>
       </c>
       <c r="E26">
-        <v>0.9952669974212713</v>
+        <v>1.001292115374317</v>
       </c>
       <c r="F26">
-        <v>1.008307479734452</v>
+        <v>0.9981609168818504</v>
       </c>
       <c r="G26">
-        <v>1.005201078403967</v>
+        <v>0.997582651098466</v>
       </c>
       <c r="H26">
-        <v>0.98567265282489</v>
+        <v>1.003893446055748</v>
       </c>
       <c r="I26">
-        <v>0.9777973350175618</v>
+        <v>1.005486818328789</v>
       </c>
       <c r="J26">
-        <v>0.9959621832699987</v>
+        <v>1.002301944381739</v>
       </c>
       <c r="K26">
-        <v>1.006179908669356</v>
+        <v>1.0005104598965</v>
       </c>
       <c r="L26">
-        <v>0.9777973350175618</v>
+        <v>1.005486818328789</v>
       </c>
       <c r="M26">
-        <v>1.013683125397131</v>
+        <v>0.9929960582755254</v>
       </c>
       <c r="N26">
-        <v>1.013683125397131</v>
+        <v>0.9929960582755254</v>
       </c>
       <c r="O26">
-        <v>1.006179908669356</v>
+        <v>1.0005104598965</v>
       </c>
       <c r="P26">
-        <v>0.991988621843459</v>
+        <v>1.002998639112644</v>
       </c>
       <c r="Q26">
-        <v>1.000723453045314</v>
+        <v>1.000901287635408</v>
       </c>
       <c r="R26">
-        <v>0.9992201230280164</v>
+        <v>0.9996644455002713</v>
       </c>
       <c r="S26">
-        <v>0.9930814137027298</v>
+        <v>1.002429797866535</v>
       </c>
       <c r="T26">
-        <v>0.9992201230280164</v>
+        <v>0.9996644455002713</v>
       </c>
       <c r="U26">
-        <v>0.9982318416263302</v>
+        <v>1.000071362968783</v>
       </c>
       <c r="V26">
-        <v>1.00132209838049</v>
+        <v>0.9986563020301313</v>
       </c>
       <c r="W26">
-        <v>0.9985088450923285</v>
+        <v>1.000278051286617</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.00446474899623</v>
+        <v>1.0560088487021</v>
       </c>
       <c r="D27">
-        <v>1.00446474899623</v>
+        <v>1.0560088487021</v>
       </c>
       <c r="E27">
-        <v>0.9986959737622363</v>
+        <v>0.9826962824712844</v>
       </c>
       <c r="F27">
-        <v>1.002197716009112</v>
+        <v>1.029586781338969</v>
       </c>
       <c r="G27">
-        <v>1.001645030426103</v>
+        <v>1.020841132070817</v>
       </c>
       <c r="H27">
-        <v>0.9960563333951805</v>
+        <v>0.9476524354755785</v>
       </c>
       <c r="I27">
-        <v>0.9940048472104366</v>
+        <v>0.9198795011310777</v>
       </c>
       <c r="J27">
-        <v>0.9986324994163899</v>
+        <v>0.9830416325831307</v>
       </c>
       <c r="K27">
-        <v>1.001235526117853</v>
+        <v>1.018570322703986</v>
       </c>
       <c r="L27">
-        <v>0.9940048472104366</v>
+        <v>0.9198795011310777</v>
       </c>
       <c r="M27">
-        <v>1.00446474899623</v>
+        <v>1.0560088487021</v>
       </c>
       <c r="N27">
-        <v>1.00446474899623</v>
+        <v>1.0560088487021</v>
       </c>
       <c r="O27">
-        <v>1.001235526117853</v>
+        <v>1.018570322703986</v>
       </c>
       <c r="P27">
-        <v>0.9976201866641449</v>
+        <v>0.969224911917532</v>
       </c>
       <c r="Q27">
-        <v>0.9999657499400447</v>
+        <v>1.000633302587635</v>
       </c>
       <c r="R27">
-        <v>0.9999017074415066</v>
+        <v>0.9981528908457212</v>
       </c>
       <c r="S27">
-        <v>0.9979787823635086</v>
+        <v>0.9737153687687828</v>
       </c>
       <c r="T27">
-        <v>0.9999017074415066</v>
+        <v>0.9981528908457212</v>
       </c>
       <c r="U27">
-        <v>0.9996002740216891</v>
+        <v>0.994288738752112</v>
       </c>
       <c r="V27">
-        <v>1.000573169016597</v>
+        <v>1.00663276074211</v>
       </c>
       <c r="W27">
-        <v>0.9996165844166927</v>
+        <v>0.994784617059618</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.008036033802674</v>
+        <v>1.013683125397131</v>
       </c>
       <c r="D28">
-        <v>1.008036033802674</v>
+        <v>1.013683125397131</v>
       </c>
       <c r="E28">
-        <v>0.9977580542839358</v>
+        <v>0.9952669974212713</v>
       </c>
       <c r="F28">
-        <v>1.00373114822979</v>
+        <v>1.008307479734452</v>
       </c>
       <c r="G28">
-        <v>1.002938081476415</v>
+        <v>1.005201078403967</v>
       </c>
       <c r="H28">
-        <v>0.9932218862419924</v>
+        <v>0.98567265282489</v>
       </c>
       <c r="I28">
-        <v>0.9897562096692494</v>
+        <v>0.9777973350175618</v>
       </c>
       <c r="J28">
-        <v>0.9975167821633516</v>
+        <v>0.9959621832699987</v>
       </c>
       <c r="K28">
-        <v>1.001882102742715</v>
+        <v>1.006179908669356</v>
       </c>
       <c r="L28">
-        <v>0.9897562096692494</v>
+        <v>0.9777973350175618</v>
       </c>
       <c r="M28">
-        <v>1.008036033802674</v>
+        <v>1.013683125397131</v>
       </c>
       <c r="N28">
-        <v>1.008036033802674</v>
+        <v>1.013683125397131</v>
       </c>
       <c r="O28">
-        <v>1.001882102742715</v>
+        <v>1.006179908669356</v>
       </c>
       <c r="P28">
-        <v>0.995819156205982</v>
+        <v>0.991988621843459</v>
       </c>
       <c r="Q28">
-        <v>0.9998200785133253</v>
+        <v>1.000723453045314</v>
       </c>
       <c r="R28">
-        <v>0.9998914487382127</v>
+        <v>0.9992201230280164</v>
       </c>
       <c r="S28">
-        <v>0.9964654555653</v>
+        <v>0.9930814137027298</v>
       </c>
       <c r="T28">
-        <v>0.9998914487382127</v>
+        <v>0.9992201230280164</v>
       </c>
       <c r="U28">
-        <v>0.9993581001246434</v>
+        <v>0.9982318416263302</v>
       </c>
       <c r="V28">
-        <v>1.00109368686025</v>
+        <v>1.00132209838049</v>
       </c>
       <c r="W28">
-        <v>0.9993550373262654</v>
+        <v>0.9985088450923285</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="D29">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="E29">
+        <v>0.9986959737622363</v>
+      </c>
+      <c r="F29">
+        <v>1.002197716009112</v>
+      </c>
+      <c r="G29">
+        <v>1.001645030426103</v>
+      </c>
+      <c r="H29">
+        <v>0.9960563333951805</v>
+      </c>
+      <c r="I29">
+        <v>0.9940048472104366</v>
+      </c>
+      <c r="J29">
+        <v>0.9986324994163899</v>
+      </c>
+      <c r="K29">
+        <v>1.001235526117853</v>
+      </c>
+      <c r="L29">
+        <v>0.9940048472104366</v>
+      </c>
+      <c r="M29">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="N29">
+        <v>1.00446474899623</v>
+      </c>
+      <c r="O29">
+        <v>1.001235526117853</v>
+      </c>
+      <c r="P29">
+        <v>0.9976201866641449</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999657499400447</v>
+      </c>
+      <c r="R29">
+        <v>0.9999017074415066</v>
+      </c>
+      <c r="S29">
+        <v>0.9979787823635086</v>
+      </c>
+      <c r="T29">
+        <v>0.9999017074415066</v>
+      </c>
+      <c r="U29">
+        <v>0.9996002740216891</v>
+      </c>
+      <c r="V29">
+        <v>1.000573169016597</v>
+      </c>
+      <c r="W29">
+        <v>0.9996165844166927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="D30">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="E30">
+        <v>0.9977580542839358</v>
+      </c>
+      <c r="F30">
+        <v>1.00373114822979</v>
+      </c>
+      <c r="G30">
+        <v>1.002938081476415</v>
+      </c>
+      <c r="H30">
+        <v>0.9932218862419924</v>
+      </c>
+      <c r="I30">
+        <v>0.9897562096692494</v>
+      </c>
+      <c r="J30">
+        <v>0.9975167821633516</v>
+      </c>
+      <c r="K30">
+        <v>1.001882102742715</v>
+      </c>
+      <c r="L30">
+        <v>0.9897562096692494</v>
+      </c>
+      <c r="M30">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="N30">
+        <v>1.008036033802674</v>
+      </c>
+      <c r="O30">
+        <v>1.001882102742715</v>
+      </c>
+      <c r="P30">
+        <v>0.995819156205982</v>
+      </c>
+      <c r="Q30">
+        <v>0.9998200785133253</v>
+      </c>
+      <c r="R30">
+        <v>0.9998914487382127</v>
+      </c>
+      <c r="S30">
+        <v>0.9964654555653</v>
+      </c>
+      <c r="T30">
+        <v>0.9998914487382127</v>
+      </c>
+      <c r="U30">
+        <v>0.9993581001246434</v>
+      </c>
+      <c r="V30">
+        <v>1.00109368686025</v>
+      </c>
+      <c r="W30">
+        <v>0.9993550373262654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9954404235822315</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9954404235822315</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.002046077527865</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9962308088318446</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9981652720059248</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.006201143261314</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.009836503429235</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.001247990380848</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9964169572517488</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.009836503429235</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9954404235822315</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9954404235822315</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9964169572517488</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.003126730340492</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.999231517389807</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000564628087738</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.002766512736283</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000564628087739</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.00093499044777</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9998360770746626</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000698147033876</v>
       </c>
     </row>
